--- a/notebooks/model/LSTM/registro_ejecuciones/reg.xlsx
+++ b/notebooks/model/LSTM/registro_ejecuciones/reg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10567,10 +10567,8 @@
           <t>(None, 1, 200)</t>
         </is>
       </c>
-      <c r="J331" t="inlineStr">
-        <is>
-          <t>172800</t>
-        </is>
+      <c r="J331" t="n">
+        <v>172800</v>
       </c>
       <c r="K331" t="inlineStr">
         <is>
@@ -10600,10 +10598,8 @@
           <t>(None, 1, 100)</t>
         </is>
       </c>
-      <c r="J332" t="inlineStr">
-        <is>
-          <t>120400</t>
-        </is>
+      <c r="J332" t="n">
+        <v>120400</v>
       </c>
       <c r="K332" t="inlineStr">
         <is>
@@ -10633,12 +10629,7611 @@
           <t>(None, 1, 50)</t>
         </is>
       </c>
-      <c r="J333" t="inlineStr">
-        <is>
-          <t>7550</t>
-        </is>
+      <c r="J333" t="n">
+        <v>7550</v>
       </c>
       <c r="K333" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>1</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.01202744878242341</v>
+      </c>
+      <c r="D334" t="n">
+        <v>0.1096697259156938</v>
+      </c>
+      <c r="E334" t="n">
+        <v>0.06856175693481928</v>
+      </c>
+      <c r="F334" t="n">
+        <v>0.3708288592918451</v>
+      </c>
+      <c r="G334" t="inlineStr"/>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>1</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.01653134963769098</v>
+      </c>
+      <c r="D335" t="n">
+        <v>0.1285742961780891</v>
+      </c>
+      <c r="E335" t="n">
+        <v>0.08700438555105744</v>
+      </c>
+      <c r="F335" t="n">
+        <v>0.1816202940753778</v>
+      </c>
+      <c r="G335" t="inlineStr"/>
+      <c r="H335" t="inlineStr"/>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>2</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.01295588502029264</v>
+      </c>
+      <c r="D336" t="n">
+        <v>0.1138239211250985</v>
+      </c>
+      <c r="E336" t="n">
+        <v>0.07092646695170551</v>
+      </c>
+      <c r="F336" t="n">
+        <v>0.322360584525859</v>
+      </c>
+      <c r="G336" t="inlineStr"/>
+      <c r="H336" t="inlineStr"/>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>2</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.01790370355726021</v>
+      </c>
+      <c r="D337" t="n">
+        <v>0.1338047217300653</v>
+      </c>
+      <c r="E337" t="n">
+        <v>0.08971128674108381</v>
+      </c>
+      <c r="F337" t="n">
+        <v>0.1138046131688307</v>
+      </c>
+      <c r="G337" t="inlineStr"/>
+      <c r="H337" t="inlineStr"/>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr"/>
+      <c r="B338" t="inlineStr"/>
+      <c r="C338" t="inlineStr"/>
+      <c r="D338" t="inlineStr"/>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr"/>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I338" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J338" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr"/>
+      <c r="B339" t="inlineStr"/>
+      <c r="C339" t="inlineStr"/>
+      <c r="D339" t="inlineStr"/>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr"/>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J339" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr"/>
+      <c r="B340" t="inlineStr"/>
+      <c r="C340" t="inlineStr"/>
+      <c r="D340" t="inlineStr"/>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr"/>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I340" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J340" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>1</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.007209483499006963</v>
+      </c>
+      <c r="D341" t="n">
+        <v>0.08490867740700572</v>
+      </c>
+      <c r="E341" t="n">
+        <v>0.05149384238917944</v>
+      </c>
+      <c r="F341" t="n">
+        <v>0.622774270609826</v>
+      </c>
+      <c r="G341" t="inlineStr"/>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>1</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.009978583618719816</v>
+      </c>
+      <c r="D342" t="n">
+        <v>0.09989286069945047</v>
+      </c>
+      <c r="E342" t="n">
+        <v>0.067244649377506</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.5061027592401455</v>
+      </c>
+      <c r="G342" t="inlineStr"/>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr"/>
+      <c r="B343" t="inlineStr"/>
+      <c r="C343" t="inlineStr"/>
+      <c r="D343" t="inlineStr"/>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr"/>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I343" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J343" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr"/>
+      <c r="B344" t="inlineStr"/>
+      <c r="C344" t="inlineStr"/>
+      <c r="D344" t="inlineStr"/>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr"/>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I344" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J344" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr"/>
+      <c r="B345" t="inlineStr"/>
+      <c r="C345" t="inlineStr"/>
+      <c r="D345" t="inlineStr"/>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr"/>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I345" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J345" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>1</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.01160679102403884</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0.107734818067507</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0.06647052915229772</v>
+      </c>
+      <c r="F346" t="n">
+        <v>0.3928340015691774</v>
+      </c>
+      <c r="G346" t="inlineStr"/>
+      <c r="H346" t="inlineStr"/>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>1</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.01627375855639618</v>
+      </c>
+      <c r="D347" t="n">
+        <v>0.1275686425278414</v>
+      </c>
+      <c r="E347" t="n">
+        <v>0.08578895059259763</v>
+      </c>
+      <c r="F347" t="n">
+        <v>0.1943722664175639</v>
+      </c>
+      <c r="G347" t="inlineStr"/>
+      <c r="H347" t="inlineStr"/>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>2</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.01151181299800921</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.1072931171977458</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.06630122049132867</v>
+      </c>
+      <c r="F348" t="n">
+        <v>0.397890748582579</v>
+      </c>
+      <c r="G348" t="inlineStr"/>
+      <c r="H348" t="inlineStr"/>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>2</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.01654137997401625</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.12861329625671</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.08689223812036216</v>
+      </c>
+      <c r="F349" t="n">
+        <v>0.1812367436764057</v>
+      </c>
+      <c r="G349" t="inlineStr"/>
+      <c r="H349" t="inlineStr"/>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr"/>
+      <c r="B350" t="inlineStr"/>
+      <c r="C350" t="inlineStr"/>
+      <c r="D350" t="inlineStr"/>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr"/>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I350" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J350" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr"/>
+      <c r="B351" t="inlineStr"/>
+      <c r="C351" t="inlineStr"/>
+      <c r="D351" t="inlineStr"/>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr"/>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I351" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J351" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr"/>
+      <c r="B352" t="inlineStr"/>
+      <c r="C352" t="inlineStr"/>
+      <c r="D352" t="inlineStr"/>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr"/>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>simple_rnn_1</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I352" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J352" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>1</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.01150763331920477</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.1072736375779472</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.06732998906482245</v>
+      </c>
+      <c r="F353" t="n">
+        <v>0.3980210672045452</v>
+      </c>
+      <c r="G353" t="inlineStr"/>
+      <c r="H353" t="inlineStr"/>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>1</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.01583765663411451</v>
+      </c>
+      <c r="D354" t="n">
+        <v>0.1258477518039735</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.08560871242857537</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.2159613665655836</v>
+      </c>
+      <c r="G354" t="inlineStr"/>
+      <c r="H354" t="inlineStr"/>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>2</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.01129042613405265</v>
+      </c>
+      <c r="D355" t="n">
+        <v>0.1062564169076515</v>
+      </c>
+      <c r="E355" t="n">
+        <v>0.06572802877171587</v>
+      </c>
+      <c r="F355" t="n">
+        <v>0.4094700783504954</v>
+      </c>
+      <c r="G355" t="inlineStr"/>
+      <c r="H355" t="inlineStr"/>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>2</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.01551116627634049</v>
+      </c>
+      <c r="D356" t="n">
+        <v>0.1245438327511262</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0.08441827043105926</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0.2322301386134167</v>
+      </c>
+      <c r="G356" t="inlineStr"/>
+      <c r="H356" t="inlineStr"/>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr"/>
+      <c r="B357" t="inlineStr"/>
+      <c r="C357" t="inlineStr"/>
+      <c r="D357" t="inlineStr"/>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr"/>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I357" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J357" t="n">
+        <v>12800</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr"/>
+      <c r="B358" t="inlineStr"/>
+      <c r="C358" t="inlineStr"/>
+      <c r="D358" t="inlineStr"/>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr"/>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I358" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J358" t="n">
+        <v>1900</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>1</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.01184017531689826</v>
+      </c>
+      <c r="D359" t="n">
+        <v>0.1088125696640708</v>
+      </c>
+      <c r="E359" t="n">
+        <v>0.06767496489079204</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0.3806253724227939</v>
+      </c>
+      <c r="G359" t="inlineStr"/>
+      <c r="H359" t="inlineStr"/>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>1</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.01645296097554963</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.1282690959489059</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.08657243257580167</v>
+      </c>
+      <c r="F360" t="n">
+        <v>0.1855009022336374</v>
+      </c>
+      <c r="G360" t="inlineStr"/>
+      <c r="H360" t="inlineStr"/>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>2</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.01166645770269084</v>
+      </c>
+      <c r="D361" t="n">
+        <v>0.1080113776538881</v>
+      </c>
+      <c r="E361" t="n">
+        <v>0.06656017504870348</v>
+      </c>
+      <c r="F361" t="n">
+        <v>0.3898022739532895</v>
+      </c>
+      <c r="G361" t="inlineStr"/>
+      <c r="H361" t="inlineStr"/>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>2</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.01631076046279166</v>
+      </c>
+      <c r="D362" t="n">
+        <v>0.1277135876200792</v>
+      </c>
+      <c r="E362" t="n">
+        <v>0.08565847117458469</v>
+      </c>
+      <c r="F362" t="n">
+        <v>0.1926519207824642</v>
+      </c>
+      <c r="G362" t="inlineStr"/>
+      <c r="H362" t="inlineStr"/>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr"/>
+      <c r="B363" t="inlineStr"/>
+      <c r="C363" t="inlineStr"/>
+      <c r="D363" t="inlineStr"/>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr"/>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I363" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J363" t="n">
+        <v>45600</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr"/>
+      <c r="B364" t="inlineStr"/>
+      <c r="C364" t="inlineStr"/>
+      <c r="D364" t="inlineStr"/>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr"/>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>simple_rnn_3</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I364" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J364" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>1</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.01181036739405436</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.1086755142341381</v>
+      </c>
+      <c r="E365" t="n">
+        <v>0.06685700736028376</v>
+      </c>
+      <c r="F365" t="n">
+        <v>0.3821846627724851</v>
+      </c>
+      <c r="G365" t="inlineStr"/>
+      <c r="H365" t="inlineStr"/>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>1</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.01575017786482292</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.1254997126085272</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.08488451134453062</v>
+      </c>
+      <c r="F366" t="n">
+        <v>0.2202919778620911</v>
+      </c>
+      <c r="G366" t="inlineStr"/>
+      <c r="H366" t="inlineStr"/>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>2</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.01160866934111875</v>
+      </c>
+      <c r="D367" t="n">
+        <v>0.107743535031661</v>
+      </c>
+      <c r="E367" t="n">
+        <v>0.06623633045787768</v>
+      </c>
+      <c r="F367" t="n">
+        <v>0.3928248132468676</v>
+      </c>
+      <c r="G367" t="inlineStr"/>
+      <c r="H367" t="inlineStr"/>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>2</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.01545892083002607</v>
+      </c>
+      <c r="D368" t="n">
+        <v>0.1243339086091404</v>
+      </c>
+      <c r="E368" t="n">
+        <v>0.08366016748674836</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0.2348161774940705</v>
+      </c>
+      <c r="G368" t="inlineStr"/>
+      <c r="H368" t="inlineStr"/>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr"/>
+      <c r="B369" t="inlineStr"/>
+      <c r="C369" t="inlineStr"/>
+      <c r="D369" t="inlineStr"/>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr"/>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I369" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J369" t="n">
+        <v>12800</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>1</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>0.01158050713586834</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.1076127647440969</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.06639827069765113</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0.3942089451837072</v>
+      </c>
+      <c r="G370" t="inlineStr"/>
+      <c r="H370" t="inlineStr"/>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>1</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.01566758414651448</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.1251702206857305</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.08446030716350457</v>
+      </c>
+      <c r="F371" t="n">
+        <v>0.2243807561156445</v>
+      </c>
+      <c r="G371" t="inlineStr"/>
+      <c r="H371" t="inlineStr"/>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>2</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>0.01153623811358378</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.1074068811277182</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.06602755327086586</v>
+      </c>
+      <c r="F372" t="n">
+        <v>0.3966132271307512</v>
+      </c>
+      <c r="G372" t="inlineStr"/>
+      <c r="H372" t="inlineStr"/>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>2</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>0.0154063570623505</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.1241223471513107</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.08396198646795626</v>
+      </c>
+      <c r="F373" t="n">
+        <v>0.2374179726075553</v>
+      </c>
+      <c r="G373" t="inlineStr"/>
+      <c r="H373" t="inlineStr"/>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr"/>
+      <c r="B374" t="inlineStr"/>
+      <c r="C374" t="inlineStr"/>
+      <c r="D374" t="inlineStr"/>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr"/>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I374" t="inlineStr">
+        <is>
+          <t>(32, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J374" t="n">
+        <v>12800</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>1</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>0.01181684142624302</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.1087052962198394</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.07024000847041413</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0.3818459979158886</v>
+      </c>
+      <c r="G375" t="inlineStr"/>
+      <c r="H375" t="inlineStr"/>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>1</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>0.01603129181847641</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.1266147377617488</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.08813800512230179</v>
+      </c>
+      <c r="F376" t="n">
+        <v>0.2063755124939077</v>
+      </c>
+      <c r="G376" t="inlineStr"/>
+      <c r="H376" t="inlineStr"/>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>2</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>0.01175556180510339</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.1084230686021355</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.06982362950872435</v>
+      </c>
+      <c r="F377" t="n">
+        <v>0.3851418087067536</v>
+      </c>
+      <c r="G377" t="inlineStr"/>
+      <c r="H377" t="inlineStr"/>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>2</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>0.01596105920199162</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.1263370856161864</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.08784434354281401</v>
+      </c>
+      <c r="F378" t="n">
+        <v>0.2099613921495972</v>
+      </c>
+      <c r="G378" t="inlineStr"/>
+      <c r="H378" t="inlineStr"/>
+      <c r="I378" t="inlineStr"/>
+      <c r="J378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr"/>
+      <c r="B379" t="inlineStr"/>
+      <c r="C379" t="inlineStr"/>
+      <c r="D379" t="inlineStr"/>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I379" t="inlineStr">
+        <is>
+          <t>(32, 2, 13)</t>
+        </is>
+      </c>
+      <c r="J379" t="n">
+        <v>1404</v>
+      </c>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>1</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>0.01135663313451959</v>
+      </c>
+      <c r="D380" t="n">
+        <v>0.1065675050590919</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0.06722326764542182</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0.4059200788872519</v>
+      </c>
+      <c r="G380" t="inlineStr"/>
+      <c r="H380" t="inlineStr"/>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>1</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.01589807620949612</v>
+      </c>
+      <c r="D381" t="n">
+        <v>0.1260875735728788</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0.08554864039476962</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0.2129703128756805</v>
+      </c>
+      <c r="G381" t="inlineStr"/>
+      <c r="H381" t="inlineStr"/>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>2</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>0.01125231847009935</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.1060769459878034</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.06695114750532666</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0.4114632463267431</v>
+      </c>
+      <c r="G382" t="inlineStr"/>
+      <c r="H382" t="inlineStr"/>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>2</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>0.01560534360514898</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0.1249213496771027</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0.08464313653046653</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0.2275685604060227</v>
+      </c>
+      <c r="G383" t="inlineStr"/>
+      <c r="H383" t="inlineStr"/>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" t="inlineStr"/>
+      <c r="C384" t="inlineStr"/>
+      <c r="D384" t="inlineStr"/>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I384" t="inlineStr">
+        <is>
+          <t>(32, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J384" t="n">
+        <v>12800</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>1</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>0.01363932766741149</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.1167875321573818</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0.07146928646540036</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0.2869710224614398</v>
+      </c>
+      <c r="G385" t="inlineStr"/>
+      <c r="H385" t="inlineStr"/>
+      <c r="I385" t="inlineStr"/>
+      <c r="J385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>1</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>0.01851397182505259</v>
+      </c>
+      <c r="D386" t="n">
+        <v>0.136066056843919</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0.09104775757571526</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0.08392475355353013</v>
+      </c>
+      <c r="G386" t="inlineStr"/>
+      <c r="H386" t="inlineStr"/>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>2</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>0.0136790091813039</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0.1169572964004551</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0.07160136321320121</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0.2848457972725981</v>
+      </c>
+      <c r="G387" t="inlineStr"/>
+      <c r="H387" t="inlineStr"/>
+      <c r="I387" t="inlineStr"/>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>2</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>0.01846657216002337</v>
+      </c>
+      <c r="D388" t="n">
+        <v>0.1358917663437464</v>
+      </c>
+      <c r="E388" t="n">
+        <v>0.09081050715633514</v>
+      </c>
+      <c r="F388" t="n">
+        <v>0.08573212394553764</v>
+      </c>
+      <c r="G388" t="inlineStr"/>
+      <c r="H388" t="inlineStr"/>
+      <c r="I388" t="inlineStr"/>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>3</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>0.01375787712648641</v>
+      </c>
+      <c r="D389" t="n">
+        <v>0.1172939773666423</v>
+      </c>
+      <c r="E389" t="n">
+        <v>0.07184880020495814</v>
+      </c>
+      <c r="F389" t="n">
+        <v>0.2808292951849398</v>
+      </c>
+      <c r="G389" t="inlineStr"/>
+      <c r="H389" t="inlineStr"/>
+      <c r="I389" t="inlineStr"/>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>3</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.01849737599780326</v>
+      </c>
+      <c r="D390" t="n">
+        <v>0.1360050587213699</v>
+      </c>
+      <c r="E390" t="n">
+        <v>0.09103957852277283</v>
+      </c>
+      <c r="F390" t="n">
+        <v>0.0834508722838625</v>
+      </c>
+      <c r="G390" t="inlineStr"/>
+      <c r="H390" t="inlineStr"/>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>4</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.01369845365437256</v>
+      </c>
+      <c r="D391" t="n">
+        <v>0.1170403932596459</v>
+      </c>
+      <c r="E391" t="n">
+        <v>0.07157077492736667</v>
+      </c>
+      <c r="F391" t="n">
+        <v>0.2836915064951611</v>
+      </c>
+      <c r="G391" t="inlineStr"/>
+      <c r="H391" t="inlineStr"/>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>4</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.01841441795692926</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0.1356997345499587</v>
+      </c>
+      <c r="E392" t="n">
+        <v>0.09071043073815137</v>
+      </c>
+      <c r="F392" t="n">
+        <v>0.08617881701535524</v>
+      </c>
+      <c r="G392" t="inlineStr"/>
+      <c r="H392" t="inlineStr"/>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>5</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.01364138063370987</v>
+      </c>
+      <c r="D393" t="n">
+        <v>0.1167963211480133</v>
+      </c>
+      <c r="E393" t="n">
+        <v>0.07132665937973652</v>
+      </c>
+      <c r="F393" t="n">
+        <v>0.2864802353176922</v>
+      </c>
+      <c r="G393" t="inlineStr"/>
+      <c r="H393" t="inlineStr"/>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>5</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.01830844042056702</v>
+      </c>
+      <c r="D394" t="n">
+        <v>0.135308685680436</v>
+      </c>
+      <c r="E394" t="n">
+        <v>0.09029071816931633</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0.09021269216945738</v>
+      </c>
+      <c r="G394" t="inlineStr"/>
+      <c r="H394" t="inlineStr"/>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr"/>
+      <c r="B395" t="inlineStr"/>
+      <c r="C395" t="inlineStr"/>
+      <c r="D395" t="inlineStr"/>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I395" t="inlineStr">
+        <is>
+          <t>(32, 5, 50)</t>
+        </is>
+      </c>
+      <c r="J395" t="n">
+        <v>12800</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>1</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>0.01385715692232275</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.1177164258815342</v>
+      </c>
+      <c r="E396" t="n">
+        <v>0.07096239421216693</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.275583469152748</v>
+      </c>
+      <c r="G396" t="inlineStr"/>
+      <c r="H396" t="inlineStr"/>
+      <c r="I396" t="inlineStr"/>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>1</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>0.0187667583237663</v>
+      </c>
+      <c r="D397" t="n">
+        <v>0.1369918184555789</v>
+      </c>
+      <c r="E397" t="n">
+        <v>0.08993927028506683</v>
+      </c>
+      <c r="F397" t="n">
+        <v>0.07141682406677652</v>
+      </c>
+      <c r="G397" t="inlineStr"/>
+      <c r="H397" t="inlineStr"/>
+      <c r="I397" t="inlineStr"/>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>2</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>0.01394774037990568</v>
+      </c>
+      <c r="D398" t="n">
+        <v>0.1181005519881498</v>
+      </c>
+      <c r="E398" t="n">
+        <v>0.07107419713154861</v>
+      </c>
+      <c r="F398" t="n">
+        <v>0.2707962236860328</v>
+      </c>
+      <c r="G398" t="inlineStr"/>
+      <c r="H398" t="inlineStr"/>
+      <c r="I398" t="inlineStr"/>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>2</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>0.0189111956082509</v>
+      </c>
+      <c r="D399" t="n">
+        <v>0.1375179828540649</v>
+      </c>
+      <c r="E399" t="n">
+        <v>0.09033281698065887</v>
+      </c>
+      <c r="F399" t="n">
+        <v>0.06371910863698971</v>
+      </c>
+      <c r="G399" t="inlineStr"/>
+      <c r="H399" t="inlineStr"/>
+      <c r="I399" t="inlineStr"/>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>3</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>0.01391064845495302</v>
+      </c>
+      <c r="D400" t="n">
+        <v>0.1179434120879713</v>
+      </c>
+      <c r="E400" t="n">
+        <v>0.07075020379920995</v>
+      </c>
+      <c r="F400" t="n">
+        <v>0.272843421858789</v>
+      </c>
+      <c r="G400" t="inlineStr"/>
+      <c r="H400" t="inlineStr"/>
+      <c r="I400" t="inlineStr"/>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>3</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>0.0187926871671192</v>
+      </c>
+      <c r="D401" t="n">
+        <v>0.1370864222566159</v>
+      </c>
+      <c r="E401" t="n">
+        <v>0.08963702183507072</v>
+      </c>
+      <c r="F401" t="n">
+        <v>0.06881813763687805</v>
+      </c>
+      <c r="G401" t="inlineStr"/>
+      <c r="H401" t="inlineStr"/>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>4</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>0.01381712251387125</v>
+      </c>
+      <c r="D402" t="n">
+        <v>0.1175462569113591</v>
+      </c>
+      <c r="E402" t="n">
+        <v>0.07057186223162183</v>
+      </c>
+      <c r="F402" t="n">
+        <v>0.2774861701763197</v>
+      </c>
+      <c r="G402" t="inlineStr"/>
+      <c r="H402" t="inlineStr"/>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>4</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.01854928764549168</v>
+      </c>
+      <c r="D403" t="n">
+        <v>0.1361957695579847</v>
+      </c>
+      <c r="E403" t="n">
+        <v>0.08891839791378008</v>
+      </c>
+      <c r="F403" t="n">
+        <v>0.07948586703240446</v>
+      </c>
+      <c r="G403" t="inlineStr"/>
+      <c r="H403" t="inlineStr"/>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>5</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>0.01377223502372874</v>
+      </c>
+      <c r="D404" t="n">
+        <v>0.1173551661569645</v>
+      </c>
+      <c r="E404" t="n">
+        <v>0.07026693160351327</v>
+      </c>
+      <c r="F404" t="n">
+        <v>0.2796358259370767</v>
+      </c>
+      <c r="G404" t="inlineStr"/>
+      <c r="H404" t="inlineStr"/>
+      <c r="I404" t="inlineStr"/>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>5</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.01836656092994882</v>
+      </c>
+      <c r="D405" t="n">
+        <v>0.1355232855635843</v>
+      </c>
+      <c r="E405" t="n">
+        <v>0.0883768736622917</v>
+      </c>
+      <c r="F405" t="n">
+        <v>0.08732455420983032</v>
+      </c>
+      <c r="G405" t="inlineStr"/>
+      <c r="H405" t="inlineStr"/>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr"/>
+      <c r="B406" t="inlineStr"/>
+      <c r="C406" t="inlineStr"/>
+      <c r="D406" t="inlineStr"/>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I406" t="inlineStr">
+        <is>
+          <t>(32, 5, 100)</t>
+        </is>
+      </c>
+      <c r="J406" t="n">
+        <v>45600</v>
+      </c>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>1</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.01292967123205795</v>
+      </c>
+      <c r="D407" t="n">
+        <v>0.113708712208247</v>
+      </c>
+      <c r="E407" t="n">
+        <v>0.07105870556241134</v>
+      </c>
+      <c r="F407" t="n">
+        <v>0.3240700360523217</v>
+      </c>
+      <c r="G407" t="inlineStr"/>
+      <c r="H407" t="inlineStr"/>
+      <c r="I407" t="inlineStr"/>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>1</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>0.01772263151698466</v>
+      </c>
+      <c r="D408" t="n">
+        <v>0.1331263742351028</v>
+      </c>
+      <c r="E408" t="n">
+        <v>0.08930531250995893</v>
+      </c>
+      <c r="F408" t="n">
+        <v>0.123080439571989</v>
+      </c>
+      <c r="G408" t="inlineStr"/>
+      <c r="H408" t="inlineStr"/>
+      <c r="I408" t="inlineStr"/>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>2</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>0.01385622026618834</v>
+      </c>
+      <c r="D409" t="n">
+        <v>0.1177124473715008</v>
+      </c>
+      <c r="E409" t="n">
+        <v>0.07208098501622444</v>
+      </c>
+      <c r="F409" t="n">
+        <v>0.2755809996220343</v>
+      </c>
+      <c r="G409" t="inlineStr"/>
+      <c r="H409" t="inlineStr"/>
+      <c r="I409" t="inlineStr"/>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>2</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>0.01865898381935775</v>
+      </c>
+      <c r="D410" t="n">
+        <v>0.1365978909769757</v>
+      </c>
+      <c r="E410" t="n">
+        <v>0.09155443686714086</v>
+      </c>
+      <c r="F410" t="n">
+        <v>0.07620594888806898</v>
+      </c>
+      <c r="G410" t="inlineStr"/>
+      <c r="H410" t="inlineStr"/>
+      <c r="I410" t="inlineStr"/>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>3</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>0.01374170475686283</v>
+      </c>
+      <c r="D411" t="n">
+        <v>0.1172250176236405</v>
+      </c>
+      <c r="E411" t="n">
+        <v>0.07139365143868297</v>
+      </c>
+      <c r="F411" t="n">
+        <v>0.2816746795675583</v>
+      </c>
+      <c r="G411" t="inlineStr"/>
+      <c r="H411" t="inlineStr"/>
+      <c r="I411" t="inlineStr"/>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>3</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>0.01837518479448226</v>
+      </c>
+      <c r="D412" t="n">
+        <v>0.1355550987402623</v>
+      </c>
+      <c r="E412" t="n">
+        <v>0.08970294506687981</v>
+      </c>
+      <c r="F412" t="n">
+        <v>0.08950547380311313</v>
+      </c>
+      <c r="G412" t="inlineStr"/>
+      <c r="H412" t="inlineStr"/>
+      <c r="I412" t="inlineStr"/>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>4</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>0.01407758940394441</v>
+      </c>
+      <c r="D413" t="n">
+        <v>0.118649017711671</v>
+      </c>
+      <c r="E413" t="n">
+        <v>0.07357189756242637</v>
+      </c>
+      <c r="F413" t="n">
+        <v>0.2638660455736682</v>
+      </c>
+      <c r="G413" t="inlineStr"/>
+      <c r="H413" t="inlineStr"/>
+      <c r="I413" t="inlineStr"/>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>4</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.01851058492178643</v>
+      </c>
+      <c r="D414" t="n">
+        <v>0.1360536104695</v>
+      </c>
+      <c r="E414" t="n">
+        <v>0.08998037927979603</v>
+      </c>
+      <c r="F414" t="n">
+        <v>0.08140650165923768</v>
+      </c>
+      <c r="G414" t="inlineStr"/>
+      <c r="H414" t="inlineStr"/>
+      <c r="I414" t="inlineStr"/>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>5</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.01447237955019888</v>
+      </c>
+      <c r="D415" t="n">
+        <v>0.1203012034445162</v>
+      </c>
+      <c r="E415" t="n">
+        <v>0.07245387815253343</v>
+      </c>
+      <c r="F415" t="n">
+        <v>0.2430143892082989</v>
+      </c>
+      <c r="G415" t="inlineStr"/>
+      <c r="H415" t="inlineStr"/>
+      <c r="I415" t="inlineStr"/>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>5</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.0185799832298859</v>
+      </c>
+      <c r="D416" t="n">
+        <v>0.1363084121757931</v>
+      </c>
+      <c r="E416" t="n">
+        <v>0.0891624595030599</v>
+      </c>
+      <c r="F416" t="n">
+        <v>0.07671912331399955</v>
+      </c>
+      <c r="G416" t="inlineStr"/>
+      <c r="H416" t="inlineStr"/>
+      <c r="I416" t="inlineStr"/>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr"/>
+      <c r="B417" t="inlineStr"/>
+      <c r="C417" t="inlineStr"/>
+      <c r="D417" t="inlineStr"/>
+      <c r="E417" t="inlineStr"/>
+      <c r="F417" t="inlineStr"/>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>lstm_21</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I417" t="inlineStr">
+        <is>
+          <t>(None, 5, 100)</t>
+        </is>
+      </c>
+      <c r="J417" t="n">
+        <v>45600</v>
+      </c>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr"/>
+      <c r="B418" t="inlineStr"/>
+      <c r="C418" t="inlineStr"/>
+      <c r="D418" t="inlineStr"/>
+      <c r="E418" t="inlineStr"/>
+      <c r="F418" t="inlineStr"/>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>lstm_22</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I418" t="inlineStr">
+        <is>
+          <t>(None, 5, 25)</t>
+        </is>
+      </c>
+      <c r="J418" t="n">
+        <v>12600</v>
+      </c>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>1</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>0.01337181131329582</v>
+      </c>
+      <c r="D419" t="n">
+        <v>0.1156365483456499</v>
+      </c>
+      <c r="E419" t="n">
+        <v>0.06901048232082201</v>
+      </c>
+      <c r="F419" t="n">
+        <v>0.3009560895484112</v>
+      </c>
+      <c r="G419" t="inlineStr"/>
+      <c r="H419" t="inlineStr"/>
+      <c r="I419" t="inlineStr"/>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>1</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>0.01837215412843245</v>
+      </c>
+      <c r="D420" t="n">
+        <v>0.1355439195553694</v>
+      </c>
+      <c r="E420" t="n">
+        <v>0.08945398459751158</v>
+      </c>
+      <c r="F420" t="n">
+        <v>0.09094192321379502</v>
+      </c>
+      <c r="G420" t="inlineStr"/>
+      <c r="H420" t="inlineStr"/>
+      <c r="I420" t="inlineStr"/>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>2</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>0.01429171130219632</v>
+      </c>
+      <c r="D421" t="n">
+        <v>0.119547945620978</v>
+      </c>
+      <c r="E421" t="n">
+        <v>0.0702861770835414</v>
+      </c>
+      <c r="F421" t="n">
+        <v>0.2528130315241042</v>
+      </c>
+      <c r="G421" t="inlineStr"/>
+      <c r="H421" t="inlineStr"/>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>2</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>0.01924013668796682</v>
+      </c>
+      <c r="D422" t="n">
+        <v>0.1387088197915577</v>
+      </c>
+      <c r="E422" t="n">
+        <v>0.09032922249780191</v>
+      </c>
+      <c r="F422" t="n">
+        <v>0.04743345152137302</v>
+      </c>
+      <c r="G422" t="inlineStr"/>
+      <c r="H422" t="inlineStr"/>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>3</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>0.01512864501910239</v>
+      </c>
+      <c r="D423" t="n">
+        <v>0.1229985569797565</v>
+      </c>
+      <c r="E423" t="n">
+        <v>0.07076614678415934</v>
+      </c>
+      <c r="F423" t="n">
+        <v>0.2091746276510497</v>
+      </c>
+      <c r="G423" t="inlineStr"/>
+      <c r="H423" t="inlineStr"/>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>3</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>0.02021689736411657</v>
+      </c>
+      <c r="D424" t="n">
+        <v>0.1421861363288157</v>
+      </c>
+      <c r="E424" t="n">
+        <v>0.09086005988872299</v>
+      </c>
+      <c r="F424" t="n">
+        <v>-0.001751796925591353</v>
+      </c>
+      <c r="G424" t="inlineStr"/>
+      <c r="H424" t="inlineStr"/>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>4</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>0.0163415491953009</v>
+      </c>
+      <c r="D425" t="n">
+        <v>0.1278340689929758</v>
+      </c>
+      <c r="E425" t="n">
+        <v>0.07305024599576525</v>
+      </c>
+      <c r="F425" t="n">
+        <v>0.1454808855826757</v>
+      </c>
+      <c r="G425" t="inlineStr"/>
+      <c r="H425" t="inlineStr"/>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>4</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>0.02201776219761213</v>
+      </c>
+      <c r="D426" t="n">
+        <v>0.1483838340170928</v>
+      </c>
+      <c r="E426" t="n">
+        <v>0.09371890299176643</v>
+      </c>
+      <c r="F426" t="n">
+        <v>-0.09263825471743137</v>
+      </c>
+      <c r="G426" t="inlineStr"/>
+      <c r="H426" t="inlineStr"/>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>5</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>0.01768731445353768</v>
+      </c>
+      <c r="D427" t="n">
+        <v>0.1329936632082058</v>
+      </c>
+      <c r="E427" t="n">
+        <v>0.07570052018031904</v>
+      </c>
+      <c r="F427" t="n">
+        <v>0.07485548672663778</v>
+      </c>
+      <c r="G427" t="inlineStr"/>
+      <c r="H427" t="inlineStr"/>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>5</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.02389004227554392</v>
+      </c>
+      <c r="D428" t="n">
+        <v>0.1545640393996738</v>
+      </c>
+      <c r="E428" t="n">
+        <v>0.09658619634750454</v>
+      </c>
+      <c r="F428" t="n">
+        <v>-0.1871495739969651</v>
+      </c>
+      <c r="G428" t="inlineStr"/>
+      <c r="H428" t="inlineStr"/>
+      <c r="I428" t="inlineStr"/>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr"/>
+      <c r="B429" t="inlineStr"/>
+      <c r="C429" t="inlineStr"/>
+      <c r="D429" t="inlineStr"/>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+      <c r="G429" t="inlineStr">
+        <is>
+          <t>lstm_23</t>
+        </is>
+      </c>
+      <c r="H429" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I429" t="inlineStr">
+        <is>
+          <t>(None, 5, 150)</t>
+        </is>
+      </c>
+      <c r="J429" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K429" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr"/>
+      <c r="B430" t="inlineStr"/>
+      <c r="C430" t="inlineStr"/>
+      <c r="D430" t="inlineStr"/>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+      <c r="G430" t="inlineStr">
+        <is>
+          <t>lstm_24</t>
+        </is>
+      </c>
+      <c r="H430" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I430" t="inlineStr">
+        <is>
+          <t>(None, 5, 100)</t>
+        </is>
+      </c>
+      <c r="J430" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K430" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr"/>
+      <c r="B431" t="inlineStr"/>
+      <c r="C431" t="inlineStr"/>
+      <c r="D431" t="inlineStr"/>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>simple_rnn_4</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I431" t="inlineStr">
+        <is>
+          <t>(None, 5, 50)</t>
+        </is>
+      </c>
+      <c r="J431" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>1</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>0.01131563717212455</v>
+      </c>
+      <c r="D432" t="n">
+        <v>0.1063749837702669</v>
+      </c>
+      <c r="E432" t="n">
+        <v>0.06461794525726776</v>
+      </c>
+      <c r="F432" t="n">
+        <v>0.408064629813314</v>
+      </c>
+      <c r="G432" t="inlineStr"/>
+      <c r="H432" t="inlineStr"/>
+      <c r="I432" t="inlineStr"/>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>1</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>0.01569941092281277</v>
+      </c>
+      <c r="D433" t="n">
+        <v>0.1252972901654811</v>
+      </c>
+      <c r="E433" t="n">
+        <v>0.08292670194341335</v>
+      </c>
+      <c r="F433" t="n">
+        <v>0.2228051807150651</v>
+      </c>
+      <c r="G433" t="inlineStr"/>
+      <c r="H433" t="inlineStr"/>
+      <c r="I433" t="inlineStr"/>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>2</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>0.01058649829062277</v>
+      </c>
+      <c r="D434" t="n">
+        <v>0.1028907104194677</v>
+      </c>
+      <c r="E434" t="n">
+        <v>0.06239495010923322</v>
+      </c>
+      <c r="F434" t="n">
+        <v>0.4462880380352766</v>
+      </c>
+      <c r="G434" t="inlineStr"/>
+      <c r="H434" t="inlineStr"/>
+      <c r="I434" t="inlineStr"/>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>2</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>0.01460777227852915</v>
+      </c>
+      <c r="D435" t="n">
+        <v>0.1208626173741457</v>
+      </c>
+      <c r="E435" t="n">
+        <v>0.07918896154753942</v>
+      </c>
+      <c r="F435" t="n">
+        <v>0.2769462271473293</v>
+      </c>
+      <c r="G435" t="inlineStr"/>
+      <c r="H435" t="inlineStr"/>
+      <c r="I435" t="inlineStr"/>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr"/>
+      <c r="B436" t="inlineStr"/>
+      <c r="C436" t="inlineStr"/>
+      <c r="D436" t="inlineStr"/>
+      <c r="E436" t="inlineStr"/>
+      <c r="F436" t="inlineStr"/>
+      <c r="G436" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H436" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I436" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J436" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr"/>
+      <c r="B437" t="inlineStr"/>
+      <c r="C437" t="inlineStr"/>
+      <c r="D437" t="inlineStr"/>
+      <c r="E437" t="inlineStr"/>
+      <c r="F437" t="inlineStr"/>
+      <c r="G437" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H437" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I437" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J437" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr"/>
+      <c r="B438" t="inlineStr"/>
+      <c r="C438" t="inlineStr"/>
+      <c r="D438" t="inlineStr"/>
+      <c r="E438" t="inlineStr"/>
+      <c r="F438" t="inlineStr"/>
+      <c r="G438" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H438" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I438" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J438" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>1</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.01129585029043865</v>
+      </c>
+      <c r="D439" t="n">
+        <v>0.1062819377431492</v>
+      </c>
+      <c r="E439" t="n">
+        <v>0.06551724019596004</v>
+      </c>
+      <c r="F439" t="n">
+        <v>0.4090997067566116</v>
+      </c>
+      <c r="G439" t="inlineStr"/>
+      <c r="H439" t="inlineStr"/>
+      <c r="I439" t="inlineStr"/>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>1</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.0157917566277079</v>
+      </c>
+      <c r="D440" t="n">
+        <v>0.1256652562473332</v>
+      </c>
+      <c r="E440" t="n">
+        <v>0.08411576377132442</v>
+      </c>
+      <c r="F440" t="n">
+        <v>0.2182336331722575</v>
+      </c>
+      <c r="G440" t="inlineStr"/>
+      <c r="H440" t="inlineStr"/>
+      <c r="I440" t="inlineStr"/>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>2</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.01137696178438231</v>
+      </c>
+      <c r="D441" t="n">
+        <v>0.106662841629043</v>
+      </c>
+      <c r="E441" t="n">
+        <v>0.06548776660777901</v>
+      </c>
+      <c r="F441" t="n">
+        <v>0.4049439523918889</v>
+      </c>
+      <c r="G441" t="inlineStr"/>
+      <c r="H441" t="inlineStr"/>
+      <c r="I441" t="inlineStr"/>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>2</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>0.01592696968182535</v>
+      </c>
+      <c r="D442" t="n">
+        <v>0.1262020985634761</v>
+      </c>
+      <c r="E442" t="n">
+        <v>0.08386570648978814</v>
+      </c>
+      <c r="F442" t="n">
+        <v>0.2116487511596492</v>
+      </c>
+      <c r="G442" t="inlineStr"/>
+      <c r="H442" t="inlineStr"/>
+      <c r="I442" t="inlineStr"/>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr"/>
+      <c r="B443" t="inlineStr"/>
+      <c r="C443" t="inlineStr"/>
+      <c r="D443" t="inlineStr"/>
+      <c r="E443" t="inlineStr"/>
+      <c r="F443" t="inlineStr"/>
+      <c r="G443" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H443" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I443" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J443" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr"/>
+      <c r="B444" t="inlineStr"/>
+      <c r="C444" t="inlineStr"/>
+      <c r="D444" t="inlineStr"/>
+      <c r="E444" t="inlineStr"/>
+      <c r="F444" t="inlineStr"/>
+      <c r="G444" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H444" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I444" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J444" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr"/>
+      <c r="B445" t="inlineStr"/>
+      <c r="C445" t="inlineStr"/>
+      <c r="D445" t="inlineStr"/>
+      <c r="E445" t="inlineStr"/>
+      <c r="F445" t="inlineStr"/>
+      <c r="G445" t="inlineStr">
+        <is>
+          <t>simple_rnn_1</t>
+        </is>
+      </c>
+      <c r="H445" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I445" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J445" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>1</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>0.007446857385050686</v>
+      </c>
+      <c r="D446" t="n">
+        <v>0.08629517590833619</v>
+      </c>
+      <c r="E446" t="n">
+        <v>0.05341569708737855</v>
+      </c>
+      <c r="F446" t="n">
+        <v>0.6103540275628232</v>
+      </c>
+      <c r="G446" t="inlineStr"/>
+      <c r="H446" t="inlineStr"/>
+      <c r="I446" t="inlineStr"/>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>1</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>0.01032498914957718</v>
+      </c>
+      <c r="D447" t="n">
+        <v>0.1016119537730536</v>
+      </c>
+      <c r="E447" t="n">
+        <v>0.06842681893908108</v>
+      </c>
+      <c r="F447" t="n">
+        <v>0.4889571659964866</v>
+      </c>
+      <c r="G447" t="inlineStr"/>
+      <c r="H447" t="inlineStr"/>
+      <c r="I447" t="inlineStr"/>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr"/>
+      <c r="B448" t="inlineStr"/>
+      <c r="C448" t="inlineStr"/>
+      <c r="D448" t="inlineStr"/>
+      <c r="E448" t="inlineStr"/>
+      <c r="F448" t="inlineStr"/>
+      <c r="G448" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H448" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I448" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J448" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr"/>
+      <c r="B449" t="inlineStr"/>
+      <c r="C449" t="inlineStr"/>
+      <c r="D449" t="inlineStr"/>
+      <c r="E449" t="inlineStr"/>
+      <c r="F449" t="inlineStr"/>
+      <c r="G449" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H449" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J449" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr"/>
+      <c r="B450" t="inlineStr"/>
+      <c r="C450" t="inlineStr"/>
+      <c r="D450" t="inlineStr"/>
+      <c r="E450" t="inlineStr"/>
+      <c r="F450" t="inlineStr"/>
+      <c r="G450" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H450" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J450" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>1</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>0.007371786653166291</v>
+      </c>
+      <c r="D451" t="n">
+        <v>0.08585910931966562</v>
+      </c>
+      <c r="E451" t="n">
+        <v>0.0524280596916234</v>
+      </c>
+      <c r="F451" t="n">
+        <v>0.6142819943297693</v>
+      </c>
+      <c r="G451" t="inlineStr"/>
+      <c r="H451" t="inlineStr"/>
+      <c r="I451" t="inlineStr"/>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>1</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.01020652949177882</v>
+      </c>
+      <c r="D452" t="n">
+        <v>0.1010273700131742</v>
+      </c>
+      <c r="E452" t="n">
+        <v>0.06808362155124391</v>
+      </c>
+      <c r="F452" t="n">
+        <v>0.494820412762111</v>
+      </c>
+      <c r="G452" t="inlineStr"/>
+      <c r="H452" t="inlineStr"/>
+      <c r="I452" t="inlineStr"/>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr"/>
+      <c r="B453" t="inlineStr"/>
+      <c r="C453" t="inlineStr"/>
+      <c r="D453" t="inlineStr"/>
+      <c r="E453" t="inlineStr"/>
+      <c r="F453" t="inlineStr"/>
+      <c r="G453" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H453" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I453" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J453" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr"/>
+      <c r="B454" t="inlineStr"/>
+      <c r="C454" t="inlineStr"/>
+      <c r="D454" t="inlineStr"/>
+      <c r="E454" t="inlineStr"/>
+      <c r="F454" t="inlineStr"/>
+      <c r="G454" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H454" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I454" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J454" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr"/>
+      <c r="B455" t="inlineStr"/>
+      <c r="C455" t="inlineStr"/>
+      <c r="D455" t="inlineStr"/>
+      <c r="E455" t="inlineStr"/>
+      <c r="F455" t="inlineStr"/>
+      <c r="G455" t="inlineStr">
+        <is>
+          <t>simple_rnn_2</t>
+        </is>
+      </c>
+      <c r="H455" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I455" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J455" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr"/>
+      <c r="B456" t="inlineStr"/>
+      <c r="C456" t="inlineStr"/>
+      <c r="D456" t="inlineStr"/>
+      <c r="E456" t="inlineStr"/>
+      <c r="F456" t="inlineStr"/>
+      <c r="G456" t="inlineStr">
+        <is>
+          <t>simple_rnn_3</t>
+        </is>
+      </c>
+      <c r="H456" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I456" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J456" t="n">
+        <v>1420</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>1</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>0.007714504946386843</v>
+      </c>
+      <c r="D457" t="n">
+        <v>0.08783225459013815</v>
+      </c>
+      <c r="E457" t="n">
+        <v>0.05644257587914137</v>
+      </c>
+      <c r="F457" t="n">
+        <v>0.6029316365486246</v>
+      </c>
+      <c r="G457" t="inlineStr"/>
+      <c r="H457" t="inlineStr"/>
+      <c r="I457" t="inlineStr"/>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>1</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>0.01052506562220221</v>
+      </c>
+      <c r="D458" t="n">
+        <v>0.1025917424659617</v>
+      </c>
+      <c r="E458" t="n">
+        <v>0.06992971601937996</v>
+      </c>
+      <c r="F458" t="n">
+        <v>0.4825566881763376</v>
+      </c>
+      <c r="G458" t="inlineStr"/>
+      <c r="H458" t="inlineStr"/>
+      <c r="I458" t="inlineStr"/>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr"/>
+      <c r="B459" t="inlineStr"/>
+      <c r="C459" t="inlineStr"/>
+      <c r="D459" t="inlineStr"/>
+      <c r="E459" t="inlineStr"/>
+      <c r="F459" t="inlineStr"/>
+      <c r="G459" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I459" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J459" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr"/>
+      <c r="B460" t="inlineStr"/>
+      <c r="C460" t="inlineStr"/>
+      <c r="D460" t="inlineStr"/>
+      <c r="E460" t="inlineStr"/>
+      <c r="F460" t="inlineStr"/>
+      <c r="G460" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I460" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J460" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr"/>
+      <c r="B461" t="inlineStr"/>
+      <c r="C461" t="inlineStr"/>
+      <c r="D461" t="inlineStr"/>
+      <c r="E461" t="inlineStr"/>
+      <c r="F461" t="inlineStr"/>
+      <c r="G461" t="inlineStr">
+        <is>
+          <t>simple_rnn_4</t>
+        </is>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I461" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J461" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr"/>
+      <c r="B462" t="inlineStr"/>
+      <c r="C462" t="inlineStr"/>
+      <c r="D462" t="inlineStr"/>
+      <c r="E462" t="inlineStr"/>
+      <c r="F462" t="inlineStr"/>
+      <c r="G462" t="inlineStr">
+        <is>
+          <t>simple_rnn_5</t>
+        </is>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I462" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J462" t="n">
+        <v>1420</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>1</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>0.0072275715426129</v>
+      </c>
+      <c r="D463" t="n">
+        <v>0.08501512537550539</v>
+      </c>
+      <c r="E463" t="n">
+        <v>0.05171040090781365</v>
+      </c>
+      <c r="F463" t="n">
+        <v>0.6218278400585349</v>
+      </c>
+      <c r="G463" t="inlineStr"/>
+      <c r="H463" t="inlineStr"/>
+      <c r="I463" t="inlineStr"/>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>1</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.009880937596586143</v>
+      </c>
+      <c r="D464" t="n">
+        <v>0.09940290537296252</v>
+      </c>
+      <c r="E464" t="n">
+        <v>0.06660789101088109</v>
+      </c>
+      <c r="F464" t="n">
+        <v>0.5109358199976384</v>
+      </c>
+      <c r="G464" t="inlineStr"/>
+      <c r="H464" t="inlineStr"/>
+      <c r="I464" t="inlineStr"/>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr"/>
+      <c r="B465" t="inlineStr"/>
+      <c r="C465" t="inlineStr"/>
+      <c r="D465" t="inlineStr"/>
+      <c r="E465" t="inlineStr"/>
+      <c r="F465" t="inlineStr"/>
+      <c r="G465" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H465" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I465" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J465" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr"/>
+      <c r="B466" t="inlineStr"/>
+      <c r="C466" t="inlineStr"/>
+      <c r="D466" t="inlineStr"/>
+      <c r="E466" t="inlineStr"/>
+      <c r="F466" t="inlineStr"/>
+      <c r="G466" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H466" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I466" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J466" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr"/>
+      <c r="B467" t="inlineStr"/>
+      <c r="C467" t="inlineStr"/>
+      <c r="D467" t="inlineStr"/>
+      <c r="E467" t="inlineStr"/>
+      <c r="F467" t="inlineStr"/>
+      <c r="G467" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H467" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I467" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J467" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>1</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>0.007555588479453471</v>
+      </c>
+      <c r="D468" t="n">
+        <v>0.08692288812190649</v>
+      </c>
+      <c r="E468" t="n">
+        <v>0.05548664805938025</v>
+      </c>
+      <c r="F468" t="n">
+        <v>0.604664831325793</v>
+      </c>
+      <c r="G468" t="inlineStr"/>
+      <c r="H468" t="inlineStr"/>
+      <c r="I468" t="inlineStr"/>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>1</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>0.01032924429860885</v>
+      </c>
+      <c r="D469" t="n">
+        <v>0.1016328898467855</v>
+      </c>
+      <c r="E469" t="n">
+        <v>0.06983994444754596</v>
+      </c>
+      <c r="F469" t="n">
+        <v>0.4887465543058839</v>
+      </c>
+      <c r="G469" t="inlineStr"/>
+      <c r="H469" t="inlineStr"/>
+      <c r="I469" t="inlineStr"/>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr"/>
+      <c r="B470" t="inlineStr"/>
+      <c r="C470" t="inlineStr"/>
+      <c r="D470" t="inlineStr"/>
+      <c r="E470" t="inlineStr"/>
+      <c r="F470" t="inlineStr"/>
+      <c r="G470" t="inlineStr">
+        <is>
+          <t>lstm_12</t>
+        </is>
+      </c>
+      <c r="H470" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I470" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J470" t="n">
+        <v>73728</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr"/>
+      <c r="B471" t="inlineStr"/>
+      <c r="C471" t="inlineStr"/>
+      <c r="D471" t="inlineStr"/>
+      <c r="E471" t="inlineStr"/>
+      <c r="F471" t="inlineStr"/>
+      <c r="G471" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H471" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I471" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J471" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr"/>
+      <c r="B472" t="inlineStr"/>
+      <c r="C472" t="inlineStr"/>
+      <c r="D472" t="inlineStr"/>
+      <c r="E472" t="inlineStr"/>
+      <c r="F472" t="inlineStr"/>
+      <c r="G472" t="inlineStr">
+        <is>
+          <t>lstm_14</t>
+        </is>
+      </c>
+      <c r="H472" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I472" t="inlineStr">
+        <is>
+          <t>(None, 1, 32)</t>
+        </is>
+      </c>
+      <c r="J472" t="n">
+        <v>12416</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>1</v>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>0.007338342254310533</v>
+      </c>
+      <c r="D473" t="n">
+        <v>0.08566412466318986</v>
+      </c>
+      <c r="E473" t="n">
+        <v>0.05336266257462363</v>
+      </c>
+      <c r="F473" t="n">
+        <v>0.61603192381558</v>
+      </c>
+      <c r="G473" t="inlineStr"/>
+      <c r="H473" t="inlineStr"/>
+      <c r="I473" t="inlineStr"/>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>1</v>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.009987770479749388</v>
+      </c>
+      <c r="D474" t="n">
+        <v>0.09993883369216086</v>
+      </c>
+      <c r="E474" t="n">
+        <v>0.06702893505238851</v>
+      </c>
+      <c r="F474" t="n">
+        <v>0.505648048883734</v>
+      </c>
+      <c r="G474" t="inlineStr"/>
+      <c r="H474" t="inlineStr"/>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr"/>
+      <c r="B475" t="inlineStr"/>
+      <c r="C475" t="inlineStr"/>
+      <c r="D475" t="inlineStr"/>
+      <c r="E475" t="inlineStr"/>
+      <c r="F475" t="inlineStr"/>
+      <c r="G475" t="inlineStr">
+        <is>
+          <t>lstm_15</t>
+        </is>
+      </c>
+      <c r="H475" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I475" t="inlineStr">
+        <is>
+          <t>(None, 1, 256)</t>
+        </is>
+      </c>
+      <c r="J475" t="n">
+        <v>278528</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr"/>
+      <c r="B476" t="inlineStr"/>
+      <c r="C476" t="inlineStr"/>
+      <c r="D476" t="inlineStr"/>
+      <c r="E476" t="inlineStr"/>
+      <c r="F476" t="inlineStr"/>
+      <c r="G476" t="inlineStr">
+        <is>
+          <t>lstm_16</t>
+        </is>
+      </c>
+      <c r="H476" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I476" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J476" t="n">
+        <v>197120</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr"/>
+      <c r="B477" t="inlineStr"/>
+      <c r="C477" t="inlineStr"/>
+      <c r="D477" t="inlineStr"/>
+      <c r="E477" t="inlineStr"/>
+      <c r="F477" t="inlineStr"/>
+      <c r="G477" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H477" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I477" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J477" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>1</v>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C478" t="n">
+        <v>0.007537987211413706</v>
+      </c>
+      <c r="D478" t="n">
+        <v>0.08682158263596504</v>
+      </c>
+      <c r="E478" t="n">
+        <v>0.05582306929241943</v>
+      </c>
+      <c r="F478" t="n">
+        <v>0.6055857920541734</v>
+      </c>
+      <c r="G478" t="inlineStr"/>
+      <c r="H478" t="inlineStr"/>
+      <c r="I478" t="inlineStr"/>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>1</v>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C479" t="n">
+        <v>0.0105710040991605</v>
+      </c>
+      <c r="D479" t="n">
+        <v>0.1028153884355864</v>
+      </c>
+      <c r="E479" t="n">
+        <v>0.07185476602689207</v>
+      </c>
+      <c r="F479" t="n">
+        <v>0.476780477457551</v>
+      </c>
+      <c r="G479" t="inlineStr"/>
+      <c r="H479" t="inlineStr"/>
+      <c r="I479" t="inlineStr"/>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr"/>
+      <c r="B480" t="inlineStr"/>
+      <c r="C480" t="inlineStr"/>
+      <c r="D480" t="inlineStr"/>
+      <c r="E480" t="inlineStr"/>
+      <c r="F480" t="inlineStr"/>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H480" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I480" t="inlineStr">
+        <is>
+          <t>(None, 1, 256)</t>
+        </is>
+      </c>
+      <c r="J480" t="n">
+        <v>278528</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr"/>
+      <c r="B481" t="inlineStr"/>
+      <c r="C481" t="inlineStr"/>
+      <c r="D481" t="inlineStr"/>
+      <c r="E481" t="inlineStr"/>
+      <c r="F481" t="inlineStr"/>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>lstm_19</t>
+        </is>
+      </c>
+      <c r="H481" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I481" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J481" t="n">
+        <v>197120</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr"/>
+      <c r="B482" t="inlineStr"/>
+      <c r="C482" t="inlineStr"/>
+      <c r="D482" t="inlineStr"/>
+      <c r="E482" t="inlineStr"/>
+      <c r="F482" t="inlineStr"/>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>lstm_20</t>
+        </is>
+      </c>
+      <c r="H482" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I482" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J482" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr"/>
+      <c r="B483" t="inlineStr"/>
+      <c r="C483" t="inlineStr"/>
+      <c r="D483" t="inlineStr"/>
+      <c r="E483" t="inlineStr"/>
+      <c r="F483" t="inlineStr"/>
+      <c r="G483" t="inlineStr">
+        <is>
+          <t>lstm_21</t>
+        </is>
+      </c>
+      <c r="H483" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I483" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J483" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>1</v>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C484" t="n">
+        <v>0.00706655683942214</v>
+      </c>
+      <c r="D484" t="n">
+        <v>0.08406281484355696</v>
+      </c>
+      <c r="E484" t="n">
+        <v>0.05256759188947035</v>
+      </c>
+      <c r="F484" t="n">
+        <v>0.6302527000172327</v>
+      </c>
+      <c r="G484" t="inlineStr"/>
+      <c r="H484" t="inlineStr"/>
+      <c r="I484" t="inlineStr"/>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>1</v>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C485" t="n">
+        <v>0.0102744014330705</v>
+      </c>
+      <c r="D485" t="n">
+        <v>0.1013627221076392</v>
+      </c>
+      <c r="E485" t="n">
+        <v>0.06909996924656443</v>
+      </c>
+      <c r="F485" t="n">
+        <v>0.4914610417521722</v>
+      </c>
+      <c r="G485" t="inlineStr"/>
+      <c r="H485" t="inlineStr"/>
+      <c r="I485" t="inlineStr"/>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr"/>
+      <c r="B486" t="inlineStr"/>
+      <c r="C486" t="inlineStr"/>
+      <c r="D486" t="inlineStr"/>
+      <c r="E486" t="inlineStr"/>
+      <c r="F486" t="inlineStr"/>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>lstm_22</t>
+        </is>
+      </c>
+      <c r="H486" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I486" t="inlineStr">
+        <is>
+          <t>(None, 1, 256)</t>
+        </is>
+      </c>
+      <c r="J486" t="n">
+        <v>278528</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr"/>
+      <c r="B487" t="inlineStr"/>
+      <c r="C487" t="inlineStr"/>
+      <c r="D487" t="inlineStr"/>
+      <c r="E487" t="inlineStr"/>
+      <c r="F487" t="inlineStr"/>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>lstm_23</t>
+        </is>
+      </c>
+      <c r="H487" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I487" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J487" t="n">
+        <v>197120</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr"/>
+      <c r="B488" t="inlineStr"/>
+      <c r="C488" t="inlineStr"/>
+      <c r="D488" t="inlineStr"/>
+      <c r="E488" t="inlineStr"/>
+      <c r="F488" t="inlineStr"/>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>lstm_24</t>
+        </is>
+      </c>
+      <c r="H488" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I488" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J488" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr"/>
+      <c r="B489" t="inlineStr"/>
+      <c r="C489" t="inlineStr"/>
+      <c r="D489" t="inlineStr"/>
+      <c r="E489" t="inlineStr"/>
+      <c r="F489" t="inlineStr"/>
+      <c r="G489" t="inlineStr">
+        <is>
+          <t>lstm_25</t>
+        </is>
+      </c>
+      <c r="H489" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I489" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J489" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>1</v>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C490" t="n">
+        <v>0.007828850388658796</v>
+      </c>
+      <c r="D490" t="n">
+        <v>0.08848079107161506</v>
+      </c>
+      <c r="E490" t="n">
+        <v>0.05674338168911248</v>
+      </c>
+      <c r="F490" t="n">
+        <v>0.590366799708309</v>
+      </c>
+      <c r="G490" t="inlineStr"/>
+      <c r="H490" t="inlineStr"/>
+      <c r="I490" t="inlineStr"/>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>1</v>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C491" t="n">
+        <v>0.01068970275979474</v>
+      </c>
+      <c r="D491" t="n">
+        <v>0.1033910187578918</v>
+      </c>
+      <c r="E491" t="n">
+        <v>0.07158242626154486</v>
+      </c>
+      <c r="F491" t="n">
+        <v>0.4709054010730469</v>
+      </c>
+      <c r="G491" t="inlineStr"/>
+      <c r="H491" t="inlineStr"/>
+      <c r="I491" t="inlineStr"/>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr"/>
+      <c r="B492" t="inlineStr"/>
+      <c r="C492" t="inlineStr"/>
+      <c r="D492" t="inlineStr"/>
+      <c r="E492" t="inlineStr"/>
+      <c r="F492" t="inlineStr"/>
+      <c r="G492" t="inlineStr">
+        <is>
+          <t>lstm_26</t>
+        </is>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I492" t="inlineStr">
+        <is>
+          <t>(None, 1, 256)</t>
+        </is>
+      </c>
+      <c r="J492" t="n">
+        <v>278528</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr"/>
+      <c r="B493" t="inlineStr"/>
+      <c r="C493" t="inlineStr"/>
+      <c r="D493" t="inlineStr"/>
+      <c r="E493" t="inlineStr"/>
+      <c r="F493" t="inlineStr"/>
+      <c r="G493" t="inlineStr">
+        <is>
+          <t>lstm_27</t>
+        </is>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I493" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J493" t="n">
+        <v>197120</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr"/>
+      <c r="B494" t="inlineStr"/>
+      <c r="C494" t="inlineStr"/>
+      <c r="D494" t="inlineStr"/>
+      <c r="E494" t="inlineStr"/>
+      <c r="F494" t="inlineStr"/>
+      <c r="G494" t="inlineStr">
+        <is>
+          <t>lstm_28</t>
+        </is>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I494" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J494" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr"/>
+      <c r="B495" t="inlineStr"/>
+      <c r="C495" t="inlineStr"/>
+      <c r="D495" t="inlineStr"/>
+      <c r="E495" t="inlineStr"/>
+      <c r="F495" t="inlineStr"/>
+      <c r="G495" t="inlineStr">
+        <is>
+          <t>lstm_29</t>
+        </is>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I495" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J495" t="n">
+        <v>4800</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>1</v>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C496" t="n">
+        <v>0.007688896430946497</v>
+      </c>
+      <c r="D496" t="n">
+        <v>0.08768635259233044</v>
+      </c>
+      <c r="E496" t="n">
+        <v>0.05659191252239981</v>
+      </c>
+      <c r="F496" t="n">
+        <v>0.5976896868175361</v>
+      </c>
+      <c r="G496" t="inlineStr"/>
+      <c r="H496" t="inlineStr"/>
+      <c r="I496" t="inlineStr"/>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>1</v>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C497" t="n">
+        <v>0.01117098811915072</v>
+      </c>
+      <c r="D497" t="n">
+        <v>0.1056928953106628</v>
+      </c>
+      <c r="E497" t="n">
+        <v>0.07374770347365023</v>
+      </c>
+      <c r="F497" t="n">
+        <v>0.4470838327937475</v>
+      </c>
+      <c r="G497" t="inlineStr"/>
+      <c r="H497" t="inlineStr"/>
+      <c r="I497" t="inlineStr"/>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr"/>
+      <c r="B498" t="inlineStr"/>
+      <c r="C498" t="inlineStr"/>
+      <c r="D498" t="inlineStr"/>
+      <c r="E498" t="inlineStr"/>
+      <c r="F498" t="inlineStr"/>
+      <c r="G498" t="inlineStr">
+        <is>
+          <t>lstm_30</t>
+        </is>
+      </c>
+      <c r="H498" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I498" t="inlineStr">
+        <is>
+          <t>(None, 1, 128)</t>
+        </is>
+      </c>
+      <c r="J498" t="n">
+        <v>73728</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr"/>
+      <c r="B499" t="inlineStr"/>
+      <c r="C499" t="inlineStr"/>
+      <c r="D499" t="inlineStr"/>
+      <c r="E499" t="inlineStr"/>
+      <c r="F499" t="inlineStr"/>
+      <c r="G499" t="inlineStr">
+        <is>
+          <t>lstm_31</t>
+        </is>
+      </c>
+      <c r="H499" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I499" t="inlineStr">
+        <is>
+          <t>(None, 1, 64)</t>
+        </is>
+      </c>
+      <c r="J499" t="n">
+        <v>49408</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr"/>
+      <c r="B500" t="inlineStr"/>
+      <c r="C500" t="inlineStr"/>
+      <c r="D500" t="inlineStr"/>
+      <c r="E500" t="inlineStr"/>
+      <c r="F500" t="inlineStr"/>
+      <c r="G500" t="inlineStr">
+        <is>
+          <t>lstm_32</t>
+        </is>
+      </c>
+      <c r="H500" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I500" t="inlineStr">
+        <is>
+          <t>(None, 1, 32)</t>
+        </is>
+      </c>
+      <c r="J500" t="n">
+        <v>12416</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr"/>
+      <c r="B501" t="inlineStr"/>
+      <c r="C501" t="inlineStr"/>
+      <c r="D501" t="inlineStr"/>
+      <c r="E501" t="inlineStr"/>
+      <c r="F501" t="inlineStr"/>
+      <c r="G501" t="inlineStr">
+        <is>
+          <t>lstm_33</t>
+        </is>
+      </c>
+      <c r="H501" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I501" t="inlineStr">
+        <is>
+          <t>(None, 1, 15)</t>
+        </is>
+      </c>
+      <c r="J501" t="n">
+        <v>2880</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>1</v>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
+        <v>0.00728501626185971</v>
+      </c>
+      <c r="D502" t="n">
+        <v>0.08535230671668874</v>
+      </c>
+      <c r="E502" t="n">
+        <v>0.05344126810723295</v>
+      </c>
+      <c r="F502" t="n">
+        <v>0.61882212874503</v>
+      </c>
+      <c r="G502" t="inlineStr"/>
+      <c r="H502" t="inlineStr"/>
+      <c r="I502" t="inlineStr"/>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>1</v>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C503" t="n">
+        <v>0.009876639793100961</v>
+      </c>
+      <c r="D503" t="n">
+        <v>0.09938128492377708</v>
+      </c>
+      <c r="E503" t="n">
+        <v>0.06758347795331307</v>
+      </c>
+      <c r="F503" t="n">
+        <v>0.5111485429013856</v>
+      </c>
+      <c r="G503" t="inlineStr"/>
+      <c r="H503" t="inlineStr"/>
+      <c r="I503" t="inlineStr"/>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr"/>
+      <c r="B504" t="inlineStr"/>
+      <c r="C504" t="inlineStr"/>
+      <c r="D504" t="inlineStr"/>
+      <c r="E504" t="inlineStr"/>
+      <c r="F504" t="inlineStr"/>
+      <c r="G504" t="inlineStr">
+        <is>
+          <t>lstm_34</t>
+        </is>
+      </c>
+      <c r="H504" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I504" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J504" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr"/>
+      <c r="B505" t="inlineStr"/>
+      <c r="C505" t="inlineStr"/>
+      <c r="D505" t="inlineStr"/>
+      <c r="E505" t="inlineStr"/>
+      <c r="F505" t="inlineStr"/>
+      <c r="G505" t="inlineStr">
+        <is>
+          <t>lstm_35</t>
+        </is>
+      </c>
+      <c r="H505" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I505" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J505" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr"/>
+      <c r="B506" t="inlineStr"/>
+      <c r="C506" t="inlineStr"/>
+      <c r="D506" t="inlineStr"/>
+      <c r="E506" t="inlineStr"/>
+      <c r="F506" t="inlineStr"/>
+      <c r="G506" t="inlineStr">
+        <is>
+          <t>lstm_36</t>
+        </is>
+      </c>
+      <c r="H506" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I506" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J506" t="n">
+        <v>9680</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>1</v>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C507" t="n">
+        <v>0.007882288623282241</v>
+      </c>
+      <c r="D507" t="n">
+        <v>0.08878225398852094</v>
+      </c>
+      <c r="E507" t="n">
+        <v>0.05490977761413476</v>
+      </c>
+      <c r="F507" t="n">
+        <v>0.5875707218705652</v>
+      </c>
+      <c r="G507" t="inlineStr"/>
+      <c r="H507" t="inlineStr"/>
+      <c r="I507" t="inlineStr"/>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>1</v>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C508" t="n">
+        <v>0.01046015727224103</v>
+      </c>
+      <c r="D508" t="n">
+        <v>0.1022749102773551</v>
+      </c>
+      <c r="E508" t="n">
+        <v>0.06879117879980089</v>
+      </c>
+      <c r="F508" t="n">
+        <v>0.482266921631833</v>
+      </c>
+      <c r="G508" t="inlineStr"/>
+      <c r="H508" t="inlineStr"/>
+      <c r="I508" t="inlineStr"/>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr"/>
+      <c r="B509" t="inlineStr"/>
+      <c r="C509" t="inlineStr"/>
+      <c r="D509" t="inlineStr"/>
+      <c r="E509" t="inlineStr"/>
+      <c r="F509" t="inlineStr"/>
+      <c r="G509" t="inlineStr">
+        <is>
+          <t>lstm_37</t>
+        </is>
+      </c>
+      <c r="H509" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>96600</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr"/>
+      <c r="B510" t="inlineStr"/>
+      <c r="C510" t="inlineStr"/>
+      <c r="D510" t="inlineStr"/>
+      <c r="E510" t="inlineStr"/>
+      <c r="F510" t="inlineStr"/>
+      <c r="G510" t="inlineStr">
+        <is>
+          <t>lstm_38</t>
+        </is>
+      </c>
+      <c r="H510" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr"/>
+      <c r="B511" t="inlineStr"/>
+      <c r="C511" t="inlineStr"/>
+      <c r="D511" t="inlineStr"/>
+      <c r="E511" t="inlineStr"/>
+      <c r="F511" t="inlineStr"/>
+      <c r="G511" t="inlineStr">
+        <is>
+          <t>lstm_39</t>
+        </is>
+      </c>
+      <c r="H511" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>9680</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>1</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>0.007849091911652721</v>
+      </c>
+      <c r="D512" t="n">
+        <v>0.08859510094611733</v>
+      </c>
+      <c r="E512" t="n">
+        <v>0.05439753943075581</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.5893076914828164</v>
+      </c>
+      <c r="G512" t="inlineStr"/>
+      <c r="H512" t="inlineStr"/>
+      <c r="I512" t="inlineStr"/>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>1</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>0.01055055056166247</v>
+      </c>
+      <c r="D513" t="n">
+        <v>0.1027158729781452</v>
+      </c>
+      <c r="E513" t="n">
+        <v>0.06885638206657023</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.4777928401454888</v>
+      </c>
+      <c r="G513" t="inlineStr"/>
+      <c r="H513" t="inlineStr"/>
+      <c r="I513" t="inlineStr"/>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr"/>
+      <c r="B514" t="inlineStr"/>
+      <c r="C514" t="inlineStr"/>
+      <c r="D514" t="inlineStr"/>
+      <c r="E514" t="inlineStr"/>
+      <c r="F514" t="inlineStr"/>
+      <c r="G514" t="inlineStr">
+        <is>
+          <t>lstm_40</t>
+        </is>
+      </c>
+      <c r="H514" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>96600</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr"/>
+      <c r="B515" t="inlineStr"/>
+      <c r="C515" t="inlineStr"/>
+      <c r="D515" t="inlineStr"/>
+      <c r="E515" t="inlineStr"/>
+      <c r="F515" t="inlineStr"/>
+      <c r="G515" t="inlineStr">
+        <is>
+          <t>lstm_41</t>
+        </is>
+      </c>
+      <c r="H515" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr"/>
+      <c r="B516" t="inlineStr"/>
+      <c r="C516" t="inlineStr"/>
+      <c r="D516" t="inlineStr"/>
+      <c r="E516" t="inlineStr"/>
+      <c r="F516" t="inlineStr"/>
+      <c r="G516" t="inlineStr">
+        <is>
+          <t>lstm_42</t>
+        </is>
+      </c>
+      <c r="H516" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>1</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>0.008023183576169525</v>
+      </c>
+      <c r="D517" t="n">
+        <v>0.08957222547290832</v>
+      </c>
+      <c r="E517" t="n">
+        <v>0.05879315244834482</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.5801985985585942</v>
+      </c>
+      <c r="G517" t="inlineStr"/>
+      <c r="H517" t="inlineStr"/>
+      <c r="I517" t="inlineStr"/>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>1</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>0.01123310526413997</v>
+      </c>
+      <c r="D518" t="n">
+        <v>0.1059863447060043</v>
+      </c>
+      <c r="E518" t="n">
+        <v>0.07429500826793956</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.4440092996048374</v>
+      </c>
+      <c r="G518" t="inlineStr"/>
+      <c r="H518" t="inlineStr"/>
+      <c r="I518" t="inlineStr"/>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr"/>
+      <c r="B519" t="inlineStr"/>
+      <c r="C519" t="inlineStr"/>
+      <c r="D519" t="inlineStr"/>
+      <c r="E519" t="inlineStr"/>
+      <c r="F519" t="inlineStr"/>
+      <c r="G519" t="inlineStr">
+        <is>
+          <t>lstm_43</t>
+        </is>
+      </c>
+      <c r="H519" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>97200</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr"/>
+      <c r="B520" t="inlineStr"/>
+      <c r="C520" t="inlineStr"/>
+      <c r="D520" t="inlineStr"/>
+      <c r="E520" t="inlineStr"/>
+      <c r="F520" t="inlineStr"/>
+      <c r="G520" t="inlineStr">
+        <is>
+          <t>lstm_44</t>
+        </is>
+      </c>
+      <c r="H520" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr"/>
+      <c r="B521" t="inlineStr"/>
+      <c r="C521" t="inlineStr"/>
+      <c r="D521" t="inlineStr"/>
+      <c r="E521" t="inlineStr"/>
+      <c r="F521" t="inlineStr"/>
+      <c r="G521" t="inlineStr">
+        <is>
+          <t>lstm_45</t>
+        </is>
+      </c>
+      <c r="H521" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>1</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>0.007806801620513296</v>
+      </c>
+      <c r="D522" t="n">
+        <v>0.08835610686598462</v>
+      </c>
+      <c r="E522" t="n">
+        <v>0.05604084447574956</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.5915204694055886</v>
+      </c>
+      <c r="G522" t="inlineStr"/>
+      <c r="H522" t="inlineStr"/>
+      <c r="I522" t="inlineStr"/>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>1</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>0.01083553234324511</v>
+      </c>
+      <c r="D523" t="n">
+        <v>0.1040938631392125</v>
+      </c>
+      <c r="E523" t="n">
+        <v>0.07126676133427924</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.4636874599664377</v>
+      </c>
+      <c r="G523" t="inlineStr"/>
+      <c r="H523" t="inlineStr"/>
+      <c r="I523" t="inlineStr"/>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr"/>
+      <c r="B524" t="inlineStr"/>
+      <c r="C524" t="inlineStr"/>
+      <c r="D524" t="inlineStr"/>
+      <c r="E524" t="inlineStr"/>
+      <c r="F524" t="inlineStr"/>
+      <c r="G524" t="inlineStr">
+        <is>
+          <t>lstm_46</t>
+        </is>
+      </c>
+      <c r="H524" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>97800</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr"/>
+      <c r="B525" t="inlineStr"/>
+      <c r="C525" t="inlineStr"/>
+      <c r="D525" t="inlineStr"/>
+      <c r="E525" t="inlineStr"/>
+      <c r="F525" t="inlineStr"/>
+      <c r="G525" t="inlineStr">
+        <is>
+          <t>lstm_47</t>
+        </is>
+      </c>
+      <c r="H525" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr"/>
+      <c r="B526" t="inlineStr"/>
+      <c r="C526" t="inlineStr"/>
+      <c r="D526" t="inlineStr"/>
+      <c r="E526" t="inlineStr"/>
+      <c r="F526" t="inlineStr"/>
+      <c r="G526" t="inlineStr">
+        <is>
+          <t>lstm_48</t>
+        </is>
+      </c>
+      <c r="H526" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J526" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>1</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>0.00750867880314476</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0.0866526329844902</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0.05504834631104798</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.6071193118532049</v>
+      </c>
+      <c r="G527" t="inlineStr"/>
+      <c r="H527" t="inlineStr"/>
+      <c r="I527" t="inlineStr"/>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>1</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>0.0104800054122431</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0.102371897570784</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0.07054576376226034</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.4812845235324832</v>
+      </c>
+      <c r="G528" t="inlineStr"/>
+      <c r="H528" t="inlineStr"/>
+      <c r="I528" t="inlineStr"/>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr"/>
+      <c r="B529" t="inlineStr"/>
+      <c r="C529" t="inlineStr"/>
+      <c r="D529" t="inlineStr"/>
+      <c r="E529" t="inlineStr"/>
+      <c r="F529" t="inlineStr"/>
+      <c r="G529" t="inlineStr">
+        <is>
+          <t>lstm_49</t>
+        </is>
+      </c>
+      <c r="H529" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr"/>
+      <c r="B530" t="inlineStr"/>
+      <c r="C530" t="inlineStr"/>
+      <c r="D530" t="inlineStr"/>
+      <c r="E530" t="inlineStr"/>
+      <c r="F530" t="inlineStr"/>
+      <c r="G530" t="inlineStr">
+        <is>
+          <t>lstm_50</t>
+        </is>
+      </c>
+      <c r="H530" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J530" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr"/>
+      <c r="B531" t="inlineStr"/>
+      <c r="C531" t="inlineStr"/>
+      <c r="D531" t="inlineStr"/>
+      <c r="E531" t="inlineStr"/>
+      <c r="F531" t="inlineStr"/>
+      <c r="G531" t="inlineStr">
+        <is>
+          <t>lstm_51</t>
+        </is>
+      </c>
+      <c r="H531" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>1</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>0.007283072747121845</v>
+      </c>
+      <c r="D532" t="n">
+        <v>0.08534092070701982</v>
+      </c>
+      <c r="E532" t="n">
+        <v>0.05162741130565992</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.6189238203245547</v>
+      </c>
+      <c r="G532" t="inlineStr"/>
+      <c r="H532" t="inlineStr"/>
+      <c r="I532" t="inlineStr"/>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>1</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>0.009770685685152797</v>
+      </c>
+      <c r="D533" t="n">
+        <v>0.09884677883043431</v>
+      </c>
+      <c r="E533" t="n">
+        <v>0.06568110634733069</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.5163928183980201</v>
+      </c>
+      <c r="G533" t="inlineStr"/>
+      <c r="H533" t="inlineStr"/>
+      <c r="I533" t="inlineStr"/>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr"/>
+      <c r="B534" t="inlineStr"/>
+      <c r="C534" t="inlineStr"/>
+      <c r="D534" t="inlineStr"/>
+      <c r="E534" t="inlineStr"/>
+      <c r="F534" t="inlineStr"/>
+      <c r="G534" t="inlineStr">
+        <is>
+          <t>lstm_52</t>
+        </is>
+      </c>
+      <c r="H534" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr"/>
+      <c r="B535" t="inlineStr"/>
+      <c r="C535" t="inlineStr"/>
+      <c r="D535" t="inlineStr"/>
+      <c r="E535" t="inlineStr"/>
+      <c r="F535" t="inlineStr"/>
+      <c r="G535" t="inlineStr">
+        <is>
+          <t>lstm_53</t>
+        </is>
+      </c>
+      <c r="H535" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr"/>
+      <c r="B536" t="inlineStr"/>
+      <c r="C536" t="inlineStr"/>
+      <c r="D536" t="inlineStr"/>
+      <c r="E536" t="inlineStr"/>
+      <c r="F536" t="inlineStr"/>
+      <c r="G536" t="inlineStr">
+        <is>
+          <t>lstm_54</t>
+        </is>
+      </c>
+      <c r="H536" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J536" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>1</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>0.007682251442636001</v>
+      </c>
+      <c r="D537" t="n">
+        <v>0.08764845373784982</v>
+      </c>
+      <c r="E537" t="n">
+        <v>0.05558043691304435</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.5980373761579114</v>
+      </c>
+      <c r="G537" t="inlineStr"/>
+      <c r="H537" t="inlineStr"/>
+      <c r="I537" t="inlineStr"/>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>1</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>0.0104580065423942</v>
+      </c>
+      <c r="D538" t="n">
+        <v>0.1022643952820051</v>
+      </c>
+      <c r="E538" t="n">
+        <v>0.07099591206071587</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.4823733735670536</v>
+      </c>
+      <c r="G538" t="inlineStr"/>
+      <c r="H538" t="inlineStr"/>
+      <c r="I538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr"/>
+      <c r="B539" t="inlineStr"/>
+      <c r="C539" t="inlineStr"/>
+      <c r="D539" t="inlineStr"/>
+      <c r="E539" t="inlineStr"/>
+      <c r="F539" t="inlineStr"/>
+      <c r="G539" t="inlineStr">
+        <is>
+          <t>lstm_55</t>
+        </is>
+      </c>
+      <c r="H539" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J539" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr"/>
+      <c r="B540" t="inlineStr"/>
+      <c r="C540" t="inlineStr"/>
+      <c r="D540" t="inlineStr"/>
+      <c r="E540" t="inlineStr"/>
+      <c r="F540" t="inlineStr"/>
+      <c r="G540" t="inlineStr">
+        <is>
+          <t>lstm_56</t>
+        </is>
+      </c>
+      <c r="H540" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr"/>
+      <c r="B541" t="inlineStr"/>
+      <c r="C541" t="inlineStr"/>
+      <c r="D541" t="inlineStr"/>
+      <c r="E541" t="inlineStr"/>
+      <c r="F541" t="inlineStr"/>
+      <c r="G541" t="inlineStr">
+        <is>
+          <t>lstm_57</t>
+        </is>
+      </c>
+      <c r="H541" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J541" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr"/>
+      <c r="B542" t="inlineStr"/>
+      <c r="C542" t="inlineStr"/>
+      <c r="D542" t="inlineStr"/>
+      <c r="E542" t="inlineStr"/>
+      <c r="F542" t="inlineStr"/>
+      <c r="G542" t="inlineStr">
+        <is>
+          <t>lstm_58</t>
+        </is>
+      </c>
+      <c r="H542" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>5680</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>1</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>0.007330895410167663</v>
+      </c>
+      <c r="D543" t="n">
+        <v>0.08562064826995684</v>
+      </c>
+      <c r="E543" t="n">
+        <v>0.05437076205223178</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.6164215690951395</v>
+      </c>
+      <c r="G543" t="inlineStr"/>
+      <c r="H543" t="inlineStr"/>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>1</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>0.01012256333037777</v>
+      </c>
+      <c r="D544" t="n">
+        <v>0.1006109503502366</v>
+      </c>
+      <c r="E544" t="n">
+        <v>0.06863436475486184</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.4989763788809269</v>
+      </c>
+      <c r="G544" t="inlineStr"/>
+      <c r="H544" t="inlineStr"/>
+      <c r="I544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr"/>
+      <c r="B545" t="inlineStr"/>
+      <c r="C545" t="inlineStr"/>
+      <c r="D545" t="inlineStr"/>
+      <c r="E545" t="inlineStr"/>
+      <c r="F545" t="inlineStr"/>
+      <c r="G545" t="inlineStr">
+        <is>
+          <t>lstm_62</t>
+        </is>
+      </c>
+      <c r="H545" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="inlineStr"/>
+      <c r="B546" t="inlineStr"/>
+      <c r="C546" t="inlineStr"/>
+      <c r="D546" t="inlineStr"/>
+      <c r="E546" t="inlineStr"/>
+      <c r="F546" t="inlineStr"/>
+      <c r="G546" t="inlineStr">
+        <is>
+          <t>lstm_63</t>
+        </is>
+      </c>
+      <c r="H546" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>120400</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="inlineStr"/>
+      <c r="B547" t="inlineStr"/>
+      <c r="C547" t="inlineStr"/>
+      <c r="D547" t="inlineStr"/>
+      <c r="E547" t="inlineStr"/>
+      <c r="F547" t="inlineStr"/>
+      <c r="G547" t="inlineStr">
+        <is>
+          <t>lstm_64</t>
+        </is>
+      </c>
+      <c r="H547" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>1</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>0.007345014377389848</v>
+      </c>
+      <c r="D548" t="n">
+        <v>0.08570305932339783</v>
+      </c>
+      <c r="E548" t="n">
+        <v>0.05294717489491062</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.615682814687926</v>
+      </c>
+      <c r="G548" t="inlineStr"/>
+      <c r="H548" t="inlineStr"/>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>1</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>0.01013019379990719</v>
+      </c>
+      <c r="D549" t="n">
+        <v>0.1006488638778759</v>
+      </c>
+      <c r="E549" t="n">
+        <v>0.06772885449132494</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.4985987032517714</v>
+      </c>
+      <c r="G549" t="inlineStr"/>
+      <c r="H549" t="inlineStr"/>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr"/>
+      <c r="B550" t="inlineStr"/>
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr"/>
+      <c r="E550" t="inlineStr"/>
+      <c r="F550" t="inlineStr"/>
+      <c r="G550" t="inlineStr">
+        <is>
+          <t>lstm_65</t>
+        </is>
+      </c>
+      <c r="H550" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr"/>
+      <c r="B551" t="inlineStr"/>
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr"/>
+      <c r="E551" t="inlineStr"/>
+      <c r="F551" t="inlineStr"/>
+      <c r="G551" t="inlineStr">
+        <is>
+          <t>lstm_66</t>
+        </is>
+      </c>
+      <c r="H551" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr"/>
+      <c r="B552" t="inlineStr"/>
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr"/>
+      <c r="E552" t="inlineStr"/>
+      <c r="F552" t="inlineStr"/>
+      <c r="G552" t="inlineStr">
+        <is>
+          <t>lstm_67</t>
+        </is>
+      </c>
+      <c r="H552" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J552" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>1</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>0.007308131336569115</v>
+      </c>
+      <c r="D553" t="n">
+        <v>0.08548760925753576</v>
+      </c>
+      <c r="E553" t="n">
+        <v>0.05449604568276942</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.6176126661089945</v>
+      </c>
+      <c r="G553" t="inlineStr"/>
+      <c r="H553" t="inlineStr"/>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>1</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>0.01036884621495165</v>
+      </c>
+      <c r="D554" t="n">
+        <v>0.1018275317139311</v>
+      </c>
+      <c r="E554" t="n">
+        <v>0.06996976242932725</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.4867864287051101</v>
+      </c>
+      <c r="G554" t="inlineStr"/>
+      <c r="H554" t="inlineStr"/>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr"/>
+      <c r="B555" t="inlineStr"/>
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr"/>
+      <c r="E555" t="inlineStr"/>
+      <c r="F555" t="inlineStr"/>
+      <c r="G555" t="inlineStr">
+        <is>
+          <t>lstm_68</t>
+        </is>
+      </c>
+      <c r="H555" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr"/>
+      <c r="B556" t="inlineStr"/>
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr"/>
+      <c r="E556" t="inlineStr"/>
+      <c r="F556" t="inlineStr"/>
+      <c r="G556" t="inlineStr">
+        <is>
+          <t>lstm_69</t>
+        </is>
+      </c>
+      <c r="H556" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J556" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr"/>
+      <c r="B557" t="inlineStr"/>
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr"/>
+      <c r="E557" t="inlineStr"/>
+      <c r="F557" t="inlineStr"/>
+      <c r="G557" t="inlineStr">
+        <is>
+          <t>lstm_70</t>
+        </is>
+      </c>
+      <c r="H557" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J557" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>1</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>0.007531400357218027</v>
+      </c>
+      <c r="D558" t="n">
+        <v>0.08678364106914406</v>
+      </c>
+      <c r="E558" t="n">
+        <v>0.05480370514648578</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.6059304396116154</v>
+      </c>
+      <c r="G558" t="inlineStr"/>
+      <c r="H558" t="inlineStr"/>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>1</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>0.01054955451830214</v>
+      </c>
+      <c r="D559" t="n">
+        <v>0.1027110243270027</v>
+      </c>
+      <c r="E559" t="n">
+        <v>0.07032262046597511</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.4778421400347457</v>
+      </c>
+      <c r="G559" t="inlineStr"/>
+      <c r="H559" t="inlineStr"/>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr"/>
+      <c r="B560" t="inlineStr"/>
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr"/>
+      <c r="E560" t="inlineStr"/>
+      <c r="F560" t="inlineStr"/>
+      <c r="G560" t="inlineStr">
+        <is>
+          <t>lstm_71</t>
+        </is>
+      </c>
+      <c r="H560" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J560" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr"/>
+      <c r="B561" t="inlineStr"/>
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr"/>
+      <c r="E561" t="inlineStr"/>
+      <c r="F561" t="inlineStr"/>
+      <c r="G561" t="inlineStr">
+        <is>
+          <t>lstm_72</t>
+        </is>
+      </c>
+      <c r="H561" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J561" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr"/>
+      <c r="B562" t="inlineStr"/>
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr"/>
+      <c r="E562" t="inlineStr"/>
+      <c r="F562" t="inlineStr"/>
+      <c r="G562" t="inlineStr">
+        <is>
+          <t>lstm_73</t>
+        </is>
+      </c>
+      <c r="H562" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J562" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr"/>
+      <c r="B563" t="inlineStr"/>
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr"/>
+      <c r="E563" t="inlineStr"/>
+      <c r="F563" t="inlineStr"/>
+      <c r="G563" t="inlineStr">
+        <is>
+          <t>lstm_74</t>
+        </is>
+      </c>
+      <c r="H563" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J563" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>1</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>0.007356559805795918</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.08577039002940302</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.05319547578527902</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.6150787169530186</v>
+      </c>
+      <c r="G564" t="inlineStr"/>
+      <c r="H564" t="inlineStr"/>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>1</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>0.01001165417527432</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.1000582539087822</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.06735717530295175</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.504465908033926</v>
+      </c>
+      <c r="G565" t="inlineStr"/>
+      <c r="H565" t="inlineStr"/>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr"/>
+      <c r="B566" t="inlineStr"/>
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr"/>
+      <c r="E566" t="inlineStr"/>
+      <c r="F566" t="inlineStr"/>
+      <c r="G566" t="inlineStr">
+        <is>
+          <t>lstm_75</t>
+        </is>
+      </c>
+      <c r="H566" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J566" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr"/>
+      <c r="B567" t="inlineStr"/>
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr"/>
+      <c r="E567" t="inlineStr"/>
+      <c r="F567" t="inlineStr"/>
+      <c r="G567" t="inlineStr">
+        <is>
+          <t>lstm_76</t>
+        </is>
+      </c>
+      <c r="H567" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J567" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr"/>
+      <c r="B568" t="inlineStr"/>
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr"/>
+      <c r="E568" t="inlineStr"/>
+      <c r="F568" t="inlineStr"/>
+      <c r="G568" t="inlineStr">
+        <is>
+          <t>lstm_77</t>
+        </is>
+      </c>
+      <c r="H568" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J568" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>1</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0.007336189394427609</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.08565155803852963</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.0526947117871275</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.6161445690750808</v>
+      </c>
+      <c r="G569" t="inlineStr"/>
+      <c r="H569" t="inlineStr"/>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>1</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0.009931095430349842</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.09965488161826214</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.06622391502670751</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.5084532216004161</v>
+      </c>
+      <c r="G570" t="inlineStr"/>
+      <c r="H570" t="inlineStr"/>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr"/>
+      <c r="B571" t="inlineStr"/>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr"/>
+      <c r="E571" t="inlineStr"/>
+      <c r="F571" t="inlineStr"/>
+      <c r="G571" t="inlineStr">
+        <is>
+          <t>lstm_78</t>
+        </is>
+      </c>
+      <c r="H571" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J571" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K571" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr"/>
+      <c r="B572" t="inlineStr"/>
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr"/>
+      <c r="E572" t="inlineStr"/>
+      <c r="F572" t="inlineStr"/>
+      <c r="G572" t="inlineStr">
+        <is>
+          <t>lstm_79</t>
+        </is>
+      </c>
+      <c r="H572" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J572" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr"/>
+      <c r="B573" t="inlineStr"/>
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr"/>
+      <c r="E573" t="inlineStr"/>
+      <c r="F573" t="inlineStr"/>
+      <c r="G573" t="inlineStr">
+        <is>
+          <t>lstm_80</t>
+        </is>
+      </c>
+      <c r="H573" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>(None, 1, 70)</t>
+        </is>
+      </c>
+      <c r="J573" t="n">
+        <v>61880</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>1</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>0.007251160153122413</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.08515374421082383</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.05270221398142554</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.6205936003510749</v>
+      </c>
+      <c r="G574" t="inlineStr"/>
+      <c r="H574" t="inlineStr"/>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>1</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>0.009848601116340701</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.09924011848209725</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.06681086637758417</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.512536337563994</v>
+      </c>
+      <c r="G575" t="inlineStr"/>
+      <c r="H575" t="inlineStr"/>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr"/>
+      <c r="B576" t="inlineStr"/>
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr"/>
+      <c r="E576" t="inlineStr"/>
+      <c r="F576" t="inlineStr"/>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>lstm_81</t>
+        </is>
+      </c>
+      <c r="H576" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J576" t="inlineStr">
+        <is>
+          <t>266000</t>
+        </is>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr"/>
+      <c r="B577" t="inlineStr"/>
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr"/>
+      <c r="E577" t="inlineStr"/>
+      <c r="F577" t="inlineStr"/>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>lstm_82</t>
+        </is>
+      </c>
+      <c r="H577" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J577" t="inlineStr">
+        <is>
+          <t>240600</t>
+        </is>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr"/>
+      <c r="B578" t="inlineStr"/>
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr"/>
+      <c r="E578" t="inlineStr"/>
+      <c r="F578" t="inlineStr"/>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>lstm_83</t>
+        </is>
+      </c>
+      <c r="H578" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J578" t="inlineStr">
+        <is>
+          <t>40200</t>
+        </is>
+      </c>
+      <c r="K578" t="inlineStr">
         <is>
           <t>prueba de capas</t>
         </is>

--- a/notebooks/model/LSTM/registro_ejecuciones/reg.xlsx
+++ b/notebooks/model/LSTM/registro_ejecuciones/reg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K578"/>
+  <dimension ref="A1:K893"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18162,10 +18162,8 @@
           <t>(None, 1, 250)</t>
         </is>
       </c>
-      <c r="J576" t="inlineStr">
-        <is>
-          <t>266000</t>
-        </is>
+      <c r="J576" t="n">
+        <v>266000</v>
       </c>
       <c r="K576" t="inlineStr">
         <is>
@@ -18195,10 +18193,8 @@
           <t>(None, 1, 150)</t>
         </is>
       </c>
-      <c r="J577" t="inlineStr">
-        <is>
-          <t>240600</t>
-        </is>
+      <c r="J577" t="n">
+        <v>240600</v>
       </c>
       <c r="K577" t="inlineStr">
         <is>
@@ -18228,14 +18224,9783 @@
           <t>(None, 1, 50)</t>
         </is>
       </c>
-      <c r="J578" t="inlineStr">
-        <is>
-          <t>40200</t>
-        </is>
+      <c r="J578" t="n">
+        <v>40200</v>
       </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>1</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0.008812019136276437</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.0938723555487793</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.0593104202002287</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.5389239261675383</v>
+      </c>
+      <c r="G579" t="inlineStr"/>
+      <c r="H579" t="inlineStr"/>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>1</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0.01263829829504854</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.1124201863325646</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.0778883781168765</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.37445825035585</v>
+      </c>
+      <c r="G580" t="inlineStr"/>
+      <c r="H580" t="inlineStr"/>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr"/>
+      <c r="B581" t="inlineStr"/>
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr"/>
+      <c r="E581" t="inlineStr"/>
+      <c r="F581" t="inlineStr"/>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H581" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J581" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr"/>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr"/>
+      <c r="E582" t="inlineStr"/>
+      <c r="F582" t="inlineStr"/>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H582" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J582" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr"/>
+      <c r="B583" t="inlineStr"/>
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr"/>
+      <c r="E583" t="inlineStr"/>
+      <c r="F583" t="inlineStr"/>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H583" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J583" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>1</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>0.02650905458631037</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.1628160145265519</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.09237542796874186</v>
+      </c>
+      <c r="F584" t="n">
+        <v>-0.3870476925486066</v>
+      </c>
+      <c r="G584" t="inlineStr"/>
+      <c r="H584" t="inlineStr"/>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>1</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>0.03599852620574225</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.1897327757814718</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.1269141621242161</v>
+      </c>
+      <c r="F585" t="n">
+        <v>-0.7817731898425895</v>
+      </c>
+      <c r="G585" t="inlineStr"/>
+      <c r="H585" t="inlineStr"/>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr"/>
+      <c r="B586" t="inlineStr"/>
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr"/>
+      <c r="E586" t="inlineStr"/>
+      <c r="F586" t="inlineStr"/>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H586" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J586" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr"/>
+      <c r="B587" t="inlineStr"/>
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr"/>
+      <c r="E587" t="inlineStr"/>
+      <c r="F587" t="inlineStr"/>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H587" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J587" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr"/>
+      <c r="B588" t="inlineStr"/>
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr"/>
+      <c r="E588" t="inlineStr"/>
+      <c r="F588" t="inlineStr"/>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H588" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J588" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>1</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0.009350661151951739</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.0966988167039894</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.05721550209114018</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.5107402667873211</v>
+      </c>
+      <c r="G589" t="inlineStr"/>
+      <c r="H589" t="inlineStr"/>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>1</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>0.01354682532614684</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.1163908300775746</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.07092200991519106</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.3294900453519455</v>
+      </c>
+      <c r="G590" t="inlineStr"/>
+      <c r="H590" t="inlineStr"/>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr"/>
+      <c r="B591" t="inlineStr"/>
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr"/>
+      <c r="E591" t="inlineStr"/>
+      <c r="F591" t="inlineStr"/>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H591" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J591" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr"/>
+      <c r="B592" t="inlineStr"/>
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr"/>
+      <c r="E592" t="inlineStr"/>
+      <c r="F592" t="inlineStr"/>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H592" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J592" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr"/>
+      <c r="B593" t="inlineStr"/>
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr"/>
+      <c r="E593" t="inlineStr"/>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H593" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J593" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>1</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>0.007173248854257425</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.08469503441322535</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.05306620163230303</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0.624670195650326</v>
+      </c>
+      <c r="G594" t="inlineStr"/>
+      <c r="H594" t="inlineStr"/>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>1</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.009853167197450401</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.09926312103420082</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.06672791626910136</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.512310336064449</v>
+      </c>
+      <c r="G595" t="inlineStr"/>
+      <c r="H595" t="inlineStr"/>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr"/>
+      <c r="B596" t="inlineStr"/>
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr"/>
+      <c r="E596" t="inlineStr"/>
+      <c r="F596" t="inlineStr"/>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>lstm_12</t>
+        </is>
+      </c>
+      <c r="H596" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J596" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr"/>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr"/>
+      <c r="F597" t="inlineStr"/>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H597" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J597" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr"/>
+      <c r="B598" t="inlineStr"/>
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr"/>
+      <c r="E598" t="inlineStr"/>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>lstm_14</t>
+        </is>
+      </c>
+      <c r="H598" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J598" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>1</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0.007364672183560965</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.08581766824821661</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.05211671568499684</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.6146542485954822</v>
+      </c>
+      <c r="G599" t="inlineStr"/>
+      <c r="H599" t="inlineStr"/>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>1</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0.009913170164437267</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.09956490428076184</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.06675751012900923</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.509340445650681</v>
+      </c>
+      <c r="G600" t="inlineStr"/>
+      <c r="H600" t="inlineStr"/>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr"/>
+      <c r="B601" t="inlineStr"/>
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr"/>
+      <c r="E601" t="inlineStr"/>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>lstm_15</t>
+        </is>
+      </c>
+      <c r="H601" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J601" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr"/>
+      <c r="B602" t="inlineStr"/>
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr"/>
+      <c r="E602" t="inlineStr"/>
+      <c r="F602" t="inlineStr"/>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>lstm_16</t>
+        </is>
+      </c>
+      <c r="H602" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J602" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr"/>
+      <c r="B603" t="inlineStr"/>
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr"/>
+      <c r="E603" t="inlineStr"/>
+      <c r="F603" t="inlineStr"/>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H603" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J603" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr"/>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr"/>
+      <c r="E604" t="inlineStr"/>
+      <c r="F604" t="inlineStr"/>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>dense_5</t>
+        </is>
+      </c>
+      <c r="H604" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>(None, 1, 2)</t>
+        </is>
+      </c>
+      <c r="J604" t="n">
+        <v>102</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>1</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>0.007434773607822391</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.08622513327227967</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.05477997870957285</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.6109862936161903</v>
+      </c>
+      <c r="G605" t="inlineStr"/>
+      <c r="H605" t="inlineStr"/>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>1</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0.01021449372912232</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.1010667785630982</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.06865759889339486</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.4944262170526782</v>
+      </c>
+      <c r="G606" t="inlineStr"/>
+      <c r="H606" t="inlineStr"/>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr"/>
+      <c r="B607" t="inlineStr"/>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr"/>
+      <c r="E607" t="inlineStr"/>
+      <c r="F607" t="inlineStr"/>
+      <c r="G607" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H607" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J607" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr"/>
+      <c r="B608" t="inlineStr"/>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr"/>
+      <c r="E608" t="inlineStr"/>
+      <c r="F608" t="inlineStr"/>
+      <c r="G608" t="inlineStr">
+        <is>
+          <t>lstm_19</t>
+        </is>
+      </c>
+      <c r="H608" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J608" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr"/>
+      <c r="B609" t="inlineStr"/>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr"/>
+      <c r="E609" t="inlineStr"/>
+      <c r="F609" t="inlineStr"/>
+      <c r="G609" t="inlineStr">
+        <is>
+          <t>lstm_20</t>
+        </is>
+      </c>
+      <c r="H609" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>1</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>0.01167144388094744</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.1080344569151317</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.06801587395400467</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.3894519284074385</v>
+      </c>
+      <c r="G610" t="inlineStr"/>
+      <c r="H610" t="inlineStr"/>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>1</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>0.01644875641868153</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.1282527053074575</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.08711835140797775</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.1857090476112786</v>
+      </c>
+      <c r="G611" t="inlineStr"/>
+      <c r="H611" t="inlineStr"/>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>2</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>0.01108209715190191</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.1052715400851622</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.06500059252450398</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.4203664339039629</v>
+      </c>
+      <c r="G612" t="inlineStr"/>
+      <c r="H612" t="inlineStr"/>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>2</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>0.01575677297828994</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.125525985271138</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.08430278493786075</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.2200731273254277</v>
+      </c>
+      <c r="G613" t="inlineStr"/>
+      <c r="H613" t="inlineStr"/>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr"/>
+      <c r="B614" t="inlineStr"/>
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr"/>
+      <c r="E614" t="inlineStr"/>
+      <c r="F614" t="inlineStr"/>
+      <c r="G614" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H614" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J614" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr"/>
+      <c r="B615" t="inlineStr"/>
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr"/>
+      <c r="E615" t="inlineStr"/>
+      <c r="F615" t="inlineStr"/>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H615" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J615" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr"/>
+      <c r="B616" t="inlineStr"/>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr"/>
+      <c r="E616" t="inlineStr"/>
+      <c r="F616" t="inlineStr"/>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>simple_rnn</t>
+        </is>
+      </c>
+      <c r="H616" t="inlineStr">
+        <is>
+          <t>SimpleRNN</t>
+        </is>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J616" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>1</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>0.007305003213316099</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.08546931152943786</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.05198335556964934</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.6177763406046645</v>
+      </c>
+      <c r="G617" t="inlineStr"/>
+      <c r="H617" t="inlineStr"/>
+      <c r="I617" t="inlineStr"/>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>1</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>0.009899175992447993</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.09949460283074651</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.06624784948378802</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.5100330973531987</v>
+      </c>
+      <c r="G618" t="inlineStr"/>
+      <c r="H618" t="inlineStr"/>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr"/>
+      <c r="B619" t="inlineStr"/>
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr"/>
+      <c r="E619" t="inlineStr"/>
+      <c r="F619" t="inlineStr"/>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H619" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J619" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr"/>
+      <c r="B620" t="inlineStr"/>
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr"/>
+      <c r="E620" t="inlineStr"/>
+      <c r="F620" t="inlineStr"/>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H620" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J620" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr"/>
+      <c r="B621" t="inlineStr"/>
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr"/>
+      <c r="E621" t="inlineStr"/>
+      <c r="F621" t="inlineStr"/>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H621" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J621" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>1</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>269.1116309424332</v>
+      </c>
+      <c r="D622" t="n">
+        <v>16.40462224321039</v>
+      </c>
+      <c r="E622" t="n">
+        <v>10.056145110444</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.603896813424452</v>
+      </c>
+      <c r="G622" t="inlineStr"/>
+      <c r="H622" t="inlineStr"/>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>1</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>392.8322570951635</v>
+      </c>
+      <c r="D623" t="n">
+        <v>19.81999639493316</v>
+      </c>
+      <c r="E623" t="n">
+        <v>13.29974371952712</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.4709252655374374</v>
+      </c>
+      <c r="G623" t="inlineStr"/>
+      <c r="H623" t="inlineStr"/>
+      <c r="I623" t="inlineStr"/>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr"/>
+      <c r="B624" t="inlineStr"/>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr"/>
+      <c r="E624" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+      <c r="G624" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H624" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J624" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr"/>
+      <c r="B625" t="inlineStr"/>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr"/>
+      <c r="E625" t="inlineStr"/>
+      <c r="F625" t="inlineStr"/>
+      <c r="G625" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H625" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J625" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr"/>
+      <c r="B626" t="inlineStr"/>
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr"/>
+      <c r="E626" t="inlineStr"/>
+      <c r="F626" t="inlineStr"/>
+      <c r="G626" t="inlineStr">
+        <is>
+          <t>dense</t>
+        </is>
+      </c>
+      <c r="H626" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J626" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>1</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>258.5645146089714</v>
+      </c>
+      <c r="D627" t="n">
+        <v>16.0799413745502</v>
+      </c>
+      <c r="E627" t="n">
+        <v>10.06668176116793</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.6194210268307501</v>
+      </c>
+      <c r="G627" t="inlineStr"/>
+      <c r="H627" t="inlineStr"/>
+      <c r="I627" t="inlineStr"/>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>1</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>368.1611084584949</v>
+      </c>
+      <c r="D628" t="n">
+        <v>19.18752481323463</v>
+      </c>
+      <c r="E628" t="n">
+        <v>13.11995124604875</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.5041528866863538</v>
+      </c>
+      <c r="G628" t="inlineStr"/>
+      <c r="H628" t="inlineStr"/>
+      <c r="I628" t="inlineStr"/>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr"/>
+      <c r="B629" t="inlineStr"/>
+      <c r="C629" t="inlineStr"/>
+      <c r="D629" t="inlineStr"/>
+      <c r="E629" t="inlineStr"/>
+      <c r="F629" t="inlineStr"/>
+      <c r="G629" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H629" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J629" t="n">
+        <v>46400</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr"/>
+      <c r="B630" t="inlineStr"/>
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr"/>
+      <c r="E630" t="inlineStr"/>
+      <c r="F630" t="inlineStr"/>
+      <c r="G630" t="inlineStr">
+        <is>
+          <t>dense_2</t>
+        </is>
+      </c>
+      <c r="H630" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>5050</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>1</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>267.875725854309</v>
+      </c>
+      <c r="D631" t="n">
+        <v>16.36690947779418</v>
+      </c>
+      <c r="E631" t="n">
+        <v>10.54322314851296</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0.6057159319144131</v>
+      </c>
+      <c r="G631" t="inlineStr"/>
+      <c r="H631" t="inlineStr"/>
+      <c r="I631" t="inlineStr"/>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>1</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>382.336050867321</v>
+      </c>
+      <c r="D632" t="n">
+        <v>19.55341532488177</v>
+      </c>
+      <c r="E632" t="n">
+        <v>13.38532241353921</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.4850617765356031</v>
+      </c>
+      <c r="G632" t="inlineStr"/>
+      <c r="H632" t="inlineStr"/>
+      <c r="I632" t="inlineStr"/>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr"/>
+      <c r="B633" t="inlineStr"/>
+      <c r="C633" t="inlineStr"/>
+      <c r="D633" t="inlineStr"/>
+      <c r="E633" t="inlineStr"/>
+      <c r="F633" t="inlineStr"/>
+      <c r="G633" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H633" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J633" t="n">
+        <v>46400</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr"/>
+      <c r="B634" t="inlineStr"/>
+      <c r="C634" t="inlineStr"/>
+      <c r="D634" t="inlineStr"/>
+      <c r="E634" t="inlineStr"/>
+      <c r="F634" t="inlineStr"/>
+      <c r="G634" t="inlineStr">
+        <is>
+          <t>dense_4</t>
+        </is>
+      </c>
+      <c r="H634" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>5050</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr"/>
+      <c r="B635" t="inlineStr"/>
+      <c r="C635" t="inlineStr"/>
+      <c r="D635" t="inlineStr"/>
+      <c r="E635" t="inlineStr"/>
+      <c r="F635" t="inlineStr"/>
+      <c r="G635" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H635" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J635" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>1</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>262.9937226826116</v>
+      </c>
+      <c r="D636" t="n">
+        <v>16.21708120108584</v>
+      </c>
+      <c r="E636" t="n">
+        <v>10.22833330516479</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.6129017120548297</v>
+      </c>
+      <c r="G636" t="inlineStr"/>
+      <c r="H636" t="inlineStr"/>
+      <c r="I636" t="inlineStr"/>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>1</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>368.4601350039275</v>
+      </c>
+      <c r="D637" t="n">
+        <v>19.19531544424127</v>
+      </c>
+      <c r="E637" t="n">
+        <v>13.01349942947992</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.5037501514545482</v>
+      </c>
+      <c r="G637" t="inlineStr"/>
+      <c r="H637" t="inlineStr"/>
+      <c r="I637" t="inlineStr"/>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr"/>
+      <c r="B638" t="inlineStr"/>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr"/>
+      <c r="E638" t="inlineStr"/>
+      <c r="F638" t="inlineStr"/>
+      <c r="G638" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H638" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J638" t="n">
+        <v>46400</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr"/>
+      <c r="B639" t="inlineStr"/>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr"/>
+      <c r="E639" t="inlineStr"/>
+      <c r="F639" t="inlineStr"/>
+      <c r="G639" t="inlineStr">
+        <is>
+          <t>dense_6</t>
+        </is>
+      </c>
+      <c r="H639" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J639" t="n">
+        <v>5050</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr"/>
+      <c r="B640" t="inlineStr"/>
+      <c r="C640" t="inlineStr"/>
+      <c r="D640" t="inlineStr"/>
+      <c r="E640" t="inlineStr"/>
+      <c r="F640" t="inlineStr"/>
+      <c r="G640" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H640" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>1</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>260.1942120655343</v>
+      </c>
+      <c r="D641" t="n">
+        <v>16.13053663290637</v>
+      </c>
+      <c r="E641" t="n">
+        <v>9.718976681724094</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.6170222886066237</v>
+      </c>
+      <c r="G641" t="inlineStr"/>
+      <c r="H641" t="inlineStr"/>
+      <c r="I641" t="inlineStr"/>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>1</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>357.2059284545189</v>
+      </c>
+      <c r="D642" t="n">
+        <v>18.89989228684965</v>
+      </c>
+      <c r="E642" t="n">
+        <v>12.60077390416314</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.518907553205985</v>
+      </c>
+      <c r="G642" t="inlineStr"/>
+      <c r="H642" t="inlineStr"/>
+      <c r="I642" t="inlineStr"/>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr"/>
+      <c r="B643" t="inlineStr"/>
+      <c r="C643" t="inlineStr"/>
+      <c r="D643" t="inlineStr"/>
+      <c r="E643" t="inlineStr"/>
+      <c r="F643" t="inlineStr"/>
+      <c r="G643" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H643" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K643" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr"/>
+      <c r="B644" t="inlineStr"/>
+      <c r="C644" t="inlineStr"/>
+      <c r="D644" t="inlineStr"/>
+      <c r="E644" t="inlineStr"/>
+      <c r="F644" t="inlineStr"/>
+      <c r="G644" t="inlineStr">
+        <is>
+          <t>dense_8</t>
+        </is>
+      </c>
+      <c r="H644" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J644" t="n">
+        <v>7550</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr"/>
+      <c r="B645" t="inlineStr"/>
+      <c r="C645" t="inlineStr"/>
+      <c r="D645" t="inlineStr"/>
+      <c r="E645" t="inlineStr"/>
+      <c r="F645" t="inlineStr"/>
+      <c r="G645" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H645" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J645" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>1</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>414.236247978113</v>
+      </c>
+      <c r="D646" t="n">
+        <v>20.35279459873049</v>
+      </c>
+      <c r="E646" t="n">
+        <v>12.49555728911017</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.3904320980617467</v>
+      </c>
+      <c r="G646" t="inlineStr"/>
+      <c r="H646" t="inlineStr"/>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>1</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>593.2884474107736</v>
+      </c>
+      <c r="D647" t="n">
+        <v>24.35751316146157</v>
+      </c>
+      <c r="E647" t="n">
+        <v>16.34073888381499</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.2008015864027658</v>
+      </c>
+      <c r="G647" t="inlineStr"/>
+      <c r="H647" t="inlineStr"/>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>2</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>402.8599384797553</v>
+      </c>
+      <c r="D648" t="n">
+        <v>20.07137111608859</v>
+      </c>
+      <c r="E648" t="n">
+        <v>11.90031149086554</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.4072598178230108</v>
+      </c>
+      <c r="G648" t="inlineStr"/>
+      <c r="H648" t="inlineStr"/>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>2</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>568.7938212547207</v>
+      </c>
+      <c r="D649" t="n">
+        <v>23.84939876086441</v>
+      </c>
+      <c r="E649" t="n">
+        <v>15.57558805569693</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0.2339031827879373</v>
+      </c>
+      <c r="G649" t="inlineStr"/>
+      <c r="H649" t="inlineStr"/>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr"/>
+      <c r="B650" t="inlineStr"/>
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr"/>
+      <c r="E650" t="inlineStr"/>
+      <c r="F650" t="inlineStr"/>
+      <c r="G650" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H650" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr"/>
+      <c r="B651" t="inlineStr"/>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr"/>
+      <c r="E651" t="inlineStr"/>
+      <c r="F651" t="inlineStr"/>
+      <c r="G651" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H651" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J651" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K651" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr"/>
+      <c r="B652" t="inlineStr"/>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr"/>
+      <c r="E652" t="inlineStr"/>
+      <c r="F652" t="inlineStr"/>
+      <c r="G652" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H652" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J652" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K652" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>1</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>259.4569753949425</v>
+      </c>
+      <c r="D653" t="n">
+        <v>16.10766821718595</v>
+      </c>
+      <c r="E653" t="n">
+        <v>10.27248262326335</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0.6181074211720912</v>
+      </c>
+      <c r="G653" t="inlineStr"/>
+      <c r="H653" t="inlineStr"/>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>1</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>373.2132277789429</v>
+      </c>
+      <c r="D654" t="n">
+        <v>19.31872738507749</v>
+      </c>
+      <c r="E654" t="n">
+        <v>13.20711017647414</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.4973485862765439</v>
+      </c>
+      <c r="G654" t="inlineStr"/>
+      <c r="H654" t="inlineStr"/>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr"/>
+      <c r="B655" t="inlineStr"/>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr"/>
+      <c r="E655" t="inlineStr"/>
+      <c r="F655" t="inlineStr"/>
+      <c r="G655" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H655" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J655" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K655" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr"/>
+      <c r="B656" t="inlineStr"/>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr"/>
+      <c r="E656" t="inlineStr"/>
+      <c r="F656" t="inlineStr"/>
+      <c r="G656" t="inlineStr">
+        <is>
+          <t>dense_10</t>
+        </is>
+      </c>
+      <c r="H656" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J656" t="n">
+        <v>15100</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr"/>
+      <c r="B657" t="inlineStr"/>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr"/>
+      <c r="E657" t="inlineStr"/>
+      <c r="F657" t="inlineStr"/>
+      <c r="G657" t="inlineStr">
+        <is>
+          <t>lstm_12</t>
+        </is>
+      </c>
+      <c r="H657" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J657" t="n">
+        <v>12600</v>
+      </c>
+      <c r="K657" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>1</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>263.8650657180219</v>
+      </c>
+      <c r="D658" t="n">
+        <v>16.24392396307068</v>
+      </c>
+      <c r="E658" t="n">
+        <v>9.91199794404843</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.6116191894387772</v>
+      </c>
+      <c r="G658" t="inlineStr"/>
+      <c r="H658" t="inlineStr"/>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>1</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>373.1159250339862</v>
+      </c>
+      <c r="D659" t="n">
+        <v>19.31620886804619</v>
+      </c>
+      <c r="E659" t="n">
+        <v>12.95234381474956</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.4974796356570889</v>
+      </c>
+      <c r="G659" t="inlineStr"/>
+      <c r="H659" t="inlineStr"/>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr"/>
+      <c r="B660" t="inlineStr"/>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr"/>
+      <c r="E660" t="inlineStr"/>
+      <c r="F660" t="inlineStr"/>
+      <c r="G660" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H660" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J660" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K660" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr"/>
+      <c r="B661" t="inlineStr"/>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr"/>
+      <c r="E661" t="inlineStr"/>
+      <c r="F661" t="inlineStr"/>
+      <c r="G661" t="inlineStr">
+        <is>
+          <t>dense_12</t>
+        </is>
+      </c>
+      <c r="H661" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J661" t="n">
+        <v>22650</v>
+      </c>
+      <c r="K661" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr"/>
+      <c r="B662" t="inlineStr"/>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr"/>
+      <c r="E662" t="inlineStr"/>
+      <c r="F662" t="inlineStr"/>
+      <c r="G662" t="inlineStr">
+        <is>
+          <t>lstm_14</t>
+        </is>
+      </c>
+      <c r="H662" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J662" t="n">
+        <v>17600</v>
+      </c>
+      <c r="K662" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>1</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>269.0394464399091</v>
+      </c>
+      <c r="D663" t="n">
+        <v>16.4024219687188</v>
+      </c>
+      <c r="E663" t="n">
+        <v>10.1157318181657</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.6040030611974341</v>
+      </c>
+      <c r="G663" t="inlineStr"/>
+      <c r="H663" t="inlineStr"/>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>1</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>387.5313935238155</v>
+      </c>
+      <c r="D664" t="n">
+        <v>19.68581706518212</v>
+      </c>
+      <c r="E664" t="n">
+        <v>13.18211853879681</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0.4780645799287039</v>
+      </c>
+      <c r="G664" t="inlineStr"/>
+      <c r="H664" t="inlineStr"/>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr"/>
+      <c r="B665" t="inlineStr"/>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr"/>
+      <c r="E665" t="inlineStr"/>
+      <c r="F665" t="inlineStr"/>
+      <c r="G665" t="inlineStr">
+        <is>
+          <t>lstm_15</t>
+        </is>
+      </c>
+      <c r="H665" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J665" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K665" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr"/>
+      <c r="B666" t="inlineStr"/>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr"/>
+      <c r="E666" t="inlineStr"/>
+      <c r="F666" t="inlineStr"/>
+      <c r="G666" t="inlineStr">
+        <is>
+          <t>dense_14</t>
+        </is>
+      </c>
+      <c r="H666" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I666" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J666" t="n">
+        <v>22650</v>
+      </c>
+      <c r="K666" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr"/>
+      <c r="B667" t="inlineStr"/>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr"/>
+      <c r="E667" t="inlineStr"/>
+      <c r="F667" t="inlineStr"/>
+      <c r="G667" t="inlineStr">
+        <is>
+          <t>lstm_16</t>
+        </is>
+      </c>
+      <c r="H667" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I667" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J667" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K667" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="n">
+        <v>1</v>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>261.396486938627</v>
+      </c>
+      <c r="D668" t="n">
+        <v>16.16776072740523</v>
+      </c>
+      <c r="E668" t="n">
+        <v>9.963453584453172</v>
+      </c>
+      <c r="F668" t="n">
+        <v>0.6152526701523636</v>
+      </c>
+      <c r="G668" t="inlineStr"/>
+      <c r="H668" t="inlineStr"/>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="n">
+        <v>1</v>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>369.8084012763653</v>
+      </c>
+      <c r="D669" t="n">
+        <v>19.23040304508372</v>
+      </c>
+      <c r="E669" t="n">
+        <v>12.8999290588974</v>
+      </c>
+      <c r="F669" t="n">
+        <v>0.5019342781213609</v>
+      </c>
+      <c r="G669" t="inlineStr"/>
+      <c r="H669" t="inlineStr"/>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr"/>
+      <c r="B670" t="inlineStr"/>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr"/>
+      <c r="E670" t="inlineStr"/>
+      <c r="F670" t="inlineStr"/>
+      <c r="G670" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H670" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I670" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J670" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K670" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr"/>
+      <c r="B671" t="inlineStr"/>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr"/>
+      <c r="E671" t="inlineStr"/>
+      <c r="F671" t="inlineStr"/>
+      <c r="G671" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H671" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I671" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J671" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K671" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr"/>
+      <c r="B672" t="inlineStr"/>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr"/>
+      <c r="E672" t="inlineStr"/>
+      <c r="F672" t="inlineStr"/>
+      <c r="G672" t="inlineStr">
+        <is>
+          <t>dense_16</t>
+        </is>
+      </c>
+      <c r="H672" t="inlineStr">
+        <is>
+          <t>Dense</t>
+        </is>
+      </c>
+      <c r="I672" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J672" t="n">
+        <v>22650</v>
+      </c>
+      <c r="K672" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr"/>
+      <c r="B673" t="inlineStr"/>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr"/>
+      <c r="E673" t="inlineStr"/>
+      <c r="F673" t="inlineStr"/>
+      <c r="G673" t="inlineStr">
+        <is>
+          <t>lstm_19</t>
+        </is>
+      </c>
+      <c r="H673" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I673" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J673" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K673" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="n">
+        <v>1</v>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>405.5503357792457</v>
+      </c>
+      <c r="D674" t="n">
+        <v>20.13828035804561</v>
+      </c>
+      <c r="E674" t="n">
+        <v>12.32073850612279</v>
+      </c>
+      <c r="F674" t="n">
+        <v>0.4032138217793756</v>
+      </c>
+      <c r="G674" t="inlineStr"/>
+      <c r="H674" t="inlineStr"/>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="n">
+        <v>1</v>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>573.5412975620069</v>
+      </c>
+      <c r="D675" t="n">
+        <v>23.94872225322276</v>
+      </c>
+      <c r="E675" t="n">
+        <v>15.9429506549482</v>
+      </c>
+      <c r="F675" t="n">
+        <v>0.2274022911713762</v>
+      </c>
+      <c r="G675" t="inlineStr"/>
+      <c r="H675" t="inlineStr"/>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="n">
+        <v>2</v>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>383.7275081558238</v>
+      </c>
+      <c r="D676" t="n">
+        <v>19.58896393778456</v>
+      </c>
+      <c r="E676" t="n">
+        <v>11.72101822151129</v>
+      </c>
+      <c r="F676" t="n">
+        <v>0.435409949301685</v>
+      </c>
+      <c r="G676" t="inlineStr"/>
+      <c r="H676" t="inlineStr"/>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="n">
+        <v>2</v>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>553.449791669468</v>
+      </c>
+      <c r="D677" t="n">
+        <v>23.52551363242614</v>
+      </c>
+      <c r="E677" t="n">
+        <v>15.37597454346611</v>
+      </c>
+      <c r="F677" t="n">
+        <v>0.2545697438320412</v>
+      </c>
+      <c r="G677" t="inlineStr"/>
+      <c r="H677" t="inlineStr"/>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr"/>
+      <c r="B678" t="inlineStr"/>
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr"/>
+      <c r="E678" t="inlineStr"/>
+      <c r="F678" t="inlineStr"/>
+      <c r="G678" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H678" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I678" t="inlineStr">
+        <is>
+          <t>(None, 2, 200)</t>
+        </is>
+      </c>
+      <c r="J678" t="n">
+        <v>171200</v>
+      </c>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr"/>
+      <c r="B679" t="inlineStr"/>
+      <c r="C679" t="inlineStr"/>
+      <c r="D679" t="inlineStr"/>
+      <c r="E679" t="inlineStr"/>
+      <c r="F679" t="inlineStr"/>
+      <c r="G679" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H679" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I679" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J679" t="n">
+        <v>50200</v>
+      </c>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="n">
+        <v>1</v>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>414.2301810535573</v>
+      </c>
+      <c r="D680" t="n">
+        <v>20.35264555416709</v>
+      </c>
+      <c r="E680" t="n">
+        <v>12.59595601774198</v>
+      </c>
+      <c r="F680" t="n">
+        <v>0.3904410258233578</v>
+      </c>
+      <c r="G680" t="inlineStr"/>
+      <c r="H680" t="inlineStr"/>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="n">
+        <v>1</v>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>590.5318037897401</v>
+      </c>
+      <c r="D681" t="n">
+        <v>24.30086014505948</v>
+      </c>
+      <c r="E681" t="n">
+        <v>16.43144576125863</v>
+      </c>
+      <c r="F681" t="n">
+        <v>0.2045149659880209</v>
+      </c>
+      <c r="G681" t="inlineStr"/>
+      <c r="H681" t="inlineStr"/>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="n">
+        <v>2</v>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>404.4957372429027</v>
+      </c>
+      <c r="D682" t="n">
+        <v>20.11207938635145</v>
+      </c>
+      <c r="E682" t="n">
+        <v>12.24765702525477</v>
+      </c>
+      <c r="F682" t="n">
+        <v>0.404853016936996</v>
+      </c>
+      <c r="G682" t="inlineStr"/>
+      <c r="H682" t="inlineStr"/>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="n">
+        <v>2</v>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>588.0020314026975</v>
+      </c>
+      <c r="D683" t="n">
+        <v>24.24875319274576</v>
+      </c>
+      <c r="E683" t="n">
+        <v>16.24777594375593</v>
+      </c>
+      <c r="F683" t="n">
+        <v>0.2080320356185738</v>
+      </c>
+      <c r="G683" t="inlineStr"/>
+      <c r="H683" t="inlineStr"/>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr"/>
+      <c r="B684" t="inlineStr"/>
+      <c r="C684" t="inlineStr"/>
+      <c r="D684" t="inlineStr"/>
+      <c r="E684" t="inlineStr"/>
+      <c r="F684" t="inlineStr"/>
+      <c r="G684" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H684" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I684" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J684" t="n">
+        <v>45600</v>
+      </c>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr"/>
+      <c r="B685" t="inlineStr"/>
+      <c r="C685" t="inlineStr"/>
+      <c r="D685" t="inlineStr"/>
+      <c r="E685" t="inlineStr"/>
+      <c r="F685" t="inlineStr"/>
+      <c r="G685" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H685" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I685" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J685" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="n">
+        <v>1</v>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>418.4500821921178</v>
+      </c>
+      <c r="D686" t="n">
+        <v>20.45605245867633</v>
+      </c>
+      <c r="E686" t="n">
+        <v>12.72818278266253</v>
+      </c>
+      <c r="F686" t="n">
+        <v>0.3842312450618368</v>
+      </c>
+      <c r="G686" t="inlineStr"/>
+      <c r="H686" t="inlineStr"/>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="n">
+        <v>1</v>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>603.0181339585035</v>
+      </c>
+      <c r="D687" t="n">
+        <v>24.55642754878045</v>
+      </c>
+      <c r="E687" t="n">
+        <v>16.64204020083774</v>
+      </c>
+      <c r="F687" t="n">
+        <v>0.1876950610900282</v>
+      </c>
+      <c r="G687" t="inlineStr"/>
+      <c r="H687" t="inlineStr"/>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="n">
+        <v>2</v>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>413.4108611953843</v>
+      </c>
+      <c r="D688" t="n">
+        <v>20.33250749896294</v>
+      </c>
+      <c r="E688" t="n">
+        <v>12.44776378197198</v>
+      </c>
+      <c r="F688" t="n">
+        <v>0.3917359216614877</v>
+      </c>
+      <c r="G688" t="inlineStr"/>
+      <c r="H688" t="inlineStr"/>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="n">
+        <v>2</v>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>583.3519381768056</v>
+      </c>
+      <c r="D689" t="n">
+        <v>24.15267973076291</v>
+      </c>
+      <c r="E689" t="n">
+        <v>16.13754884904762</v>
+      </c>
+      <c r="F689" t="n">
+        <v>0.2142951515086811</v>
+      </c>
+      <c r="G689" t="inlineStr"/>
+      <c r="H689" t="inlineStr"/>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr"/>
+      <c r="B690" t="inlineStr"/>
+      <c r="C690" t="inlineStr"/>
+      <c r="D690" t="inlineStr"/>
+      <c r="E690" t="inlineStr"/>
+      <c r="F690" t="inlineStr"/>
+      <c r="G690" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H690" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I690" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J690" t="n">
+        <v>45600</v>
+      </c>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr"/>
+      <c r="B691" t="inlineStr"/>
+      <c r="C691" t="inlineStr"/>
+      <c r="D691" t="inlineStr"/>
+      <c r="E691" t="inlineStr"/>
+      <c r="F691" t="inlineStr"/>
+      <c r="G691" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H691" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I691" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J691" t="n">
+        <v>80400</v>
+      </c>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr"/>
+      <c r="B692" t="inlineStr"/>
+      <c r="C692" t="inlineStr"/>
+      <c r="D692" t="inlineStr"/>
+      <c r="E692" t="inlineStr"/>
+      <c r="F692" t="inlineStr"/>
+      <c r="G692" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H692" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I692" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J692" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="n">
+        <v>1</v>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>420.3314599947319</v>
+      </c>
+      <c r="D693" t="n">
+        <v>20.50198673286889</v>
+      </c>
+      <c r="E693" t="n">
+        <v>12.86527413680962</v>
+      </c>
+      <c r="F693" t="n">
+        <v>0.3814627101364402</v>
+      </c>
+      <c r="G693" t="inlineStr"/>
+      <c r="H693" t="inlineStr"/>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="n">
+        <v>1</v>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>615.9728967754201</v>
+      </c>
+      <c r="D694" t="n">
+        <v>24.8188012759565</v>
+      </c>
+      <c r="E694" t="n">
+        <v>16.71393108915002</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.1702441467211533</v>
+      </c>
+      <c r="G694" t="inlineStr"/>
+      <c r="H694" t="inlineStr"/>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="n">
+        <v>2</v>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>430.9122170440294</v>
+      </c>
+      <c r="D695" t="n">
+        <v>20.75842520626334</v>
+      </c>
+      <c r="E695" t="n">
+        <v>12.93735367870415</v>
+      </c>
+      <c r="F695" t="n">
+        <v>0.3659856400792165</v>
+      </c>
+      <c r="G695" t="inlineStr"/>
+      <c r="H695" t="inlineStr"/>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="n">
+        <v>2</v>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>624.6851740267947</v>
+      </c>
+      <c r="D696" t="n">
+        <v>24.99370268741298</v>
+      </c>
+      <c r="E696" t="n">
+        <v>16.85058575462434</v>
+      </c>
+      <c r="F696" t="n">
+        <v>0.1586242576865562</v>
+      </c>
+      <c r="G696" t="inlineStr"/>
+      <c r="H696" t="inlineStr"/>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr"/>
+      <c r="B697" t="inlineStr"/>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr"/>
+      <c r="E697" t="inlineStr"/>
+      <c r="F697" t="inlineStr"/>
+      <c r="G697" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H697" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I697" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J697" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr"/>
+      <c r="B698" t="inlineStr"/>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr"/>
+      <c r="E698" t="inlineStr"/>
+      <c r="F698" t="inlineStr"/>
+      <c r="G698" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H698" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I698" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J698" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr"/>
+      <c r="B699" t="inlineStr"/>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr"/>
+      <c r="E699" t="inlineStr"/>
+      <c r="F699" t="inlineStr"/>
+      <c r="G699" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H699" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I699" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J699" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr"/>
+      <c r="B700" t="inlineStr"/>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr"/>
+      <c r="E700" t="inlineStr"/>
+      <c r="F700" t="inlineStr"/>
+      <c r="G700" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H700" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I700" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J700" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="n">
+        <v>1</v>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>425.3655859403033</v>
+      </c>
+      <c r="D701" t="n">
+        <v>20.62439298355962</v>
+      </c>
+      <c r="E701" t="n">
+        <v>13.10358072793081</v>
+      </c>
+      <c r="F701" t="n">
+        <v>0.3740547597078793</v>
+      </c>
+      <c r="G701" t="inlineStr"/>
+      <c r="H701" t="inlineStr"/>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="n">
+        <v>1</v>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>608.3532740942064</v>
+      </c>
+      <c r="D702" t="n">
+        <v>24.66481854979287</v>
+      </c>
+      <c r="E702" t="n">
+        <v>16.96136938353596</v>
+      </c>
+      <c r="F702" t="n">
+        <v>0.1805082777447922</v>
+      </c>
+      <c r="G702" t="inlineStr"/>
+      <c r="H702" t="inlineStr"/>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="n">
+        <v>2</v>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>428.5022703192669</v>
+      </c>
+      <c r="D703" t="n">
+        <v>20.70029638240155</v>
+      </c>
+      <c r="E703" t="n">
+        <v>13.1516069906988</v>
+      </c>
+      <c r="F703" t="n">
+        <v>0.3695314686023085</v>
+      </c>
+      <c r="G703" t="inlineStr"/>
+      <c r="H703" t="inlineStr"/>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="n">
+        <v>2</v>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>614.8998162862569</v>
+      </c>
+      <c r="D704" t="n">
+        <v>24.79717355438432</v>
+      </c>
+      <c r="E704" t="n">
+        <v>16.96842925091993</v>
+      </c>
+      <c r="F704" t="n">
+        <v>0.1718039567975111</v>
+      </c>
+      <c r="G704" t="inlineStr"/>
+      <c r="H704" t="inlineStr"/>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr"/>
+      <c r="B705" t="inlineStr"/>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr"/>
+      <c r="E705" t="inlineStr"/>
+      <c r="F705" t="inlineStr"/>
+      <c r="G705" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H705" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I705" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J705" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr"/>
+      <c r="B706" t="inlineStr"/>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr"/>
+      <c r="E706" t="inlineStr"/>
+      <c r="F706" t="inlineStr"/>
+      <c r="G706" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H706" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I706" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J706" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr"/>
+      <c r="B707" t="inlineStr"/>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr"/>
+      <c r="E707" t="inlineStr"/>
+      <c r="F707" t="inlineStr"/>
+      <c r="G707" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H707" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I707" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J707" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="n">
+        <v>1</v>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>419.5397187965092</v>
+      </c>
+      <c r="D708" t="n">
+        <v>20.48266874204895</v>
+      </c>
+      <c r="E708" t="n">
+        <v>12.81658580355896</v>
+      </c>
+      <c r="F708" t="n">
+        <v>0.3826277941276031</v>
+      </c>
+      <c r="G708" t="inlineStr"/>
+      <c r="H708" t="inlineStr"/>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="n">
+        <v>1</v>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>598.3018405455219</v>
+      </c>
+      <c r="D709" t="n">
+        <v>24.46020933159653</v>
+      </c>
+      <c r="E709" t="n">
+        <v>16.6486150717001</v>
+      </c>
+      <c r="F709" t="n">
+        <v>0.1940482173501302</v>
+      </c>
+      <c r="G709" t="inlineStr"/>
+      <c r="H709" t="inlineStr"/>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="n">
+        <v>2</v>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>418.0195326054766</v>
+      </c>
+      <c r="D710" t="n">
+        <v>20.44552598016194</v>
+      </c>
+      <c r="E710" t="n">
+        <v>12.46653153685493</v>
+      </c>
+      <c r="F710" t="n">
+        <v>0.3849550420795651</v>
+      </c>
+      <c r="G710" t="inlineStr"/>
+      <c r="H710" t="inlineStr"/>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="n">
+        <v>2</v>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>597.393038972345</v>
+      </c>
+      <c r="D711" t="n">
+        <v>24.4416251295274</v>
+      </c>
+      <c r="E711" t="n">
+        <v>16.21319078038913</v>
+      </c>
+      <c r="F711" t="n">
+        <v>0.195383478723826</v>
+      </c>
+      <c r="G711" t="inlineStr"/>
+      <c r="H711" t="inlineStr"/>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr"/>
+      <c r="B712" t="inlineStr"/>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr"/>
+      <c r="E712" t="inlineStr"/>
+      <c r="F712" t="inlineStr"/>
+      <c r="G712" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H712" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I712" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J712" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr"/>
+      <c r="B713" t="inlineStr"/>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr"/>
+      <c r="E713" t="inlineStr"/>
+      <c r="F713" t="inlineStr"/>
+      <c r="G713" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H713" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I713" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J713" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr"/>
+      <c r="B714" t="inlineStr"/>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr"/>
+      <c r="E714" t="inlineStr"/>
+      <c r="F714" t="inlineStr"/>
+      <c r="G714" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H714" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I714" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J714" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="n">
+        <v>1</v>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>416.4839110780197</v>
+      </c>
+      <c r="D715" t="n">
+        <v>20.40793745281526</v>
+      </c>
+      <c r="E715" t="n">
+        <v>12.7860608688376</v>
+      </c>
+      <c r="F715" t="n">
+        <v>0.3871245572881866</v>
+      </c>
+      <c r="G715" t="inlineStr"/>
+      <c r="H715" t="inlineStr"/>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="n">
+        <v>1</v>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>598.2975718717473</v>
+      </c>
+      <c r="D716" t="n">
+        <v>24.46012207393388</v>
+      </c>
+      <c r="E716" t="n">
+        <v>16.58795924429431</v>
+      </c>
+      <c r="F716" t="n">
+        <v>0.1940539675334074</v>
+      </c>
+      <c r="G716" t="inlineStr"/>
+      <c r="H716" t="inlineStr"/>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="n">
+        <v>2</v>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>415.5595683679094</v>
+      </c>
+      <c r="D717" t="n">
+        <v>20.38527822640421</v>
+      </c>
+      <c r="E717" t="n">
+        <v>12.60458559626456</v>
+      </c>
+      <c r="F717" t="n">
+        <v>0.3885744629031567</v>
+      </c>
+      <c r="G717" t="inlineStr"/>
+      <c r="H717" t="inlineStr"/>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="n">
+        <v>2</v>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>584.8826369627441</v>
+      </c>
+      <c r="D718" t="n">
+        <v>24.18434694100182</v>
+      </c>
+      <c r="E718" t="n">
+        <v>16.08662630249163</v>
+      </c>
+      <c r="F718" t="n">
+        <v>0.2122334844789108</v>
+      </c>
+      <c r="G718" t="inlineStr"/>
+      <c r="H718" t="inlineStr"/>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr"/>
+      <c r="B719" t="inlineStr"/>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr"/>
+      <c r="E719" t="inlineStr"/>
+      <c r="F719" t="inlineStr"/>
+      <c r="G719" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H719" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I719" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J719" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr"/>
+      <c r="B720" t="inlineStr"/>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr"/>
+      <c r="E720" t="inlineStr"/>
+      <c r="F720" t="inlineStr"/>
+      <c r="G720" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H720" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I720" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J720" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr"/>
+      <c r="B721" t="inlineStr"/>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr"/>
+      <c r="E721" t="inlineStr"/>
+      <c r="F721" t="inlineStr"/>
+      <c r="G721" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H721" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I721" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J721" t="n">
+        <v>12600</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="n">
+        <v>1</v>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>259.4704837051866</v>
+      </c>
+      <c r="D722" t="n">
+        <v>16.10808752475559</v>
+      </c>
+      <c r="E722" t="n">
+        <v>9.984297165586062</v>
+      </c>
+      <c r="F722" t="n">
+        <v>0.6180875384018291</v>
+      </c>
+      <c r="G722" t="inlineStr"/>
+      <c r="H722" t="inlineStr"/>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="n">
+        <v>1</v>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>375.0705623930016</v>
+      </c>
+      <c r="D723" t="n">
+        <v>19.36673855849254</v>
+      </c>
+      <c r="E723" t="n">
+        <v>13.1283568414126</v>
+      </c>
+      <c r="F723" t="n">
+        <v>0.4948470890089629</v>
+      </c>
+      <c r="G723" t="inlineStr"/>
+      <c r="H723" t="inlineStr"/>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr"/>
+      <c r="B724" t="inlineStr"/>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr"/>
+      <c r="E724" t="inlineStr"/>
+      <c r="F724" t="inlineStr"/>
+      <c r="G724" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H724" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I724" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J724" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr"/>
+      <c r="B725" t="inlineStr"/>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr"/>
+      <c r="E725" t="inlineStr"/>
+      <c r="F725" t="inlineStr"/>
+      <c r="G725" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H725" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I725" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J725" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr"/>
+      <c r="B726" t="inlineStr"/>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr"/>
+      <c r="E726" t="inlineStr"/>
+      <c r="F726" t="inlineStr"/>
+      <c r="G726" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H726" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I726" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J726" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="n">
+        <v>1</v>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>417.5319615217204</v>
+      </c>
+      <c r="D727" t="n">
+        <v>20.43359883920893</v>
+      </c>
+      <c r="E727" t="n">
+        <v>12.64454746364999</v>
+      </c>
+      <c r="F727" t="n">
+        <v>0.3855823023232715</v>
+      </c>
+      <c r="G727" t="inlineStr"/>
+      <c r="H727" t="inlineStr"/>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="n">
+        <v>1</v>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>602.164637682134</v>
+      </c>
+      <c r="D728" t="n">
+        <v>24.53904312890244</v>
+      </c>
+      <c r="E728" t="n">
+        <v>16.53971044775744</v>
+      </c>
+      <c r="F728" t="n">
+        <v>0.1888447764992236</v>
+      </c>
+      <c r="G728" t="inlineStr"/>
+      <c r="H728" t="inlineStr"/>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="n">
+        <v>2</v>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>402.6554076313465</v>
+      </c>
+      <c r="D729" t="n">
+        <v>20.06627538013337</v>
+      </c>
+      <c r="E729" t="n">
+        <v>12.23041739917377</v>
+      </c>
+      <c r="F729" t="n">
+        <v>0.4075607503327167</v>
+      </c>
+      <c r="G729" t="inlineStr"/>
+      <c r="H729" t="inlineStr"/>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="n">
+        <v>2</v>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>562.2364630973919</v>
+      </c>
+      <c r="D730" t="n">
+        <v>23.71152595463632</v>
+      </c>
+      <c r="E730" t="n">
+        <v>15.52458155437965</v>
+      </c>
+      <c r="F730" t="n">
+        <v>0.2427351549823037</v>
+      </c>
+      <c r="G730" t="inlineStr"/>
+      <c r="H730" t="inlineStr"/>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr"/>
+      <c r="B731" t="inlineStr"/>
+      <c r="C731" t="inlineStr"/>
+      <c r="D731" t="inlineStr"/>
+      <c r="E731" t="inlineStr"/>
+      <c r="F731" t="inlineStr"/>
+      <c r="G731" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H731" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I731" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J731" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr"/>
+      <c r="B732" t="inlineStr"/>
+      <c r="C732" t="inlineStr"/>
+      <c r="D732" t="inlineStr"/>
+      <c r="E732" t="inlineStr"/>
+      <c r="F732" t="inlineStr"/>
+      <c r="G732" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H732" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I732" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J732" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr"/>
+      <c r="B733" t="inlineStr"/>
+      <c r="C733" t="inlineStr"/>
+      <c r="D733" t="inlineStr"/>
+      <c r="E733" t="inlineStr"/>
+      <c r="F733" t="inlineStr"/>
+      <c r="G733" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H733" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I733" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J733" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="n">
+        <v>1</v>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>266.1624800622619</v>
+      </c>
+      <c r="D734" t="n">
+        <v>16.31448681578008</v>
+      </c>
+      <c r="E734" t="n">
+        <v>10.00183909252118</v>
+      </c>
+      <c r="F734" t="n">
+        <v>0.608237644243384</v>
+      </c>
+      <c r="G734" t="inlineStr"/>
+      <c r="H734" t="inlineStr"/>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="n">
+        <v>1</v>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>373.3893697735677</v>
+      </c>
+      <c r="D735" t="n">
+        <v>19.32328568783186</v>
+      </c>
+      <c r="E735" t="n">
+        <v>12.97076834734727</v>
+      </c>
+      <c r="F735" t="n">
+        <v>0.4971113545386949</v>
+      </c>
+      <c r="G735" t="inlineStr"/>
+      <c r="H735" t="inlineStr"/>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr"/>
+      <c r="B736" t="inlineStr"/>
+      <c r="C736" t="inlineStr"/>
+      <c r="D736" t="inlineStr"/>
+      <c r="E736" t="inlineStr"/>
+      <c r="F736" t="inlineStr"/>
+      <c r="G736" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H736" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I736" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J736" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr"/>
+      <c r="B737" t="inlineStr"/>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr"/>
+      <c r="E737" t="inlineStr"/>
+      <c r="F737" t="inlineStr"/>
+      <c r="G737" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H737" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I737" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J737" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr"/>
+      <c r="B738" t="inlineStr"/>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr"/>
+      <c r="E738" t="inlineStr"/>
+      <c r="F738" t="inlineStr"/>
+      <c r="G738" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H738" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I738" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J738" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="n">
+        <v>1</v>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>266.9717016245723</v>
+      </c>
+      <c r="D739" t="n">
+        <v>16.33926869919742</v>
+      </c>
+      <c r="E739" t="n">
+        <v>10.3492813724336</v>
+      </c>
+      <c r="F739" t="n">
+        <v>0.60704655771043</v>
+      </c>
+      <c r="G739" t="inlineStr"/>
+      <c r="H739" t="inlineStr"/>
+      <c r="I739" t="inlineStr"/>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="n">
+        <v>1</v>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>385.9478946743584</v>
+      </c>
+      <c r="D740" t="n">
+        <v>19.6455566140122</v>
+      </c>
+      <c r="E740" t="n">
+        <v>13.40304146489416</v>
+      </c>
+      <c r="F740" t="n">
+        <v>0.4801972694371811</v>
+      </c>
+      <c r="G740" t="inlineStr"/>
+      <c r="H740" t="inlineStr"/>
+      <c r="I740" t="inlineStr"/>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr"/>
+      <c r="B741" t="inlineStr"/>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr"/>
+      <c r="E741" t="inlineStr"/>
+      <c r="F741" t="inlineStr"/>
+      <c r="G741" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H741" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J741" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr"/>
+      <c r="B742" t="inlineStr"/>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr"/>
+      <c r="E742" t="inlineStr"/>
+      <c r="F742" t="inlineStr"/>
+      <c r="G742" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H742" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I742" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J742" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr"/>
+      <c r="B743" t="inlineStr"/>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr"/>
+      <c r="E743" t="inlineStr"/>
+      <c r="F743" t="inlineStr"/>
+      <c r="G743" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H743" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I743" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J743" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="n">
+        <v>1</v>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>268.128444104402</v>
+      </c>
+      <c r="D744" t="n">
+        <v>16.37462806003245</v>
+      </c>
+      <c r="E744" t="n">
+        <v>10.49714144392467</v>
+      </c>
+      <c r="F744" t="n">
+        <v>0.6053439580096915</v>
+      </c>
+      <c r="G744" t="inlineStr"/>
+      <c r="H744" t="inlineStr"/>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="n">
+        <v>1</v>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>392.0840294491938</v>
+      </c>
+      <c r="D745" t="n">
+        <v>19.80111182356167</v>
+      </c>
+      <c r="E745" t="n">
+        <v>13.64965788187025</v>
+      </c>
+      <c r="F745" t="n">
+        <v>0.4719329942459611</v>
+      </c>
+      <c r="G745" t="inlineStr"/>
+      <c r="H745" t="inlineStr"/>
+      <c r="I745" t="inlineStr"/>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr"/>
+      <c r="B746" t="inlineStr"/>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr"/>
+      <c r="E746" t="inlineStr"/>
+      <c r="F746" t="inlineStr"/>
+      <c r="G746" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H746" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I746" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J746" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr"/>
+      <c r="B747" t="inlineStr"/>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr"/>
+      <c r="E747" t="inlineStr"/>
+      <c r="F747" t="inlineStr"/>
+      <c r="G747" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H747" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I747" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J747" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr"/>
+      <c r="B748" t="inlineStr"/>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr"/>
+      <c r="E748" t="inlineStr"/>
+      <c r="F748" t="inlineStr"/>
+      <c r="G748" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H748" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I748" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J748" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="n">
+        <v>1</v>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>268.0451714826911</v>
+      </c>
+      <c r="D749" t="n">
+        <v>16.37208512935024</v>
+      </c>
+      <c r="E749" t="n">
+        <v>10.19833335691698</v>
+      </c>
+      <c r="F749" t="n">
+        <v>0.6054665262937107</v>
+      </c>
+      <c r="G749" t="inlineStr"/>
+      <c r="H749" t="inlineStr"/>
+      <c r="I749" t="inlineStr"/>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="n">
+        <v>1</v>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>378.935231969507</v>
+      </c>
+      <c r="D750" t="n">
+        <v>19.46625880772952</v>
+      </c>
+      <c r="E750" t="n">
+        <v>13.10307471272893</v>
+      </c>
+      <c r="F750" t="n">
+        <v>0.4896420708541532</v>
+      </c>
+      <c r="G750" t="inlineStr"/>
+      <c r="H750" t="inlineStr"/>
+      <c r="I750" t="inlineStr"/>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr"/>
+      <c r="B751" t="inlineStr"/>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr"/>
+      <c r="E751" t="inlineStr"/>
+      <c r="F751" t="inlineStr"/>
+      <c r="G751" t="inlineStr">
+        <is>
+          <t>lstm</t>
+        </is>
+      </c>
+      <c r="H751" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I751" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J751" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr"/>
+      <c r="B752" t="inlineStr"/>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr"/>
+      <c r="E752" t="inlineStr"/>
+      <c r="F752" t="inlineStr"/>
+      <c r="G752" t="inlineStr">
+        <is>
+          <t>lstm_1</t>
+        </is>
+      </c>
+      <c r="H752" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I752" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J752" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr"/>
+      <c r="B753" t="inlineStr"/>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr"/>
+      <c r="E753" t="inlineStr"/>
+      <c r="F753" t="inlineStr"/>
+      <c r="G753" t="inlineStr">
+        <is>
+          <t>lstm_2</t>
+        </is>
+      </c>
+      <c r="H753" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I753" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J753" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="n">
+        <v>1</v>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>272.9722590165034</v>
+      </c>
+      <c r="D754" t="n">
+        <v>16.52187214018143</v>
+      </c>
+      <c r="E754" t="n">
+        <v>10.74210572325019</v>
+      </c>
+      <c r="F754" t="n">
+        <v>0.5982143868531183</v>
+      </c>
+      <c r="G754" t="inlineStr"/>
+      <c r="H754" t="inlineStr"/>
+      <c r="I754" t="inlineStr"/>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="n">
+        <v>1</v>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>395.642886529052</v>
+      </c>
+      <c r="D755" t="n">
+        <v>19.8907739047291</v>
+      </c>
+      <c r="E755" t="n">
+        <v>13.73729995578414</v>
+      </c>
+      <c r="F755" t="n">
+        <v>0.4671398507845776</v>
+      </c>
+      <c r="G755" t="inlineStr"/>
+      <c r="H755" t="inlineStr"/>
+      <c r="I755" t="inlineStr"/>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr"/>
+      <c r="B756" t="inlineStr"/>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr"/>
+      <c r="E756" t="inlineStr"/>
+      <c r="F756" t="inlineStr"/>
+      <c r="G756" t="inlineStr">
+        <is>
+          <t>lstm_3</t>
+        </is>
+      </c>
+      <c r="H756" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I756" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J756" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr"/>
+      <c r="B757" t="inlineStr"/>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr"/>
+      <c r="E757" t="inlineStr"/>
+      <c r="F757" t="inlineStr"/>
+      <c r="G757" t="inlineStr">
+        <is>
+          <t>lstm_4</t>
+        </is>
+      </c>
+      <c r="H757" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I757" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J757" t="n">
+        <v>210600</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr"/>
+      <c r="B758" t="inlineStr"/>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr"/>
+      <c r="E758" t="inlineStr"/>
+      <c r="F758" t="inlineStr"/>
+      <c r="G758" t="inlineStr">
+        <is>
+          <t>lstm_5</t>
+        </is>
+      </c>
+      <c r="H758" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I758" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J758" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="n">
+        <v>1</v>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>261.357797150155</v>
+      </c>
+      <c r="D759" t="n">
+        <v>16.16656417270395</v>
+      </c>
+      <c r="E759" t="n">
+        <v>10.16194051989859</v>
+      </c>
+      <c r="F759" t="n">
+        <v>0.6153096173324168</v>
+      </c>
+      <c r="G759" t="inlineStr"/>
+      <c r="H759" t="inlineStr"/>
+      <c r="I759" t="inlineStr"/>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="n">
+        <v>1</v>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>375.789261108114</v>
+      </c>
+      <c r="D760" t="n">
+        <v>19.38528465378092</v>
+      </c>
+      <c r="E760" t="n">
+        <v>13.06932019896274</v>
+      </c>
+      <c r="F760" t="n">
+        <v>0.4938791304847102</v>
+      </c>
+      <c r="G760" t="inlineStr"/>
+      <c r="H760" t="inlineStr"/>
+      <c r="I760" t="inlineStr"/>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr"/>
+      <c r="B761" t="inlineStr"/>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr"/>
+      <c r="E761" t="inlineStr"/>
+      <c r="F761" t="inlineStr"/>
+      <c r="G761" t="inlineStr">
+        <is>
+          <t>lstm_6</t>
+        </is>
+      </c>
+      <c r="H761" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I761" t="inlineStr">
+        <is>
+          <t>(None, 1, 300)</t>
+        </is>
+      </c>
+      <c r="J761" t="n">
+        <v>379200</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr"/>
+      <c r="B762" t="inlineStr"/>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr"/>
+      <c r="E762" t="inlineStr"/>
+      <c r="F762" t="inlineStr"/>
+      <c r="G762" t="inlineStr">
+        <is>
+          <t>lstm_7</t>
+        </is>
+      </c>
+      <c r="H762" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I762" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J762" t="n">
+        <v>270600</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr"/>
+      <c r="B763" t="inlineStr"/>
+      <c r="C763" t="inlineStr"/>
+      <c r="D763" t="inlineStr"/>
+      <c r="E763" t="inlineStr"/>
+      <c r="F763" t="inlineStr"/>
+      <c r="G763" t="inlineStr">
+        <is>
+          <t>lstm_8</t>
+        </is>
+      </c>
+      <c r="H763" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I763" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J763" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="n">
+        <v>1</v>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>259.9398483754044</v>
+      </c>
+      <c r="D764" t="n">
+        <v>16.12265016600573</v>
+      </c>
+      <c r="E764" t="n">
+        <v>10.03053822012384</v>
+      </c>
+      <c r="F764" t="n">
+        <v>0.6173966844209431</v>
+      </c>
+      <c r="G764" t="inlineStr"/>
+      <c r="H764" t="inlineStr"/>
+      <c r="I764" t="inlineStr"/>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="n">
+        <v>1</v>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>376.655258412082</v>
+      </c>
+      <c r="D765" t="n">
+        <v>19.40760826099089</v>
+      </c>
+      <c r="E765" t="n">
+        <v>13.15046338384676</v>
+      </c>
+      <c r="F765" t="n">
+        <v>0.4927127871272929</v>
+      </c>
+      <c r="G765" t="inlineStr"/>
+      <c r="H765" t="inlineStr"/>
+      <c r="I765" t="inlineStr"/>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr"/>
+      <c r="B766" t="inlineStr"/>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr"/>
+      <c r="E766" t="inlineStr"/>
+      <c r="F766" t="inlineStr"/>
+      <c r="G766" t="inlineStr">
+        <is>
+          <t>lstm_9</t>
+        </is>
+      </c>
+      <c r="H766" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I766" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J766" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr"/>
+      <c r="B767" t="inlineStr"/>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr"/>
+      <c r="E767" t="inlineStr"/>
+      <c r="F767" t="inlineStr"/>
+      <c r="G767" t="inlineStr">
+        <is>
+          <t>lstm_10</t>
+        </is>
+      </c>
+      <c r="H767" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I767" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J767" t="n">
+        <v>240600</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr"/>
+      <c r="B768" t="inlineStr"/>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr"/>
+      <c r="E768" t="inlineStr"/>
+      <c r="F768" t="inlineStr"/>
+      <c r="G768" t="inlineStr">
+        <is>
+          <t>lstm_11</t>
+        </is>
+      </c>
+      <c r="H768" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I768" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J768" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr"/>
+      <c r="B769" t="inlineStr"/>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr"/>
+      <c r="E769" t="inlineStr"/>
+      <c r="F769" t="inlineStr"/>
+      <c r="G769" t="inlineStr">
+        <is>
+          <t>lstm_12</t>
+        </is>
+      </c>
+      <c r="H769" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I769" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J769" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="n">
+        <v>1</v>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>268.1295727491951</v>
+      </c>
+      <c r="D770" t="n">
+        <v>16.37466252321541</v>
+      </c>
+      <c r="E770" t="n">
+        <v>10.20547111939723</v>
+      </c>
+      <c r="F770" t="n">
+        <v>0.6053422967667437</v>
+      </c>
+      <c r="G770" t="inlineStr"/>
+      <c r="H770" t="inlineStr"/>
+      <c r="I770" t="inlineStr"/>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="n">
+        <v>1</v>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>383.4843202078123</v>
+      </c>
+      <c r="D771" t="n">
+        <v>19.58275568472967</v>
+      </c>
+      <c r="E771" t="n">
+        <v>13.27679154467183</v>
+      </c>
+      <c r="F771" t="n">
+        <v>0.4835152632708719</v>
+      </c>
+      <c r="G771" t="inlineStr"/>
+      <c r="H771" t="inlineStr"/>
+      <c r="I771" t="inlineStr"/>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr"/>
+      <c r="B772" t="inlineStr"/>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr"/>
+      <c r="E772" t="inlineStr"/>
+      <c r="F772" t="inlineStr"/>
+      <c r="G772" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H772" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I772" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J772" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr"/>
+      <c r="B773" t="inlineStr"/>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr"/>
+      <c r="E773" t="inlineStr"/>
+      <c r="F773" t="inlineStr"/>
+      <c r="G773" t="inlineStr">
+        <is>
+          <t>lstm_14</t>
+        </is>
+      </c>
+      <c r="H773" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I773" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J773" t="n">
+        <v>140400</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr"/>
+      <c r="B774" t="inlineStr"/>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr"/>
+      <c r="E774" t="inlineStr"/>
+      <c r="F774" t="inlineStr"/>
+      <c r="G774" t="inlineStr">
+        <is>
+          <t>lstm_15</t>
+        </is>
+      </c>
+      <c r="H774" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I774" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J774" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="n">
+        <v>1</v>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>272.7949406318101</v>
+      </c>
+      <c r="D775" t="n">
+        <v>16.51650509738093</v>
+      </c>
+      <c r="E775" t="n">
+        <v>10.39493592739405</v>
+      </c>
+      <c r="F775" t="n">
+        <v>0.5984753803188021</v>
+      </c>
+      <c r="G775" t="inlineStr"/>
+      <c r="H775" t="inlineStr"/>
+      <c r="I775" t="inlineStr"/>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="n">
+        <v>1</v>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>395.1316711459158</v>
+      </c>
+      <c r="D776" t="n">
+        <v>19.87791918551627</v>
+      </c>
+      <c r="E776" t="n">
+        <v>13.57539748755904</v>
+      </c>
+      <c r="F776" t="n">
+        <v>0.4678283663995783</v>
+      </c>
+      <c r="G776" t="inlineStr"/>
+      <c r="H776" t="inlineStr"/>
+      <c r="I776" t="inlineStr"/>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr"/>
+      <c r="B777" t="inlineStr"/>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr"/>
+      <c r="E777" t="inlineStr"/>
+      <c r="F777" t="inlineStr"/>
+      <c r="G777" t="inlineStr">
+        <is>
+          <t>lstm_16</t>
+        </is>
+      </c>
+      <c r="H777" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I777" t="inlineStr">
+        <is>
+          <t>(None, 1, 250)</t>
+        </is>
+      </c>
+      <c r="J777" t="n">
+        <v>266000</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr"/>
+      <c r="B778" t="inlineStr"/>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr"/>
+      <c r="E778" t="inlineStr"/>
+      <c r="F778" t="inlineStr"/>
+      <c r="G778" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H778" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I778" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J778" t="n">
+        <v>140400</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="n">
+        <v>1</v>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>264.6465463928898</v>
+      </c>
+      <c r="D779" t="n">
+        <v>16.2679607324609</v>
+      </c>
+      <c r="E779" t="n">
+        <v>10.07150205677682</v>
+      </c>
+      <c r="F779" t="n">
+        <v>0.6104689344888952</v>
+      </c>
+      <c r="G779" t="inlineStr"/>
+      <c r="H779" t="inlineStr"/>
+      <c r="I779" t="inlineStr"/>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="n">
+        <v>1</v>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>378.0577262378322</v>
+      </c>
+      <c r="D780" t="n">
+        <v>19.44370659719572</v>
+      </c>
+      <c r="E780" t="n">
+        <v>13.07087797387581</v>
+      </c>
+      <c r="F780" t="n">
+        <v>0.4908239140037161</v>
+      </c>
+      <c r="G780" t="inlineStr"/>
+      <c r="H780" t="inlineStr"/>
+      <c r="I780" t="inlineStr"/>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr"/>
+      <c r="B781" t="inlineStr"/>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr"/>
+      <c r="E781" t="inlineStr"/>
+      <c r="F781" t="inlineStr"/>
+      <c r="G781" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H781" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I781" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J781" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr"/>
+      <c r="B782" t="inlineStr"/>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr"/>
+      <c r="E782" t="inlineStr"/>
+      <c r="F782" t="inlineStr"/>
+      <c r="G782" t="inlineStr">
+        <is>
+          <t>lstm_19</t>
+        </is>
+      </c>
+      <c r="H782" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I782" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J782" t="n">
+        <v>120400</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="n">
+        <v>1</v>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>262.0069482525116</v>
+      </c>
+      <c r="D783" t="n">
+        <v>16.18662868705252</v>
+      </c>
+      <c r="E783" t="n">
+        <v>10.01636941150949</v>
+      </c>
+      <c r="F783" t="n">
+        <v>0.6143541371871999</v>
+      </c>
+      <c r="G783" t="inlineStr"/>
+      <c r="H783" t="inlineStr"/>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="n">
+        <v>1</v>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>371.0280979351913</v>
+      </c>
+      <c r="D784" t="n">
+        <v>19.26208965650381</v>
+      </c>
+      <c r="E784" t="n">
+        <v>12.91125897845114</v>
+      </c>
+      <c r="F784" t="n">
+        <v>0.5002915650441175</v>
+      </c>
+      <c r="G784" t="inlineStr"/>
+      <c r="H784" t="inlineStr"/>
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr"/>
+      <c r="B785" t="inlineStr"/>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr"/>
+      <c r="E785" t="inlineStr"/>
+      <c r="F785" t="inlineStr"/>
+      <c r="G785" t="inlineStr">
+        <is>
+          <t>lstm_20</t>
+        </is>
+      </c>
+      <c r="H785" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I785" t="inlineStr">
+        <is>
+          <t>(None, 1, 200)</t>
+        </is>
+      </c>
+      <c r="J785" t="n">
+        <v>172800</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr"/>
+      <c r="B786" t="inlineStr"/>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr"/>
+      <c r="E786" t="inlineStr"/>
+      <c r="F786" t="inlineStr"/>
+      <c r="G786" t="inlineStr">
+        <is>
+          <t>lstm_21</t>
+        </is>
+      </c>
+      <c r="H786" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I786" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J786" t="n">
+        <v>50200</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="n">
+        <v>1</v>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>432.7821804707225</v>
+      </c>
+      <c r="D787" t="n">
+        <v>20.8034175190213</v>
+      </c>
+      <c r="E787" t="n">
+        <v>13.33742223041081</v>
+      </c>
+      <c r="F787" t="n">
+        <v>0.36314089596587</v>
+      </c>
+      <c r="G787" t="inlineStr"/>
+      <c r="H787" t="inlineStr"/>
+      <c r="I787" t="inlineStr"/>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="n">
+        <v>1</v>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>608.7561302074664</v>
+      </c>
+      <c r="D788" t="n">
+        <v>24.67298381241041</v>
+      </c>
+      <c r="E788" t="n">
+        <v>16.98209792607375</v>
+      </c>
+      <c r="F788" t="n">
+        <v>0.1799656041632814</v>
+      </c>
+      <c r="G788" t="inlineStr"/>
+      <c r="H788" t="inlineStr"/>
+      <c r="I788" t="inlineStr"/>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="n">
+        <v>2</v>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>426.4231292503924</v>
+      </c>
+      <c r="D789" t="n">
+        <v>20.65001523608136</v>
+      </c>
+      <c r="E789" t="n">
+        <v>13.13317136442044</v>
+      </c>
+      <c r="F789" t="n">
+        <v>0.3725905726189225</v>
+      </c>
+      <c r="G789" t="inlineStr"/>
+      <c r="H789" t="inlineStr"/>
+      <c r="I789" t="inlineStr"/>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="n">
+        <v>2</v>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>601.9371604626799</v>
+      </c>
+      <c r="D790" t="n">
+        <v>24.53440768518123</v>
+      </c>
+      <c r="E790" t="n">
+        <v>16.69988514465406</v>
+      </c>
+      <c r="F790" t="n">
+        <v>0.1892630940067573</v>
+      </c>
+      <c r="G790" t="inlineStr"/>
+      <c r="H790" t="inlineStr"/>
+      <c r="I790" t="inlineStr"/>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr"/>
+      <c r="B791" t="inlineStr"/>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr"/>
+      <c r="E791" t="inlineStr"/>
+      <c r="F791" t="inlineStr"/>
+      <c r="G791" t="inlineStr">
+        <is>
+          <t>lstm_12</t>
+        </is>
+      </c>
+      <c r="H791" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I791" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J791" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr"/>
+      <c r="B792" t="inlineStr"/>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr"/>
+      <c r="E792" t="inlineStr"/>
+      <c r="F792" t="inlineStr"/>
+      <c r="G792" t="inlineStr">
+        <is>
+          <t>lstm_13</t>
+        </is>
+      </c>
+      <c r="H792" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I792" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J792" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="n">
+        <v>1</v>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>267.0245406544919</v>
+      </c>
+      <c r="D793" t="n">
+        <v>16.34088555294639</v>
+      </c>
+      <c r="E793" t="n">
+        <v>10.49280095670123</v>
+      </c>
+      <c r="F793" t="n">
+        <v>0.6069687843787706</v>
+      </c>
+      <c r="G793" t="inlineStr"/>
+      <c r="H793" t="inlineStr"/>
+      <c r="I793" t="inlineStr"/>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="n">
+        <v>1</v>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>378.9655912082587</v>
+      </c>
+      <c r="D794" t="n">
+        <v>19.46703858341732</v>
+      </c>
+      <c r="E794" t="n">
+        <v>13.27733096073105</v>
+      </c>
+      <c r="F794" t="n">
+        <v>0.4896011823937712</v>
+      </c>
+      <c r="G794" t="inlineStr"/>
+      <c r="H794" t="inlineStr"/>
+      <c r="I794" t="inlineStr"/>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr"/>
+      <c r="B795" t="inlineStr"/>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr"/>
+      <c r="E795" t="inlineStr"/>
+      <c r="F795" t="inlineStr"/>
+      <c r="G795" t="inlineStr">
+        <is>
+          <t>lstm_22</t>
+        </is>
+      </c>
+      <c r="H795" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I795" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J795" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr"/>
+      <c r="B796" t="inlineStr"/>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr"/>
+      <c r="E796" t="inlineStr"/>
+      <c r="F796" t="inlineStr"/>
+      <c r="G796" t="inlineStr">
+        <is>
+          <t>lstm_23</t>
+        </is>
+      </c>
+      <c r="H796" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I796" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J796" t="n">
+        <v>17600</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="n">
+        <v>1</v>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>272.5435443269083</v>
+      </c>
+      <c r="D797" t="n">
+        <v>16.50889288616618</v>
+      </c>
+      <c r="E797" t="n">
+        <v>10.4302552658543</v>
+      </c>
+      <c r="F797" t="n">
+        <v>0.5988454084633166</v>
+      </c>
+      <c r="G797" t="inlineStr"/>
+      <c r="H797" t="inlineStr"/>
+      <c r="I797" t="inlineStr"/>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="n">
+        <v>1</v>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>393.4675312792147</v>
+      </c>
+      <c r="D798" t="n">
+        <v>19.83601601328288</v>
+      </c>
+      <c r="E798" t="n">
+        <v>13.4492292933924</v>
+      </c>
+      <c r="F798" t="n">
+        <v>0.470069664923773</v>
+      </c>
+      <c r="G798" t="inlineStr"/>
+      <c r="H798" t="inlineStr"/>
+      <c r="I798" t="inlineStr"/>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr"/>
+      <c r="B799" t="inlineStr"/>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr"/>
+      <c r="E799" t="inlineStr"/>
+      <c r="F799" t="inlineStr"/>
+      <c r="G799" t="inlineStr">
+        <is>
+          <t>lstm_24</t>
+        </is>
+      </c>
+      <c r="H799" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I799" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J799" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr"/>
+      <c r="B800" t="inlineStr"/>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr"/>
+      <c r="E800" t="inlineStr"/>
+      <c r="F800" t="inlineStr"/>
+      <c r="G800" t="inlineStr">
+        <is>
+          <t>lstm_25</t>
+        </is>
+      </c>
+      <c r="H800" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I800" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J800" t="n">
+        <v>17600</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr"/>
+      <c r="B801" t="inlineStr"/>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr"/>
+      <c r="E801" t="inlineStr"/>
+      <c r="F801" t="inlineStr"/>
+      <c r="G801" t="inlineStr">
+        <is>
+          <t>lstm_26</t>
+        </is>
+      </c>
+      <c r="H801" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I801" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J801" t="n">
+        <v>50400</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="n">
+        <v>1</v>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>264.8877899612629</v>
+      </c>
+      <c r="D802" t="n">
+        <v>16.27537372723781</v>
+      </c>
+      <c r="E802" t="n">
+        <v>10.15346108053797</v>
+      </c>
+      <c r="F802" t="n">
+        <v>0.61011385007341</v>
+      </c>
+      <c r="G802" t="inlineStr"/>
+      <c r="H802" t="inlineStr"/>
+      <c r="I802" t="inlineStr"/>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="n">
+        <v>1</v>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>380.1777909420351</v>
+      </c>
+      <c r="D803" t="n">
+        <v>19.49814839778472</v>
+      </c>
+      <c r="E803" t="n">
+        <v>13.22230727673843</v>
+      </c>
+      <c r="F803" t="n">
+        <v>0.4879685663326416</v>
+      </c>
+      <c r="G803" t="inlineStr"/>
+      <c r="H803" t="inlineStr"/>
+      <c r="I803" t="inlineStr"/>
+      <c r="J803" t="inlineStr"/>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr"/>
+      <c r="B804" t="inlineStr"/>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr"/>
+      <c r="E804" t="inlineStr"/>
+      <c r="F804" t="inlineStr"/>
+      <c r="G804" t="inlineStr">
+        <is>
+          <t>lstm_27</t>
+        </is>
+      </c>
+      <c r="H804" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I804" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J804" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K804" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr"/>
+      <c r="B805" t="inlineStr"/>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr"/>
+      <c r="E805" t="inlineStr"/>
+      <c r="F805" t="inlineStr"/>
+      <c r="G805" t="inlineStr">
+        <is>
+          <t>lstm_28</t>
+        </is>
+      </c>
+      <c r="H805" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I805" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J805" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K805" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr"/>
+      <c r="B806" t="inlineStr"/>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr"/>
+      <c r="E806" t="inlineStr"/>
+      <c r="F806" t="inlineStr"/>
+      <c r="G806" t="inlineStr">
+        <is>
+          <t>lstm_29</t>
+        </is>
+      </c>
+      <c r="H806" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I806" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J806" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="n">
+        <v>1</v>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>276.8757136568577</v>
+      </c>
+      <c r="D807" t="n">
+        <v>16.63958273686145</v>
+      </c>
+      <c r="E807" t="n">
+        <v>10.4852525176657</v>
+      </c>
+      <c r="F807" t="n">
+        <v>0.592468924212642</v>
+      </c>
+      <c r="G807" t="inlineStr"/>
+      <c r="H807" t="inlineStr"/>
+      <c r="I807" t="inlineStr"/>
+      <c r="J807" t="inlineStr"/>
+      <c r="K807" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="n">
+        <v>1</v>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>386.9559963318291</v>
+      </c>
+      <c r="D808" t="n">
+        <v>19.67119712503103</v>
+      </c>
+      <c r="E808" t="n">
+        <v>13.3997931658837</v>
+      </c>
+      <c r="F808" t="n">
+        <v>0.4788395369518665</v>
+      </c>
+      <c r="G808" t="inlineStr"/>
+      <c r="H808" t="inlineStr"/>
+      <c r="I808" t="inlineStr"/>
+      <c r="J808" t="inlineStr"/>
+      <c r="K808" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr"/>
+      <c r="B809" t="inlineStr"/>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr"/>
+      <c r="E809" t="inlineStr"/>
+      <c r="F809" t="inlineStr"/>
+      <c r="G809" t="inlineStr">
+        <is>
+          <t>lstm_30</t>
+        </is>
+      </c>
+      <c r="H809" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J809" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr"/>
+      <c r="B810" t="inlineStr"/>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr"/>
+      <c r="E810" t="inlineStr"/>
+      <c r="F810" t="inlineStr"/>
+      <c r="G810" t="inlineStr">
+        <is>
+          <t>lstm_31</t>
+        </is>
+      </c>
+      <c r="H810" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J810" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K810" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr"/>
+      <c r="B811" t="inlineStr"/>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr"/>
+      <c r="E811" t="inlineStr"/>
+      <c r="F811" t="inlineStr"/>
+      <c r="G811" t="inlineStr">
+        <is>
+          <t>lstm_32</t>
+        </is>
+      </c>
+      <c r="H811" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J811" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K811" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="n">
+        <v>1</v>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>289.5465627642133</v>
+      </c>
+      <c r="D812" t="n">
+        <v>17.01606778207625</v>
+      </c>
+      <c r="E812" t="n">
+        <v>10.78661331704522</v>
+      </c>
+      <c r="F812" t="n">
+        <v>0.573818806079639</v>
+      </c>
+      <c r="G812" t="inlineStr"/>
+      <c r="H812" t="inlineStr"/>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="inlineStr"/>
+      <c r="K812" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="n">
+        <v>1</v>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>397.8929440396326</v>
+      </c>
+      <c r="D813" t="n">
+        <v>19.94725404760346</v>
+      </c>
+      <c r="E813" t="n">
+        <v>13.44677711932707</v>
+      </c>
+      <c r="F813" t="n">
+        <v>0.464109426071651</v>
+      </c>
+      <c r="G813" t="inlineStr"/>
+      <c r="H813" t="inlineStr"/>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="inlineStr"/>
+      <c r="K813" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr"/>
+      <c r="B814" t="inlineStr"/>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr"/>
+      <c r="E814" t="inlineStr"/>
+      <c r="F814" t="inlineStr"/>
+      <c r="G814" t="inlineStr">
+        <is>
+          <t>lstm_33</t>
+        </is>
+      </c>
+      <c r="H814" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I814" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J814" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K814" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr"/>
+      <c r="B815" t="inlineStr"/>
+      <c r="C815" t="inlineStr"/>
+      <c r="D815" t="inlineStr"/>
+      <c r="E815" t="inlineStr"/>
+      <c r="F815" t="inlineStr"/>
+      <c r="G815" t="inlineStr">
+        <is>
+          <t>lstm_34</t>
+        </is>
+      </c>
+      <c r="H815" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I815" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J815" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K815" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr"/>
+      <c r="B816" t="inlineStr"/>
+      <c r="C816" t="inlineStr"/>
+      <c r="D816" t="inlineStr"/>
+      <c r="E816" t="inlineStr"/>
+      <c r="F816" t="inlineStr"/>
+      <c r="G816" t="inlineStr">
+        <is>
+          <t>lstm_35</t>
+        </is>
+      </c>
+      <c r="H816" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I816" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J816" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K816" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="n">
+        <v>1</v>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>270.0282375096289</v>
+      </c>
+      <c r="D817" t="n">
+        <v>16.43253594274569</v>
+      </c>
+      <c r="E817" t="n">
+        <v>10.64320107658215</v>
+      </c>
+      <c r="F817" t="n">
+        <v>0.6025476677898661</v>
+      </c>
+      <c r="G817" t="inlineStr"/>
+      <c r="H817" t="inlineStr"/>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="inlineStr"/>
+      <c r="K817" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="n">
+        <v>1</v>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>403.0928892863992</v>
+      </c>
+      <c r="D818" t="n">
+        <v>20.07717333905346</v>
+      </c>
+      <c r="E818" t="n">
+        <v>14.00776036662596</v>
+      </c>
+      <c r="F818" t="n">
+        <v>0.4571060305995056</v>
+      </c>
+      <c r="G818" t="inlineStr"/>
+      <c r="H818" t="inlineStr"/>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="inlineStr"/>
+      <c r="K818" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr"/>
+      <c r="B819" t="inlineStr"/>
+      <c r="C819" t="inlineStr"/>
+      <c r="D819" t="inlineStr"/>
+      <c r="E819" t="inlineStr"/>
+      <c r="F819" t="inlineStr"/>
+      <c r="G819" t="inlineStr">
+        <is>
+          <t>lstm_36</t>
+        </is>
+      </c>
+      <c r="H819" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I819" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J819" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K819" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr"/>
+      <c r="B820" t="inlineStr"/>
+      <c r="C820" t="inlineStr"/>
+      <c r="D820" t="inlineStr"/>
+      <c r="E820" t="inlineStr"/>
+      <c r="F820" t="inlineStr"/>
+      <c r="G820" t="inlineStr">
+        <is>
+          <t>lstm_37</t>
+        </is>
+      </c>
+      <c r="H820" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I820" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J820" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K820" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr"/>
+      <c r="B821" t="inlineStr"/>
+      <c r="C821" t="inlineStr"/>
+      <c r="D821" t="inlineStr"/>
+      <c r="E821" t="inlineStr"/>
+      <c r="F821" t="inlineStr"/>
+      <c r="G821" t="inlineStr">
+        <is>
+          <t>lstm_38</t>
+        </is>
+      </c>
+      <c r="H821" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I821" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J821" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K821" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr"/>
+      <c r="B822" t="inlineStr"/>
+      <c r="C822" t="inlineStr"/>
+      <c r="D822" t="inlineStr"/>
+      <c r="E822" t="inlineStr"/>
+      <c r="F822" t="inlineStr"/>
+      <c r="G822" t="inlineStr">
+        <is>
+          <t>lstm_39</t>
+        </is>
+      </c>
+      <c r="H822" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I822" t="inlineStr">
+        <is>
+          <t>(None, 1, 10)</t>
+        </is>
+      </c>
+      <c r="J822" t="n">
+        <v>2440</v>
+      </c>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="n">
+        <v>1</v>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>428.4440351857154</v>
+      </c>
+      <c r="D823" t="n">
+        <v>20.69888970900892</v>
+      </c>
+      <c r="E823" t="n">
+        <v>13.05964535539339</v>
+      </c>
+      <c r="F823" t="n">
+        <v>0.3695246784875406</v>
+      </c>
+      <c r="G823" t="inlineStr"/>
+      <c r="H823" t="inlineStr"/>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="n">
+        <v>1</v>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>622.8482619110849</v>
+      </c>
+      <c r="D824" t="n">
+        <v>24.95692813450976</v>
+      </c>
+      <c r="E824" t="n">
+        <v>17.02925470664501</v>
+      </c>
+      <c r="F824" t="n">
+        <v>0.1609825793784799</v>
+      </c>
+      <c r="G824" t="inlineStr"/>
+      <c r="H824" t="inlineStr"/>
+      <c r="I824" t="inlineStr"/>
+      <c r="J824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="n">
+        <v>2</v>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>414.0157445523797</v>
+      </c>
+      <c r="D825" t="n">
+        <v>20.34737684696432</v>
+      </c>
+      <c r="E825" t="n">
+        <v>12.67224106275529</v>
+      </c>
+      <c r="F825" t="n">
+        <v>0.3908459382281033</v>
+      </c>
+      <c r="G825" t="inlineStr"/>
+      <c r="H825" t="inlineStr"/>
+      <c r="I825" t="inlineStr"/>
+      <c r="J825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="n">
+        <v>2</v>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>593.3940968640452</v>
+      </c>
+      <c r="D826" t="n">
+        <v>24.35968178905556</v>
+      </c>
+      <c r="E826" t="n">
+        <v>16.24691945026217</v>
+      </c>
+      <c r="F826" t="n">
+        <v>0.200769572431078</v>
+      </c>
+      <c r="G826" t="inlineStr"/>
+      <c r="H826" t="inlineStr"/>
+      <c r="I826" t="inlineStr"/>
+      <c r="J826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr"/>
+      <c r="B827" t="inlineStr"/>
+      <c r="C827" t="inlineStr"/>
+      <c r="D827" t="inlineStr"/>
+      <c r="E827" t="inlineStr"/>
+      <c r="F827" t="inlineStr"/>
+      <c r="G827" t="inlineStr">
+        <is>
+          <t>lstm_14</t>
+        </is>
+      </c>
+      <c r="H827" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I827" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J827" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr"/>
+      <c r="B828" t="inlineStr"/>
+      <c r="C828" t="inlineStr"/>
+      <c r="D828" t="inlineStr"/>
+      <c r="E828" t="inlineStr"/>
+      <c r="F828" t="inlineStr"/>
+      <c r="G828" t="inlineStr">
+        <is>
+          <t>lstm_15</t>
+        </is>
+      </c>
+      <c r="H828" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I828" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J828" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr"/>
+      <c r="B829" t="inlineStr"/>
+      <c r="C829" t="inlineStr"/>
+      <c r="D829" t="inlineStr"/>
+      <c r="E829" t="inlineStr"/>
+      <c r="F829" t="inlineStr"/>
+      <c r="G829" t="inlineStr">
+        <is>
+          <t>lstm_16</t>
+        </is>
+      </c>
+      <c r="H829" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I829" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J829" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="n">
+        <v>1</v>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>261.0795104350088</v>
+      </c>
+      <c r="D830" t="n">
+        <v>16.15795502020627</v>
+      </c>
+      <c r="E830" t="n">
+        <v>10.1247995316954</v>
+      </c>
+      <c r="F830" t="n">
+        <v>0.6157192252496406</v>
+      </c>
+      <c r="G830" t="inlineStr"/>
+      <c r="H830" t="inlineStr"/>
+      <c r="I830" t="inlineStr"/>
+      <c r="J830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="n">
+        <v>1</v>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>376.2806620926074</v>
+      </c>
+      <c r="D831" t="n">
+        <v>19.39795510079883</v>
+      </c>
+      <c r="E831" t="n">
+        <v>13.20368907941249</v>
+      </c>
+      <c r="F831" t="n">
+        <v>0.493217301317961</v>
+      </c>
+      <c r="G831" t="inlineStr"/>
+      <c r="H831" t="inlineStr"/>
+      <c r="I831" t="inlineStr"/>
+      <c r="J831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr"/>
+      <c r="B832" t="inlineStr"/>
+      <c r="C832" t="inlineStr"/>
+      <c r="D832" t="inlineStr"/>
+      <c r="E832" t="inlineStr"/>
+      <c r="F832" t="inlineStr"/>
+      <c r="G832" t="inlineStr">
+        <is>
+          <t>lstm_40</t>
+        </is>
+      </c>
+      <c r="H832" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I832" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J832" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr"/>
+      <c r="B833" t="inlineStr"/>
+      <c r="C833" t="inlineStr"/>
+      <c r="D833" t="inlineStr"/>
+      <c r="E833" t="inlineStr"/>
+      <c r="F833" t="inlineStr"/>
+      <c r="G833" t="inlineStr">
+        <is>
+          <t>lstm_41</t>
+        </is>
+      </c>
+      <c r="H833" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I833" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J833" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr"/>
+      <c r="B834" t="inlineStr"/>
+      <c r="C834" t="inlineStr"/>
+      <c r="D834" t="inlineStr"/>
+      <c r="E834" t="inlineStr"/>
+      <c r="F834" t="inlineStr"/>
+      <c r="G834" t="inlineStr">
+        <is>
+          <t>lstm_42</t>
+        </is>
+      </c>
+      <c r="H834" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I834" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J834" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr"/>
+      <c r="B835" t="inlineStr"/>
+      <c r="C835" t="inlineStr"/>
+      <c r="D835" t="inlineStr"/>
+      <c r="E835" t="inlineStr"/>
+      <c r="F835" t="inlineStr"/>
+      <c r="G835" t="inlineStr">
+        <is>
+          <t>lstm_43</t>
+        </is>
+      </c>
+      <c r="H835" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I835" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J835" t="n">
+        <v>5680</v>
+      </c>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="n">
+        <v>1</v>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>409.277174608384</v>
+      </c>
+      <c r="D836" t="n">
+        <v>20.23059995670875</v>
+      </c>
+      <c r="E836" t="n">
+        <v>12.68344370177621</v>
+      </c>
+      <c r="F836" t="n">
+        <v>0.3977296051348199</v>
+      </c>
+      <c r="G836" t="inlineStr"/>
+      <c r="H836" t="inlineStr"/>
+      <c r="I836" t="inlineStr"/>
+      <c r="J836" t="inlineStr"/>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="n">
+        <v>1</v>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>599.70536122116</v>
+      </c>
+      <c r="D837" t="n">
+        <v>24.48888240041101</v>
+      </c>
+      <c r="E837" t="n">
+        <v>16.78303257988084</v>
+      </c>
+      <c r="F837" t="n">
+        <v>0.1921575830350409</v>
+      </c>
+      <c r="G837" t="inlineStr"/>
+      <c r="H837" t="inlineStr"/>
+      <c r="I837" t="inlineStr"/>
+      <c r="J837" t="inlineStr"/>
+      <c r="K837" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="n">
+        <v>2</v>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>401.0766330940913</v>
+      </c>
+      <c r="D838" t="n">
+        <v>20.02689774014166</v>
+      </c>
+      <c r="E838" t="n">
+        <v>12.48035461932589</v>
+      </c>
+      <c r="F838" t="n">
+        <v>0.4098836497263878</v>
+      </c>
+      <c r="G838" t="inlineStr"/>
+      <c r="H838" t="inlineStr"/>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="inlineStr"/>
+      <c r="K838" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="n">
+        <v>2</v>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>577.5529510912802</v>
+      </c>
+      <c r="D839" t="n">
+        <v>24.03233137028699</v>
+      </c>
+      <c r="E839" t="n">
+        <v>16.36569216818339</v>
+      </c>
+      <c r="F839" t="n">
+        <v>0.2221056891468621</v>
+      </c>
+      <c r="G839" t="inlineStr"/>
+      <c r="H839" t="inlineStr"/>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="inlineStr"/>
+      <c r="K839" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr"/>
+      <c r="B840" t="inlineStr"/>
+      <c r="C840" t="inlineStr"/>
+      <c r="D840" t="inlineStr"/>
+      <c r="E840" t="inlineStr"/>
+      <c r="F840" t="inlineStr"/>
+      <c r="G840" t="inlineStr">
+        <is>
+          <t>lstm_17</t>
+        </is>
+      </c>
+      <c r="H840" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I840" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J840" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K840" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr"/>
+      <c r="B841" t="inlineStr"/>
+      <c r="C841" t="inlineStr"/>
+      <c r="D841" t="inlineStr"/>
+      <c r="E841" t="inlineStr"/>
+      <c r="F841" t="inlineStr"/>
+      <c r="G841" t="inlineStr">
+        <is>
+          <t>lstm_18</t>
+        </is>
+      </c>
+      <c r="H841" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I841" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J841" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K841" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr"/>
+      <c r="B842" t="inlineStr"/>
+      <c r="C842" t="inlineStr"/>
+      <c r="D842" t="inlineStr"/>
+      <c r="E842" t="inlineStr"/>
+      <c r="F842" t="inlineStr"/>
+      <c r="G842" t="inlineStr">
+        <is>
+          <t>lstm_19</t>
+        </is>
+      </c>
+      <c r="H842" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I842" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J842" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K842" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="n">
+        <v>1</v>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>279.9548064259627</v>
+      </c>
+      <c r="D843" t="n">
+        <v>16.73185005986973</v>
+      </c>
+      <c r="E843" t="n">
+        <v>10.89091580755903</v>
+      </c>
+      <c r="F843" t="n">
+        <v>0.5879368330007793</v>
+      </c>
+      <c r="G843" t="inlineStr"/>
+      <c r="H843" t="inlineStr"/>
+      <c r="I843" t="inlineStr"/>
+      <c r="J843" t="inlineStr"/>
+      <c r="K843" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="n">
+        <v>1</v>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>404.9678303940546</v>
+      </c>
+      <c r="D844" t="n">
+        <v>20.12381252134035</v>
+      </c>
+      <c r="E844" t="n">
+        <v>14.05857906263166</v>
+      </c>
+      <c r="F844" t="n">
+        <v>0.4545808205365616</v>
+      </c>
+      <c r="G844" t="inlineStr"/>
+      <c r="H844" t="inlineStr"/>
+      <c r="I844" t="inlineStr"/>
+      <c r="J844" t="inlineStr"/>
+      <c r="K844" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr"/>
+      <c r="B845" t="inlineStr"/>
+      <c r="C845" t="inlineStr"/>
+      <c r="D845" t="inlineStr"/>
+      <c r="E845" t="inlineStr"/>
+      <c r="F845" t="inlineStr"/>
+      <c r="G845" t="inlineStr">
+        <is>
+          <t>lstm_44</t>
+        </is>
+      </c>
+      <c r="H845" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I845" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J845" t="n">
+        <v>99000</v>
+      </c>
+      <c r="K845" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr"/>
+      <c r="B846" t="inlineStr"/>
+      <c r="C846" t="inlineStr"/>
+      <c r="D846" t="inlineStr"/>
+      <c r="E846" t="inlineStr"/>
+      <c r="F846" t="inlineStr"/>
+      <c r="G846" t="inlineStr">
+        <is>
+          <t>lstm_45</t>
+        </is>
+      </c>
+      <c r="H846" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I846" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J846" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K846" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr"/>
+      <c r="B847" t="inlineStr"/>
+      <c r="C847" t="inlineStr"/>
+      <c r="D847" t="inlineStr"/>
+      <c r="E847" t="inlineStr"/>
+      <c r="F847" t="inlineStr"/>
+      <c r="G847" t="inlineStr">
+        <is>
+          <t>lstm_46</t>
+        </is>
+      </c>
+      <c r="H847" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I847" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J847" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K847" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr"/>
+      <c r="B848" t="inlineStr"/>
+      <c r="C848" t="inlineStr"/>
+      <c r="D848" t="inlineStr"/>
+      <c r="E848" t="inlineStr"/>
+      <c r="F848" t="inlineStr"/>
+      <c r="G848" t="inlineStr">
+        <is>
+          <t>lstm_47</t>
+        </is>
+      </c>
+      <c r="H848" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I848" t="inlineStr">
+        <is>
+          <t>(None, 1, 25)</t>
+        </is>
+      </c>
+      <c r="J848" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K848" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="n">
+        <v>1</v>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>428.5091807857434</v>
+      </c>
+      <c r="D849" t="n">
+        <v>20.70046329881878</v>
+      </c>
+      <c r="E849" t="n">
+        <v>12.72311064912918</v>
+      </c>
+      <c r="F849" t="n">
+        <v>0.3694288137076633</v>
+      </c>
+      <c r="G849" t="inlineStr"/>
+      <c r="H849" t="inlineStr"/>
+      <c r="I849" t="inlineStr"/>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="n">
+        <v>1</v>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>639.3917084550611</v>
+      </c>
+      <c r="D850" t="n">
+        <v>25.28619600602394</v>
+      </c>
+      <c r="E850" t="n">
+        <v>16.96895777640394</v>
+      </c>
+      <c r="F850" t="n">
+        <v>0.1386974728825122</v>
+      </c>
+      <c r="G850" t="inlineStr"/>
+      <c r="H850" t="inlineStr"/>
+      <c r="I850" t="inlineStr"/>
+      <c r="J850" t="inlineStr"/>
+      <c r="K850" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="n">
+        <v>2</v>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>420.2406309359233</v>
+      </c>
+      <c r="D851" t="n">
+        <v>20.4997714849684</v>
+      </c>
+      <c r="E851" t="n">
+        <v>12.41272355399252</v>
+      </c>
+      <c r="F851" t="n">
+        <v>0.3816870719905309</v>
+      </c>
+      <c r="G851" t="inlineStr"/>
+      <c r="H851" t="inlineStr"/>
+      <c r="I851" t="inlineStr"/>
+      <c r="J851" t="inlineStr"/>
+      <c r="K851" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="n">
+        <v>2</v>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>619.9457125757076</v>
+      </c>
+      <c r="D852" t="n">
+        <v>24.89870905440095</v>
+      </c>
+      <c r="E852" t="n">
+        <v>16.35253736550652</v>
+      </c>
+      <c r="F852" t="n">
+        <v>0.1650077418196426</v>
+      </c>
+      <c r="G852" t="inlineStr"/>
+      <c r="H852" t="inlineStr"/>
+      <c r="I852" t="inlineStr"/>
+      <c r="J852" t="inlineStr"/>
+      <c r="K852" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr"/>
+      <c r="B853" t="inlineStr"/>
+      <c r="C853" t="inlineStr"/>
+      <c r="D853" t="inlineStr"/>
+      <c r="E853" t="inlineStr"/>
+      <c r="F853" t="inlineStr"/>
+      <c r="G853" t="inlineStr">
+        <is>
+          <t>lstm_20</t>
+        </is>
+      </c>
+      <c r="H853" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I853" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J853" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K853" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr"/>
+      <c r="B854" t="inlineStr"/>
+      <c r="C854" t="inlineStr"/>
+      <c r="D854" t="inlineStr"/>
+      <c r="E854" t="inlineStr"/>
+      <c r="F854" t="inlineStr"/>
+      <c r="G854" t="inlineStr">
+        <is>
+          <t>lstm_21</t>
+        </is>
+      </c>
+      <c r="H854" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I854" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J854" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K854" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr"/>
+      <c r="B855" t="inlineStr"/>
+      <c r="C855" t="inlineStr"/>
+      <c r="D855" t="inlineStr"/>
+      <c r="E855" t="inlineStr"/>
+      <c r="F855" t="inlineStr"/>
+      <c r="G855" t="inlineStr">
+        <is>
+          <t>lstm_22</t>
+        </is>
+      </c>
+      <c r="H855" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I855" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J855" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K855" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr"/>
+      <c r="B856" t="inlineStr"/>
+      <c r="C856" t="inlineStr"/>
+      <c r="D856" t="inlineStr"/>
+      <c r="E856" t="inlineStr"/>
+      <c r="F856" t="inlineStr"/>
+      <c r="G856" t="inlineStr">
+        <is>
+          <t>lstm_23</t>
+        </is>
+      </c>
+      <c r="H856" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I856" t="inlineStr">
+        <is>
+          <t>(None, 2, 25)</t>
+        </is>
+      </c>
+      <c r="J856" t="n">
+        <v>7600</v>
+      </c>
+      <c r="K856" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="n">
+        <v>1</v>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>276.3408550244587</v>
+      </c>
+      <c r="D857" t="n">
+        <v>16.62350309123978</v>
+      </c>
+      <c r="E857" t="n">
+        <v>10.66115744746791</v>
+      </c>
+      <c r="F857" t="n">
+        <v>0.5932561782154465</v>
+      </c>
+      <c r="G857" t="inlineStr"/>
+      <c r="H857" t="inlineStr"/>
+      <c r="I857" t="inlineStr"/>
+      <c r="J857" t="inlineStr"/>
+      <c r="K857" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="n">
+        <v>1</v>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>398.8518533559327</v>
+      </c>
+      <c r="D858" t="n">
+        <v>19.97127570677278</v>
+      </c>
+      <c r="E858" t="n">
+        <v>13.81337657255405</v>
+      </c>
+      <c r="F858" t="n">
+        <v>0.4628179468646055</v>
+      </c>
+      <c r="G858" t="inlineStr"/>
+      <c r="H858" t="inlineStr"/>
+      <c r="I858" t="inlineStr"/>
+      <c r="J858" t="inlineStr"/>
+      <c r="K858" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr"/>
+      <c r="B859" t="inlineStr"/>
+      <c r="C859" t="inlineStr"/>
+      <c r="D859" t="inlineStr"/>
+      <c r="E859" t="inlineStr"/>
+      <c r="F859" t="inlineStr"/>
+      <c r="G859" t="inlineStr">
+        <is>
+          <t>lstm_48</t>
+        </is>
+      </c>
+      <c r="H859" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I859" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J859" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K859" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr"/>
+      <c r="B860" t="inlineStr"/>
+      <c r="C860" t="inlineStr"/>
+      <c r="D860" t="inlineStr"/>
+      <c r="E860" t="inlineStr"/>
+      <c r="F860" t="inlineStr"/>
+      <c r="G860" t="inlineStr">
+        <is>
+          <t>lstm_49</t>
+        </is>
+      </c>
+      <c r="H860" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I860" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J860" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K860" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr"/>
+      <c r="B861" t="inlineStr"/>
+      <c r="C861" t="inlineStr"/>
+      <c r="D861" t="inlineStr"/>
+      <c r="E861" t="inlineStr"/>
+      <c r="F861" t="inlineStr"/>
+      <c r="G861" t="inlineStr">
+        <is>
+          <t>lstm_50</t>
+        </is>
+      </c>
+      <c r="H861" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I861" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J861" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K861" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr"/>
+      <c r="B862" t="inlineStr"/>
+      <c r="C862" t="inlineStr"/>
+      <c r="D862" t="inlineStr"/>
+      <c r="E862" t="inlineStr"/>
+      <c r="F862" t="inlineStr"/>
+      <c r="G862" t="inlineStr">
+        <is>
+          <t>lstm_51</t>
+        </is>
+      </c>
+      <c r="H862" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I862" t="inlineStr">
+        <is>
+          <t>(None, 1, 20)</t>
+        </is>
+      </c>
+      <c r="J862" t="n">
+        <v>5680</v>
+      </c>
+      <c r="K862" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="n">
+        <v>1</v>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>435.8887609250222</v>
+      </c>
+      <c r="D863" t="n">
+        <v>20.87794915514985</v>
+      </c>
+      <c r="E863" t="n">
+        <v>13.32186866998913</v>
+      </c>
+      <c r="F863" t="n">
+        <v>0.3585694183634803</v>
+      </c>
+      <c r="G863" t="inlineStr"/>
+      <c r="H863" t="inlineStr"/>
+      <c r="I863" t="inlineStr"/>
+      <c r="J863" t="inlineStr"/>
+      <c r="K863" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="n">
+        <v>1</v>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>620.1816748573691</v>
+      </c>
+      <c r="D864" t="n">
+        <v>24.90344704769541</v>
+      </c>
+      <c r="E864" t="n">
+        <v>17.09110960831769</v>
+      </c>
+      <c r="F864" t="n">
+        <v>0.1645746468666457</v>
+      </c>
+      <c r="G864" t="inlineStr"/>
+      <c r="H864" t="inlineStr"/>
+      <c r="I864" t="inlineStr"/>
+      <c r="J864" t="inlineStr"/>
+      <c r="K864" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="n">
+        <v>2</v>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>429.2025902744746</v>
+      </c>
+      <c r="D865" t="n">
+        <v>20.7172051752758</v>
+      </c>
+      <c r="E865" t="n">
+        <v>13.36106088071683</v>
+      </c>
+      <c r="F865" t="n">
+        <v>0.3685010663751759</v>
+      </c>
+      <c r="G865" t="inlineStr"/>
+      <c r="H865" t="inlineStr"/>
+      <c r="I865" t="inlineStr"/>
+      <c r="J865" t="inlineStr"/>
+      <c r="K865" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>2</v>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>614.4434615694563</v>
+      </c>
+      <c r="D866" t="n">
+        <v>24.78797009780059</v>
+      </c>
+      <c r="E866" t="n">
+        <v>17.03715755893144</v>
+      </c>
+      <c r="F866" t="n">
+        <v>0.1724186116741927</v>
+      </c>
+      <c r="G866" t="inlineStr"/>
+      <c r="H866" t="inlineStr"/>
+      <c r="I866" t="inlineStr"/>
+      <c r="J866" t="inlineStr"/>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr"/>
+      <c r="B867" t="inlineStr"/>
+      <c r="C867" t="inlineStr"/>
+      <c r="D867" t="inlineStr"/>
+      <c r="E867" t="inlineStr"/>
+      <c r="F867" t="inlineStr"/>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>lstm_24</t>
+        </is>
+      </c>
+      <c r="H867" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I867" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J867" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr"/>
+      <c r="B868" t="inlineStr"/>
+      <c r="C868" t="inlineStr"/>
+      <c r="D868" t="inlineStr"/>
+      <c r="E868" t="inlineStr"/>
+      <c r="F868" t="inlineStr"/>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>lstm_25</t>
+        </is>
+      </c>
+      <c r="H868" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I868" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J868" t="n">
+        <v>40200</v>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>1</v>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>260.0666215990214</v>
+      </c>
+      <c r="D869" t="n">
+        <v>16.12658121236555</v>
+      </c>
+      <c r="E869" t="n">
+        <v>10.4781810974954</v>
+      </c>
+      <c r="F869" t="n">
+        <v>0.6172100879603171</v>
+      </c>
+      <c r="G869" t="inlineStr"/>
+      <c r="H869" t="inlineStr"/>
+      <c r="I869" t="inlineStr"/>
+      <c r="J869" t="inlineStr"/>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="n">
+        <v>1</v>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>395.31501448168</v>
+      </c>
+      <c r="D870" t="n">
+        <v>19.88253038427655</v>
+      </c>
+      <c r="E870" t="n">
+        <v>13.85542492240354</v>
+      </c>
+      <c r="F870" t="n">
+        <v>0.4675814357442338</v>
+      </c>
+      <c r="G870" t="inlineStr"/>
+      <c r="H870" t="inlineStr"/>
+      <c r="I870" t="inlineStr"/>
+      <c r="J870" t="inlineStr"/>
+      <c r="K870" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr"/>
+      <c r="B871" t="inlineStr"/>
+      <c r="C871" t="inlineStr"/>
+      <c r="D871" t="inlineStr"/>
+      <c r="E871" t="inlineStr"/>
+      <c r="F871" t="inlineStr"/>
+      <c r="G871" t="inlineStr">
+        <is>
+          <t>lstm_52</t>
+        </is>
+      </c>
+      <c r="H871" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I871" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J871" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K871" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr"/>
+      <c r="B872" t="inlineStr"/>
+      <c r="C872" t="inlineStr"/>
+      <c r="D872" t="inlineStr"/>
+      <c r="E872" t="inlineStr"/>
+      <c r="F872" t="inlineStr"/>
+      <c r="G872" t="inlineStr">
+        <is>
+          <t>lstm_53</t>
+        </is>
+      </c>
+      <c r="H872" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J872" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr"/>
+      <c r="B873" t="inlineStr"/>
+      <c r="C873" t="inlineStr"/>
+      <c r="D873" t="inlineStr"/>
+      <c r="E873" t="inlineStr"/>
+      <c r="F873" t="inlineStr"/>
+      <c r="G873" t="inlineStr">
+        <is>
+          <t>lstm_54</t>
+        </is>
+      </c>
+      <c r="H873" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I873" t="inlineStr">
+        <is>
+          <t>(None, 1, 70)</t>
+        </is>
+      </c>
+      <c r="J873" t="n">
+        <v>47880</v>
+      </c>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr"/>
+      <c r="B874" t="inlineStr"/>
+      <c r="C874" t="inlineStr"/>
+      <c r="D874" t="inlineStr"/>
+      <c r="E874" t="inlineStr"/>
+      <c r="F874" t="inlineStr"/>
+      <c r="G874" t="inlineStr">
+        <is>
+          <t>lstm_55</t>
+        </is>
+      </c>
+      <c r="H874" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I874" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J874" t="n">
+        <v>24200</v>
+      </c>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="n">
+        <v>1</v>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>262.5729128610269</v>
+      </c>
+      <c r="D875" t="n">
+        <v>16.20410172953215</v>
+      </c>
+      <c r="E875" t="n">
+        <v>10.05476739094858</v>
+      </c>
+      <c r="F875" t="n">
+        <v>0.613521098555102</v>
+      </c>
+      <c r="G875" t="inlineStr"/>
+      <c r="H875" t="inlineStr"/>
+      <c r="I875" t="inlineStr"/>
+      <c r="J875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="n">
+        <v>1</v>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>370.3183435048693</v>
+      </c>
+      <c r="D876" t="n">
+        <v>19.243657227899</v>
+      </c>
+      <c r="E876" t="n">
+        <v>12.9855065714893</v>
+      </c>
+      <c r="F876" t="n">
+        <v>0.5012474772177586</v>
+      </c>
+      <c r="G876" t="inlineStr"/>
+      <c r="H876" t="inlineStr"/>
+      <c r="I876" t="inlineStr"/>
+      <c r="J876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr"/>
+      <c r="B877" t="inlineStr"/>
+      <c r="C877" t="inlineStr"/>
+      <c r="D877" t="inlineStr"/>
+      <c r="E877" t="inlineStr"/>
+      <c r="F877" t="inlineStr"/>
+      <c r="G877" t="inlineStr">
+        <is>
+          <t>lstm_56</t>
+        </is>
+      </c>
+      <c r="H877" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I877" t="inlineStr">
+        <is>
+          <t>(None, 1, 150)</t>
+        </is>
+      </c>
+      <c r="J877" t="n">
+        <v>99600</v>
+      </c>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr"/>
+      <c r="B878" t="inlineStr"/>
+      <c r="C878" t="inlineStr"/>
+      <c r="D878" t="inlineStr"/>
+      <c r="E878" t="inlineStr"/>
+      <c r="F878" t="inlineStr"/>
+      <c r="G878" t="inlineStr">
+        <is>
+          <t>lstm_57</t>
+        </is>
+      </c>
+      <c r="H878" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I878" t="inlineStr">
+        <is>
+          <t>(None, 1, 100)</t>
+        </is>
+      </c>
+      <c r="J878" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr"/>
+      <c r="B879" t="inlineStr"/>
+      <c r="C879" t="inlineStr"/>
+      <c r="D879" t="inlineStr"/>
+      <c r="E879" t="inlineStr"/>
+      <c r="F879" t="inlineStr"/>
+      <c r="G879" t="inlineStr">
+        <is>
+          <t>lstm_58</t>
+        </is>
+      </c>
+      <c r="H879" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I879" t="inlineStr">
+        <is>
+          <t>(None, 1, 50)</t>
+        </is>
+      </c>
+      <c r="J879" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>prueba de capas</t>
+        </is>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="n">
+        <v>1</v>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>422.9912339613788</v>
+      </c>
+      <c r="D880" t="n">
+        <v>20.56675069040753</v>
+      </c>
+      <c r="E880" t="n">
+        <v>12.76561735534516</v>
+      </c>
+      <c r="F880" t="n">
+        <v>0.377548729058269</v>
+      </c>
+      <c r="G880" t="inlineStr"/>
+      <c r="H880" t="inlineStr"/>
+      <c r="I880" t="inlineStr"/>
+      <c r="J880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="n">
+        <v>1</v>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>618.1055711958264</v>
+      </c>
+      <c r="D881" t="n">
+        <v>24.86172904678648</v>
+      </c>
+      <c r="E881" t="n">
+        <v>16.85415426966378</v>
+      </c>
+      <c r="F881" t="n">
+        <v>0.1673712945344192</v>
+      </c>
+      <c r="G881" t="inlineStr"/>
+      <c r="H881" t="inlineStr"/>
+      <c r="I881" t="inlineStr"/>
+      <c r="J881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="n">
+        <v>2</v>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>417.6103909188978</v>
+      </c>
+      <c r="D882" t="n">
+        <v>20.43551787743334</v>
+      </c>
+      <c r="E882" t="n">
+        <v>12.51841825502471</v>
+      </c>
+      <c r="F882" t="n">
+        <v>0.3855570247903656</v>
+      </c>
+      <c r="G882" t="inlineStr"/>
+      <c r="H882" t="inlineStr"/>
+      <c r="I882" t="inlineStr"/>
+      <c r="J882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="n">
+        <v>2</v>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>600.75810063137</v>
+      </c>
+      <c r="D883" t="n">
+        <v>24.51036720719153</v>
+      </c>
+      <c r="E883" t="n">
+        <v>16.26297989960028</v>
+      </c>
+      <c r="F883" t="n">
+        <v>0.1908511456879035</v>
+      </c>
+      <c r="G883" t="inlineStr"/>
+      <c r="H883" t="inlineStr"/>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr"/>
+      <c r="B884" t="inlineStr"/>
+      <c r="C884" t="inlineStr"/>
+      <c r="D884" t="inlineStr"/>
+      <c r="E884" t="inlineStr"/>
+      <c r="F884" t="inlineStr"/>
+      <c r="G884" t="inlineStr">
+        <is>
+          <t>lstm_26</t>
+        </is>
+      </c>
+      <c r="H884" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I884" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J884" t="n">
+        <v>98400</v>
+      </c>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr"/>
+      <c r="B885" t="inlineStr"/>
+      <c r="C885" t="inlineStr"/>
+      <c r="D885" t="inlineStr"/>
+      <c r="E885" t="inlineStr"/>
+      <c r="F885" t="inlineStr"/>
+      <c r="G885" t="inlineStr">
+        <is>
+          <t>lstm_27</t>
+        </is>
+      </c>
+      <c r="H885" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I885" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J885" t="n">
+        <v>100400</v>
+      </c>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr"/>
+      <c r="B886" t="inlineStr"/>
+      <c r="C886" t="inlineStr"/>
+      <c r="D886" t="inlineStr"/>
+      <c r="E886" t="inlineStr"/>
+      <c r="F886" t="inlineStr"/>
+      <c r="G886" t="inlineStr">
+        <is>
+          <t>lstm_28</t>
+        </is>
+      </c>
+      <c r="H886" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I886" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J886" t="n">
+        <v>30200</v>
+      </c>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="n">
+        <v>1</v>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>422.2602692079508</v>
+      </c>
+      <c r="D887" t="n">
+        <v>20.54897246112201</v>
+      </c>
+      <c r="E887" t="n">
+        <v>12.83701770820692</v>
+      </c>
+      <c r="F887" t="n">
+        <v>0.3786243776846573</v>
+      </c>
+      <c r="G887" t="inlineStr"/>
+      <c r="H887" t="inlineStr"/>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="n">
+        <v>1</v>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>614.0831265743428</v>
+      </c>
+      <c r="D888" t="n">
+        <v>24.78070068771952</v>
+      </c>
+      <c r="E888" t="n">
+        <v>16.83541704370353</v>
+      </c>
+      <c r="F888" t="n">
+        <v>0.1727897910082712</v>
+      </c>
+      <c r="G888" t="inlineStr"/>
+      <c r="H888" t="inlineStr"/>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="n">
+        <v>2</v>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>pm2.5</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>399.1207267353243</v>
+      </c>
+      <c r="D889" t="n">
+        <v>19.97800607506476</v>
+      </c>
+      <c r="E889" t="n">
+        <v>12.06637127285851</v>
+      </c>
+      <c r="F889" t="n">
+        <v>0.412761434734725</v>
+      </c>
+      <c r="G889" t="inlineStr"/>
+      <c r="H889" t="inlineStr"/>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="n">
+        <v>2</v>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>pm10</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>563.582914161037</v>
+      </c>
+      <c r="D890" t="n">
+        <v>23.73990130899952</v>
+      </c>
+      <c r="E890" t="n">
+        <v>15.53148840529191</v>
+      </c>
+      <c r="F890" t="n">
+        <v>0.2409216474584089</v>
+      </c>
+      <c r="G890" t="inlineStr"/>
+      <c r="H890" t="inlineStr"/>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr"/>
+      <c r="B891" t="inlineStr"/>
+      <c r="C891" t="inlineStr"/>
+      <c r="D891" t="inlineStr"/>
+      <c r="E891" t="inlineStr"/>
+      <c r="F891" t="inlineStr"/>
+      <c r="G891" t="inlineStr">
+        <is>
+          <t>lstm_29</t>
+        </is>
+      </c>
+      <c r="H891" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I891" t="inlineStr">
+        <is>
+          <t>(None, 2, 150)</t>
+        </is>
+      </c>
+      <c r="J891" t="inlineStr">
+        <is>
+          <t>98400</t>
+        </is>
+      </c>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr"/>
+      <c r="B892" t="inlineStr"/>
+      <c r="C892" t="inlineStr"/>
+      <c r="D892" t="inlineStr"/>
+      <c r="E892" t="inlineStr"/>
+      <c r="F892" t="inlineStr"/>
+      <c r="G892" t="inlineStr">
+        <is>
+          <t>lstm_30</t>
+        </is>
+      </c>
+      <c r="H892" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I892" t="inlineStr">
+        <is>
+          <t>(None, 2, 100)</t>
+        </is>
+      </c>
+      <c r="J892" t="inlineStr">
+        <is>
+          <t>100400</t>
+        </is>
+      </c>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
+        </is>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr"/>
+      <c r="B893" t="inlineStr"/>
+      <c r="C893" t="inlineStr"/>
+      <c r="D893" t="inlineStr"/>
+      <c r="E893" t="inlineStr"/>
+      <c r="F893" t="inlineStr"/>
+      <c r="G893" t="inlineStr">
+        <is>
+          <t>lstm_31</t>
+        </is>
+      </c>
+      <c r="H893" t="inlineStr">
+        <is>
+          <t>LSTM</t>
+        </is>
+      </c>
+      <c r="I893" t="inlineStr">
+        <is>
+          <t>(None, 2, 50)</t>
+        </is>
+      </c>
+      <c r="J893" t="inlineStr">
+        <is>
+          <t>30200</t>
+        </is>
+      </c>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>prueba de state full</t>
         </is>
       </c>
     </row>
